--- a/src/attributions/attributions_saliency_traj_455.xlsx
+++ b/src/attributions/attributions_saliency_traj_455.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.759447115252556e-09</v>
+        <v>0.0003934449923690408</v>
       </c>
       <c r="B4" t="n">
-        <v>9.448692495084288e-09</v>
+        <v>0.002071491675451398</v>
       </c>
       <c r="C4" t="n">
-        <v>8.19272027996476e-09</v>
+        <v>0.0003376416862010956</v>
       </c>
       <c r="D4" t="n">
-        <v>9.478044127320118e-09</v>
+        <v>0.0003449016949161887</v>
       </c>
       <c r="E4" t="n">
-        <v>1.183097442236658e-08</v>
+        <v>5.013062764192e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>2.659743003619042e-08</v>
+        <v>0.00226961774751544</v>
       </c>
       <c r="G4" t="n">
-        <v>1.147077899332771e-08</v>
+        <v>4.655387601815164e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>8.741279700075211e-09</v>
+        <v>0.0001694894599495456</v>
       </c>
       <c r="I4" t="n">
-        <v>2.098650586646045e-09</v>
+        <v>0.0002495301887392998</v>
       </c>
       <c r="J4" t="n">
-        <v>5.902707211902225e-09</v>
+        <v>0.0009589236578904092</v>
       </c>
       <c r="K4" t="n">
-        <v>2.16307718403641e-08</v>
+        <v>0.001148900832049549</v>
       </c>
       <c r="L4" t="n">
-        <v>1.470777544199109e-08</v>
+        <v>0.0003891598316840827</v>
       </c>
       <c r="M4" t="n">
-        <v>5.993395557624126e-09</v>
+        <v>0.0004138941003475338</v>
       </c>
       <c r="N4" t="n">
-        <v>2.86883636846369e-08</v>
+        <v>0.0001301066513406113</v>
       </c>
       <c r="O4" t="n">
-        <v>4.65685889849965e-09</v>
+        <v>0.00142328254878521</v>
       </c>
       <c r="P4" t="n">
-        <v>2.477138272283241e-09</v>
+        <v>0.0004524223040789366</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.038607030551702e-09</v>
+        <v>0.0002370750298723578</v>
       </c>
       <c r="R4" t="n">
-        <v>2.161273160439237e-09</v>
+        <v>0.0002001995890168473</v>
       </c>
       <c r="S4" t="n">
-        <v>3.787862468129788e-09</v>
+        <v>2.41536272369558e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>3.516960722649287e-09</v>
+        <v>0.000373601564206183</v>
       </c>
       <c r="U4" t="n">
-        <v>1.886630851544169e-09</v>
+        <v>0.0002652652910910547</v>
       </c>
       <c r="V4" t="n">
-        <v>1.157999029999246e-09</v>
+        <v>0.0002676219737622887</v>
       </c>
       <c r="W4" t="n">
-        <v>1.343086442062713e-08</v>
+        <v>0.0006341937114484608</v>
       </c>
       <c r="X4" t="n">
-        <v>7.080141362081349e-09</v>
+        <v>0.0001162587432190776</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.182224510098422e-09</v>
+        <v>0.0002938225516118109</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.62615795565813e-10</v>
+        <v>0.0002584964095149189</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.645783285324057e-10</v>
+        <v>8.768681436777115e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.450840110503123e-11</v>
+        <v>0.0003641365619841963</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.512665879336964e-10</v>
+        <v>0.0001267552142962813</v>
       </c>
       <c r="AD4" t="n">
-        <v>4.688266219687875e-09</v>
+        <v>0.0005074295331723988</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.735319193369889e-10</v>
+        <v>0.0001995035854633898</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.227008006310371e-08</v>
+        <v>0.0004125573323108256</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.039444796901989e-08</v>
+        <v>0.0001565470884088427</v>
       </c>
       <c r="AH4" t="n">
-        <v>4.530273933767148e-09</v>
+        <v>0.0003547280211932957</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.715102669943349e-09</v>
+        <v>5.759337363997474e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6.648386841057174e-10</v>
+        <v>0.0002431983157293871</v>
       </c>
       <c r="AK4" t="n">
-        <v>8.542647145226567e-10</v>
+        <v>2.599969229777344e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.686704719285672e-09</v>
+        <v>4.704089951701462e-05</v>
       </c>
       <c r="AM4" t="n">
-        <v>7.48632444924624e-09</v>
+        <v>0.0003151000419165939</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.460059628755062e-08</v>
+        <v>0.000346048705978319</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.021824041520404e-09</v>
+        <v>0.000189982180017978</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.867612452523872e-09</v>
+        <v>0.0003942459297832102</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3.135094628348156e-09</v>
+        <v>0.0002905030269175768</v>
       </c>
       <c r="AR4" t="n">
-        <v>3.728001463088049e-09</v>
+        <v>9.500360465608537e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.64745095343477e-09</v>
+        <v>0.0003343503922224045</v>
       </c>
       <c r="AT4" t="n">
-        <v>9.433590797414126e-09</v>
+        <v>0.0001149508680100553</v>
       </c>
       <c r="AU4" t="n">
-        <v>2.413431587910964e-08</v>
+        <v>0.0007912238361313939</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.713792301989315e-09</v>
+        <v>0.000650580448564142</v>
       </c>
       <c r="AW4" t="n">
-        <v>2.015203293126433e-08</v>
+        <v>0.0003802652645390481</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.052034098198874e-08</v>
+        <v>0.0004233840445522219</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.23317471789619e-08</v>
+        <v>0.0007823717314749956</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4.234248063283985e-09</v>
+        <v>0.00052725023124367</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.079239364543128e-08</v>
+        <v>0.0002448020677547902</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.373497842711458e-09</v>
+        <v>0.000838149746414274</v>
       </c>
       <c r="BC4" t="n">
-        <v>4.208521975357371e-09</v>
+        <v>0.0006484334589913487</v>
       </c>
       <c r="BD4" t="n">
-        <v>7.814480618151265e-09</v>
+        <v>0.0004306035698391497</v>
       </c>
       <c r="BE4" t="n">
-        <v>4.66437999335767e-09</v>
+        <v>0.000398257514461875</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.648112173986306e-09</v>
+        <v>0.0001911623548949137</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.357769363607986e-08</v>
+        <v>0.0001402994676027447</v>
       </c>
       <c r="BH4" t="n">
-        <v>4.447388679551523e-09</v>
+        <v>0.0009994584834203124</v>
       </c>
       <c r="BI4" t="n">
-        <v>6.446111644464736e-09</v>
+        <v>0.0005918316310271621</v>
       </c>
       <c r="BJ4" t="n">
-        <v>9.76888292480993e-11</v>
+        <v>0.0002212893741670996</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.253341208595771e-09</v>
+        <v>0.00038866326212883</v>
       </c>
       <c r="BL4" t="n">
-        <v>6.399626606423681e-09</v>
+        <v>0.0001251539069926366</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.824945610768737e-09</v>
+        <v>0.0002530459896661341</v>
       </c>
       <c r="BN4" t="n">
-        <v>4.049668600458745e-09</v>
+        <v>8.515642548445612e-06</v>
       </c>
       <c r="BO4" t="n">
-        <v>3.722758989965769e-09</v>
+        <v>0.0001140229724114761</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.72053447045073e-08</v>
+        <v>0.0004110350855626166</v>
       </c>
       <c r="BQ4" t="n">
-        <v>7.771983057125453e-10</v>
+        <v>0.0001695224636932835</v>
       </c>
       <c r="BR4" t="n">
-        <v>2.69289790466587e-09</v>
+        <v>0.0002183815668104216</v>
       </c>
       <c r="BS4" t="n">
-        <v>4.105613626848026e-09</v>
+        <v>0.0002212248073192313</v>
       </c>
       <c r="BT4" t="n">
-        <v>5.157799742860902e-10</v>
+        <v>0.0003482747415546328</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.32912400477403e-09</v>
+        <v>5.405913543654606e-05</v>
       </c>
       <c r="BV4" t="n">
-        <v>8.777096272005735e-10</v>
+        <v>0.0004820508765988052</v>
       </c>
       <c r="BW4" t="n">
-        <v>3.588221719752482e-09</v>
+        <v>0.0004420895129442215</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.113633540938963e-08</v>
+        <v>0.0001965199480764568</v>
       </c>
       <c r="BY4" t="n">
-        <v>5.480709219796154e-09</v>
+        <v>0.0005842284299433231</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.044382358372786e-08</v>
+        <v>4.047396214446053e-05</v>
       </c>
       <c r="CA4" t="n">
-        <v>3.780502577654943e-10</v>
+        <v>6.85943232383579e-05</v>
       </c>
       <c r="CB4" t="n">
-        <v>6.782787664860734e-09</v>
+        <v>8.161542791640386e-05</v>
       </c>
       <c r="CC4" t="n">
-        <v>3.799530912118598e-09</v>
+        <v>0.0001892690343083814</v>
       </c>
       <c r="CD4" t="n">
-        <v>5.910046896318022e-10</v>
+        <v>8.551357313990593e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>5.381086687350489e-09</v>
+        <v>0.0001987163559533656</v>
       </c>
       <c r="CF4" t="n">
-        <v>9.611986762081415e-10</v>
+        <v>0.000242550071561709</v>
       </c>
       <c r="CG4" t="n">
-        <v>4.149488752602792e-09</v>
+        <v>1.300505755352788e-05</v>
       </c>
       <c r="CH4" t="n">
-        <v>7.384545197552939e-10</v>
+        <v>0.000200736103579402</v>
       </c>
       <c r="CI4" t="n">
-        <v>2.767394091662823e-09</v>
+        <v>0.0003792134812101722</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2.648443242492249e-09</v>
+        <v>3.349470352986827e-05</v>
       </c>
       <c r="CK4" t="n">
-        <v>2.640425211808406e-09</v>
+        <v>8.108003385132179e-06</v>
       </c>
       <c r="CL4" t="n">
-        <v>6.889138148835627e-10</v>
+        <v>0.0002536717220209539</v>
       </c>
       <c r="CM4" t="n">
-        <v>3.819850658004498e-09</v>
+        <v>0.000253476551733911</v>
       </c>
       <c r="CN4" t="n">
-        <v>5.540466752051998e-09</v>
+        <v>0.0005776843172498047</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.453944409313124e-09</v>
+        <v>0.0003988899989053607</v>
       </c>
       <c r="CP4" t="n">
-        <v>9.485341401216374e-09</v>
+        <v>8.939503459259868e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.173019192890479e-08</v>
+        <v>0.0001256355026271194</v>
       </c>
       <c r="CR4" t="n">
-        <v>6.584138234622117e-10</v>
+        <v>1.790506757970434e-06</v>
       </c>
       <c r="CS4" t="n">
-        <v>3.535555626044129e-09</v>
+        <v>2.242610207758844e-05</v>
       </c>
       <c r="CT4" t="n">
-        <v>6.900173765700401e-09</v>
+        <v>7.328154606511816e-05</v>
       </c>
       <c r="CU4" t="n">
-        <v>4.649998608385886e-09</v>
+        <v>0.0005581217701546848</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.405295546597074e-09</v>
+        <v>1.061155126080848e-05</v>
       </c>
       <c r="CW4" t="n">
-        <v>3.31788618801454e-09</v>
+        <v>0.000243897462496534</v>
       </c>
       <c r="CX4" t="n">
-        <v>2.117805486534508e-09</v>
+        <v>0.000206084267119877</v>
       </c>
       <c r="CY4" t="n">
-        <v>3.271299231499825e-09</v>
+        <v>8.095448720268905e-05</v>
       </c>
       <c r="CZ4" t="n">
-        <v>8.204039669834629e-10</v>
+        <v>0.0002328511909581721</v>
       </c>
       <c r="DA4" t="n">
-        <v>2.834417367481024e-09</v>
+        <v>0.0002955412783194333</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.328724463789399e-09</v>
+        <v>9.145709191216156e-05</v>
       </c>
       <c r="DC4" t="n">
-        <v>2.758166361971348e-09</v>
+        <v>2.08799792744685e-05</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.038896524363508e-09</v>
+        <v>0.0002497965178918093</v>
       </c>
       <c r="DE4" t="n">
-        <v>2.889587236154512e-09</v>
+        <v>0.0002928765898104757</v>
       </c>
       <c r="DF4" t="n">
-        <v>1.753427403272667e-10</v>
+        <v>7.136109343264252e-05</v>
       </c>
       <c r="DG4" t="n">
-        <v>3.698589656764284e-09</v>
+        <v>0.0001817728480091318</v>
       </c>
       <c r="DH4" t="n">
-        <v>1.624151124701712e-08</v>
+        <v>0.0005777712212875485</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.346402989099715e-08</v>
+        <v>0.0001254158123629168</v>
       </c>
       <c r="DJ4" t="n">
-        <v>8.980413745973692e-09</v>
+        <v>0.001133530866354704</v>
       </c>
       <c r="DK4" t="n">
-        <v>1.593472020999798e-09</v>
+        <v>0.0003605475649237633</v>
       </c>
       <c r="DL4" t="n">
-        <v>3.846643448213172e-09</v>
+        <v>0.0002646850189194083</v>
       </c>
       <c r="DM4" t="n">
-        <v>1.767829216348105e-09</v>
+        <v>0.0009376072557643056</v>
       </c>
       <c r="DN4" t="n">
-        <v>3.990538566256419e-09</v>
+        <v>0.000297470367513597</v>
       </c>
       <c r="DO4" t="n">
-        <v>4.174136147838681e-09</v>
+        <v>5.121003778185695e-05</v>
       </c>
       <c r="DP4" t="n">
-        <v>2.037673585419952e-09</v>
+        <v>0.0001641056296648458</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3.67883012941661e-09</v>
+        <v>2.096158459607977e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>8.741198875839018e-09</v>
+        <v>4.494551103562117e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.003126737231241e-08</v>
+        <v>8.11084610177204e-05</v>
       </c>
       <c r="DT4" t="n">
-        <v>7.883929065144457e-10</v>
+        <v>0.0002612329553812742</v>
       </c>
       <c r="DU4" t="n">
-        <v>6.838840604928009e-09</v>
+        <v>0.0001049498459906317</v>
       </c>
       <c r="DV4" t="n">
-        <v>3.648729318683763e-09</v>
+        <v>0.0003538626478984952</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.550538586414518e-09</v>
+        <v>0.0001963581598829478</v>
       </c>
       <c r="DX4" t="n">
-        <v>1.143131145298071e-09</v>
+        <v>0.0002325182140339166</v>
       </c>
       <c r="DY4" t="n">
-        <v>2.935995668806868e-09</v>
+        <v>6.057735299691558e-05</v>
       </c>
       <c r="DZ4" t="n">
-        <v>4.894912475350566e-09</v>
+        <v>0.0002955662785097957</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.842592745049387e-11</v>
+        <v>0.0002482035779394209</v>
       </c>
       <c r="EB4" t="n">
-        <v>2.206754556866031e-09</v>
+        <v>2.006746581173502e-05</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.436219032591168e-09</v>
+        <v>2.734425652306527e-05</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.813170502629191e-09</v>
+        <v>3.552626367309131e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>2.187126035835263e-09</v>
+        <v>0.0003275510389357805</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.202025146085361e-09</v>
+        <v>0.0001295960391871631</v>
       </c>
       <c r="EG4" t="n">
-        <v>1.906465652012912e-09</v>
+        <v>0.0002509226324036717</v>
       </c>
       <c r="EH4" t="n">
-        <v>1.082955947140363e-11</v>
+        <v>9.666533878771588e-05</v>
       </c>
       <c r="EI4" t="n">
-        <v>7.894655595919176e-09</v>
+        <v>0.0003817084361799061</v>
       </c>
       <c r="EJ4" t="n">
-        <v>8.423623576447881e-09</v>
+        <v>0.0002594073012005538</v>
       </c>
       <c r="EK4" t="n">
-        <v>6.299300636669614e-09</v>
+        <v>0.000152018474182114</v>
       </c>
       <c r="EL4" t="n">
-        <v>2.752908567771328e-09</v>
+        <v>0.0002180176961701363</v>
       </c>
       <c r="EM4" t="n">
-        <v>3.496449352269337e-09</v>
+        <v>7.147734140744433e-05</v>
       </c>
       <c r="EN4" t="n">
-        <v>3.326205089138057e-09</v>
+        <v>4.774260014528409e-05</v>
       </c>
       <c r="EO4" t="n">
-        <v>6.073605174350405e-09</v>
+        <v>0.0002186656929552555</v>
       </c>
       <c r="EP4" t="n">
-        <v>4.204477210834057e-09</v>
+        <v>7.640934200026095e-06</v>
       </c>
       <c r="EQ4" t="n">
-        <v>5.712857742423694e-09</v>
+        <v>4.232909850543365e-05</v>
       </c>
       <c r="ER4" t="n">
-        <v>4.311442314275382e-09</v>
+        <v>0.000216581072891131</v>
       </c>
       <c r="ES4" t="n">
-        <v>2.796491482826013e-09</v>
+        <v>0.0004886866663582623</v>
       </c>
       <c r="ET4" t="n">
-        <v>5.614817055743515e-09</v>
+        <v>0.0006796382949687541</v>
       </c>
       <c r="EU4" t="n">
-        <v>3.571239748367816e-09</v>
+        <v>0.0002194731205236167</v>
       </c>
       <c r="EV4" t="n">
-        <v>2.901736406712985e-09</v>
+        <v>0.0003349332837387919</v>
       </c>
       <c r="EW4" t="n">
-        <v>2.521959308054988e-09</v>
+        <v>0.0005500525003299117</v>
       </c>
       <c r="EX4" t="n">
-        <v>7.427616299793272e-10</v>
+        <v>2.063685315079056e-05</v>
       </c>
       <c r="EY4" t="n">
-        <v>4.821039567559637e-09</v>
+        <v>0.0002530852216295898</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1.504705582355825e-09</v>
+        <v>9.656502516008914e-05</v>
       </c>
       <c r="FA4" t="n">
-        <v>3.457976127663187e-09</v>
+        <v>2.751888678176329e-05</v>
       </c>
       <c r="FB4" t="n">
-        <v>2.98525959507856e-09</v>
+        <v>0.0002595644618850201</v>
       </c>
       <c r="FC4" t="n">
-        <v>1.661703996624908e-09</v>
+        <v>0.0002025167195824906</v>
       </c>
       <c r="FD4" t="n">
-        <v>6.022384813064718e-10</v>
+        <v>0.0001238853292306885</v>
       </c>
       <c r="FE4" t="n">
-        <v>2.254819664315733e-09</v>
+        <v>8.134840754792094e-05</v>
       </c>
       <c r="FF4" t="n">
-        <v>1.933102983242563e-11</v>
+        <v>0.000370009511243552</v>
       </c>
       <c r="FG4" t="n">
-        <v>3.206299448166305e-09</v>
+        <v>0.0003295838250778615</v>
       </c>
       <c r="FH4" t="n">
-        <v>3.306201756814175e-09</v>
+        <v>0.0001076323096640408</v>
       </c>
       <c r="FI4" t="n">
-        <v>8.386170868845966e-09</v>
+        <v>0.0001771217066561803</v>
       </c>
       <c r="FJ4" t="n">
-        <v>5.194817465081769e-09</v>
+        <v>0.0004149602318648249</v>
       </c>
       <c r="FK4" t="n">
-        <v>3.5034177781057e-09</v>
+        <v>0.0002051220944849774</v>
       </c>
       <c r="FL4" t="n">
-        <v>1.485609080198458e-09</v>
+        <v>0.0004186482692603022</v>
       </c>
       <c r="FM4" t="n">
-        <v>1.109356828621344e-09</v>
+        <v>6.891589146107435e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>6.493671156349023e-10</v>
+        <v>2.610620867926627e-06</v>
       </c>
       <c r="FO4" t="n">
-        <v>2.955855116226758e-09</v>
+        <v>0.0002482180716469884</v>
       </c>
       <c r="FP4" t="n">
-        <v>1.336023958131705e-09</v>
+        <v>0.0002061606937786564</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2.830401690800954e-09</v>
+        <v>0.0003733740013558418</v>
       </c>
       <c r="FR4" t="n">
-        <v>5.007125380984689e-09</v>
+        <v>0.0002710531989578158</v>
       </c>
       <c r="FS4" t="n">
-        <v>1.020252682337741e-08</v>
+        <v>8.529034676030278e-05</v>
       </c>
       <c r="FT4" t="n">
-        <v>1.021108197996057e-09</v>
+        <v>0.0003752139455173165</v>
       </c>
       <c r="FU4" t="n">
-        <v>7.250035238826058e-09</v>
+        <v>0.0008855243213474751</v>
       </c>
       <c r="FV4" t="n">
-        <v>4.992124491565164e-10</v>
+        <v>0.0001264480961253867</v>
       </c>
       <c r="FW4" t="n">
-        <v>7.772846810638612e-10</v>
+        <v>7.566290150862187e-05</v>
       </c>
       <c r="FX4" t="n">
-        <v>3.647407709195249e-09</v>
+        <v>0.0003541896585375071</v>
       </c>
       <c r="FY4" t="n">
-        <v>4.529628894189841e-10</v>
+        <v>0.0004519106587395072</v>
       </c>
       <c r="FZ4" t="n">
-        <v>5.128216962191345e-09</v>
+        <v>0.0001679006236372516</v>
       </c>
       <c r="GA4" t="n">
-        <v>3.945733517696226e-09</v>
+        <v>0.0001747161441016942</v>
       </c>
       <c r="GB4" t="n">
-        <v>4.971499656392098e-09</v>
+        <v>0.0003674781764857471</v>
       </c>
       <c r="GC4" t="n">
-        <v>5.927500268398944e-09</v>
+        <v>0.0005305140512064099</v>
       </c>
       <c r="GD4" t="n">
-        <v>1.125762261189323e-09</v>
+        <v>7.510873547289521e-05</v>
       </c>
       <c r="GE4" t="n">
-        <v>3.656842606503119e-09</v>
+        <v>0.0001061673174262978</v>
       </c>
       <c r="GF4" t="n">
-        <v>1.580415687207903e-09</v>
+        <v>0.0003151371201965958</v>
       </c>
       <c r="GG4" t="n">
-        <v>4.669404862767124e-09</v>
+        <v>0.0004010459815617651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.566405362842033e-10</v>
+        <v>0.001489549060352147</v>
       </c>
       <c r="B5" t="n">
-        <v>5.482354126229438e-08</v>
+        <v>0.02166050113737583</v>
       </c>
       <c r="C5" t="n">
-        <v>3.646565271964164e-09</v>
+        <v>0.0005870512104593217</v>
       </c>
       <c r="D5" t="n">
-        <v>1.219690801690376e-07</v>
+        <v>0.01689957641065121</v>
       </c>
       <c r="E5" t="n">
-        <v>1.305391066352968e-07</v>
+        <v>0.009286306798458099</v>
       </c>
       <c r="F5" t="n">
-        <v>2.485543504349152e-08</v>
+        <v>0.004130248911678791</v>
       </c>
       <c r="G5" t="n">
-        <v>2.476834293219099e-09</v>
+        <v>0.003695361549034715</v>
       </c>
       <c r="H5" t="n">
-        <v>2.24256186953653e-08</v>
+        <v>0.003885621204972267</v>
       </c>
       <c r="I5" t="n">
-        <v>3.137708404210571e-08</v>
+        <v>0.004390710033476353</v>
       </c>
       <c r="J5" t="n">
-        <v>1.519805392646845e-09</v>
+        <v>0.003150663804262877</v>
       </c>
       <c r="K5" t="n">
-        <v>4.359777250328989e-08</v>
+        <v>0.01579966954886913</v>
       </c>
       <c r="L5" t="n">
-        <v>2.173273827565936e-08</v>
+        <v>0.001684540417045355</v>
       </c>
       <c r="M5" t="n">
-        <v>1.351737779486939e-07</v>
+        <v>0.01581253297626972</v>
       </c>
       <c r="N5" t="n">
-        <v>1.172478576449976e-07</v>
+        <v>0.01511648297309875</v>
       </c>
       <c r="O5" t="n">
-        <v>1.232250124161283e-08</v>
+        <v>0.007707635872066021</v>
       </c>
       <c r="P5" t="n">
-        <v>2.381150832064804e-09</v>
+        <v>0.001416590646840632</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.722656328695393e-08</v>
+        <v>0.001677513471804559</v>
       </c>
       <c r="R5" t="n">
-        <v>6.361121762665789e-08</v>
+        <v>0.004706772044301033</v>
       </c>
       <c r="S5" t="n">
-        <v>3.106125356922007e-09</v>
+        <v>0.0009903471218422055</v>
       </c>
       <c r="T5" t="n">
-        <v>1.889958234357891e-08</v>
+        <v>0.002368583576753736</v>
       </c>
       <c r="U5" t="n">
-        <v>6.10845152237971e-09</v>
+        <v>0.0005962182767689228</v>
       </c>
       <c r="V5" t="n">
-        <v>1.723055476077207e-08</v>
+        <v>0.003483375301584601</v>
       </c>
       <c r="W5" t="n">
-        <v>6.317480227835404e-08</v>
+        <v>0.00726094376295805</v>
       </c>
       <c r="X5" t="n">
-        <v>6.09811401375282e-09</v>
+        <v>9.494955884292722e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.09870627543296e-08</v>
+        <v>0.004713372327387333</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.501819824056838e-08</v>
+        <v>0.001557739800773561</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.470646981971413e-08</v>
+        <v>0.002316735684871674</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.697992382953544e-09</v>
+        <v>0.001577171962708235</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.915439362676352e-08</v>
+        <v>0.002690279157832265</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.054899279040455e-08</v>
+        <v>0.0002194590924773365</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.048061796879665e-08</v>
+        <v>0.002883559558540583</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.744538545902287e-08</v>
+        <v>0.005363774951547384</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.783562630919278e-08</v>
+        <v>0.004029633477330208</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.165432277934087e-08</v>
+        <v>0.0002332301810383797</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.237379881364632e-08</v>
+        <v>0.0005943025462329388</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3.589172692386455e-08</v>
+        <v>0.001392165431752801</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.220430500050497e-08</v>
+        <v>0.001168336835689843</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.326729748285516e-08</v>
+        <v>0.0004210535262245685</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.281455604082112e-09</v>
+        <v>0.0002248954551760107</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.398015368029974e-10</v>
+        <v>0.0004043710068799555</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.714412611875105e-08</v>
+        <v>0.006512745283544064</v>
       </c>
       <c r="AP5" t="n">
-        <v>5.315101248015708e-09</v>
+        <v>0.004661375656723976</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.558813161357421e-09</v>
+        <v>0.0005959460977464914</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.019137523845416e-09</v>
+        <v>0.002263609319925308</v>
       </c>
       <c r="AS5" t="n">
-        <v>8.239513960006661e-09</v>
+        <v>0.001977189211174846</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.934038599913038e-08</v>
+        <v>0.000608417671173811</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.798086443244756e-08</v>
+        <v>0.01179163064807653</v>
       </c>
       <c r="AV5" t="n">
-        <v>4.086354721266616e-08</v>
+        <v>0.0005706046940758824</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.93683982583093e-09</v>
+        <v>0.005139123648405075</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.079618741073318e-07</v>
+        <v>0.001023468561470509</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.491580903234535e-08</v>
+        <v>0.0075764125213027</v>
       </c>
       <c r="AZ5" t="n">
-        <v>6.691079690313018e-09</v>
+        <v>0.004285859875380993</v>
       </c>
       <c r="BA5" t="n">
-        <v>4.791381869040379e-08</v>
+        <v>0.006021314766258001</v>
       </c>
       <c r="BB5" t="n">
-        <v>3.228975842262116e-08</v>
+        <v>0.002278266474604607</v>
       </c>
       <c r="BC5" t="n">
-        <v>3.485609800790712e-09</v>
+        <v>0.0004080903599970043</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.996364489860071e-09</v>
+        <v>0.006425797939300537</v>
       </c>
       <c r="BE5" t="n">
-        <v>8.153006270106289e-09</v>
+        <v>0.004954872652888298</v>
       </c>
       <c r="BF5" t="n">
-        <v>8.490154357332358e-08</v>
+        <v>0.004342463798820972</v>
       </c>
       <c r="BG5" t="n">
-        <v>4.101605277639919e-09</v>
+        <v>0.005017416086047888</v>
       </c>
       <c r="BH5" t="n">
-        <v>5.947713077603112e-08</v>
+        <v>0.00505472905933857</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.608241178592152e-09</v>
+        <v>0.005535796284675598</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2.310011026906977e-08</v>
+        <v>0.001971045043319464</v>
       </c>
       <c r="BK5" t="n">
-        <v>6.904504079585649e-09</v>
+        <v>0.005499374121427536</v>
       </c>
       <c r="BL5" t="n">
-        <v>2.307771751475229e-09</v>
+        <v>0.002095826203003526</v>
       </c>
       <c r="BM5" t="n">
-        <v>4.562589595025202e-08</v>
+        <v>0.00450443010777235</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.537095428716384e-08</v>
+        <v>0.002907013753429055</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.539925342797233e-08</v>
+        <v>0.002860247623175383</v>
       </c>
       <c r="BP5" t="n">
-        <v>3.263619419158204e-08</v>
+        <v>0.005646249745041132</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.335300403582096e-08</v>
+        <v>0.002669682726264</v>
       </c>
       <c r="BR5" t="n">
-        <v>3.427083505869177e-09</v>
+        <v>0.0003547421074472368</v>
       </c>
       <c r="BS5" t="n">
-        <v>2.399144882758719e-08</v>
+        <v>0.001073990948498249</v>
       </c>
       <c r="BT5" t="n">
-        <v>5.638345346170581e-10</v>
+        <v>0.001968359109014273</v>
       </c>
       <c r="BU5" t="n">
-        <v>4.922388896488883e-08</v>
+        <v>0.001066792174242437</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.628328583080929e-08</v>
+        <v>0.006617065519094467</v>
       </c>
       <c r="BW5" t="n">
-        <v>2.310590163645543e-09</v>
+        <v>0.00230915704742074</v>
       </c>
       <c r="BX5" t="n">
-        <v>2.198541082520933e-08</v>
+        <v>0.004790401551872492</v>
       </c>
       <c r="BY5" t="n">
-        <v>4.727925784209219e-08</v>
+        <v>0.003352103289216757</v>
       </c>
       <c r="BZ5" t="n">
-        <v>5.799200675227212e-09</v>
+        <v>0.000310928124235943</v>
       </c>
       <c r="CA5" t="n">
-        <v>4.280706455972449e-09</v>
+        <v>0.00104459235444665</v>
       </c>
       <c r="CB5" t="n">
-        <v>3.293372907720027e-09</v>
+        <v>0.00471058813855052</v>
       </c>
       <c r="CC5" t="n">
-        <v>1.205527944136975e-08</v>
+        <v>0.001709682634100318</v>
       </c>
       <c r="CD5" t="n">
-        <v>2.749265171075876e-08</v>
+        <v>0.0003553801216185093</v>
       </c>
       <c r="CE5" t="n">
-        <v>9.178313220559176e-09</v>
+        <v>0.003369228914380074</v>
       </c>
       <c r="CF5" t="n">
-        <v>2.307959601210996e-09</v>
+        <v>0.001554287038743496</v>
       </c>
       <c r="CG5" t="n">
-        <v>2.08572004112284e-08</v>
+        <v>0.002408106811344624</v>
       </c>
       <c r="CH5" t="n">
-        <v>3.384012714491291e-08</v>
+        <v>0.002008480252698064</v>
       </c>
       <c r="CI5" t="n">
-        <v>2.123508480167402e-09</v>
+        <v>0.0001896534959087148</v>
       </c>
       <c r="CJ5" t="n">
-        <v>6.147322650917886e-09</v>
+        <v>0.0004125146078877151</v>
       </c>
       <c r="CK5" t="n">
-        <v>7.272591417972762e-09</v>
+        <v>0.0013664027210325</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.254706205600087e-08</v>
+        <v>0.0007838881574571133</v>
       </c>
       <c r="CM5" t="n">
-        <v>5.983249451446682e-10</v>
+        <v>0.003722716122865677</v>
       </c>
       <c r="CN5" t="n">
-        <v>7.784689337597683e-09</v>
+        <v>0.0004452423891052604</v>
       </c>
       <c r="CO5" t="n">
-        <v>3.348654686874397e-08</v>
+        <v>0.0002078710531350225</v>
       </c>
       <c r="CP5" t="n">
-        <v>2.851033187312169e-08</v>
+        <v>0.003094956511631608</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.50748213911811e-08</v>
+        <v>0.001647751778364182</v>
       </c>
       <c r="CR5" t="n">
-        <v>7.913400423831263e-08</v>
+        <v>0.001829937682487071</v>
       </c>
       <c r="CS5" t="n">
-        <v>2.234454399285823e-08</v>
+        <v>0.003273473819717765</v>
       </c>
       <c r="CT5" t="n">
-        <v>3.799265613224634e-08</v>
+        <v>0.00625268742442131</v>
       </c>
       <c r="CU5" t="n">
-        <v>3.016342731143595e-10</v>
+        <v>0.0005625860649161041</v>
       </c>
       <c r="CV5" t="n">
-        <v>3.016369376496186e-08</v>
+        <v>0.0005300588090904057</v>
       </c>
       <c r="CW5" t="n">
-        <v>1.57752335638861e-08</v>
+        <v>0.002688986016437411</v>
       </c>
       <c r="CX5" t="n">
-        <v>1.419448114603483e-09</v>
+        <v>0.002457620576024055</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.80664034843403e-08</v>
+        <v>0.002439534291625023</v>
       </c>
       <c r="CZ5" t="n">
-        <v>2.555081834998418e-08</v>
+        <v>0.00155714200809598</v>
       </c>
       <c r="DA5" t="n">
-        <v>4.288972732524599e-09</v>
+        <v>0.0006920549203641713</v>
       </c>
       <c r="DB5" t="n">
-        <v>2.878698168728988e-09</v>
+        <v>0.0005395423504523933</v>
       </c>
       <c r="DC5" t="n">
-        <v>2.129011189566654e-09</v>
+        <v>0.00119104771874845</v>
       </c>
       <c r="DD5" t="n">
-        <v>6.341046354663149e-09</v>
+        <v>2.692944690352306e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>5.780869827276547e-08</v>
+        <v>0.001510612899437547</v>
       </c>
       <c r="DF5" t="n">
-        <v>6.385315032275685e-08</v>
+        <v>0.004813096486032009</v>
       </c>
       <c r="DG5" t="n">
-        <v>2.545545818577466e-08</v>
+        <v>0.000795047206338495</v>
       </c>
       <c r="DH5" t="n">
-        <v>2.269634613583094e-08</v>
+        <v>0.01088720839470625</v>
       </c>
       <c r="DI5" t="n">
-        <v>2.764419981815536e-08</v>
+        <v>0.001133860554546118</v>
       </c>
       <c r="DJ5" t="n">
-        <v>3.042107010742257e-08</v>
+        <v>0.002216489054262638</v>
       </c>
       <c r="DK5" t="n">
-        <v>2.683452215990201e-08</v>
+        <v>0.001626695622690022</v>
       </c>
       <c r="DL5" t="n">
-        <v>4.11140632650131e-08</v>
+        <v>0.0003230334259569645</v>
       </c>
       <c r="DM5" t="n">
-        <v>6.484047077037758e-09</v>
+        <v>0.0002759982307907194</v>
       </c>
       <c r="DN5" t="n">
-        <v>1.12320268641497e-08</v>
+        <v>0.001382412272505462</v>
       </c>
       <c r="DO5" t="n">
-        <v>4.281222487634295e-09</v>
+        <v>0.003271130844950676</v>
       </c>
       <c r="DP5" t="n">
-        <v>1.398029070287521e-08</v>
+        <v>0.001970718149095774</v>
       </c>
       <c r="DQ5" t="n">
-        <v>3.157635930506331e-08</v>
+        <v>0.001994813559576869</v>
       </c>
       <c r="DR5" t="n">
-        <v>6.082931491846466e-08</v>
+        <v>0.000988739775493741</v>
       </c>
       <c r="DS5" t="n">
-        <v>6.993026602231112e-09</v>
+        <v>0.002687689382582903</v>
       </c>
       <c r="DT5" t="n">
-        <v>4.263180475305717e-09</v>
+        <v>0.002997430274263024</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.723717724111395e-09</v>
+        <v>0.0009468060452491045</v>
       </c>
       <c r="DV5" t="n">
-        <v>2.309037938630354e-08</v>
+        <v>0.0002100292476825416</v>
       </c>
       <c r="DW5" t="n">
-        <v>7.343754049315976e-09</v>
+        <v>0.0002956416283268481</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.341682853706061e-08</v>
+        <v>0.000898388447239995</v>
       </c>
       <c r="DY5" t="n">
-        <v>1.390629833508683e-08</v>
+        <v>0.001090151374228299</v>
       </c>
       <c r="DZ5" t="n">
-        <v>5.609475106638229e-09</v>
+        <v>0.000902289233636111</v>
       </c>
       <c r="EA5" t="n">
-        <v>2.428022227718429e-09</v>
+        <v>0.001584411365911365</v>
       </c>
       <c r="EB5" t="n">
-        <v>4.112597373762128e-09</v>
+        <v>0.002477034693583846</v>
       </c>
       <c r="EC5" t="n">
-        <v>8.733975320751597e-09</v>
+        <v>0.0003250651934649795</v>
       </c>
       <c r="ED5" t="n">
-        <v>1.525145520986371e-08</v>
+        <v>0.002297797007486224</v>
       </c>
       <c r="EE5" t="n">
-        <v>1.24361907438697e-08</v>
+        <v>1.046364195644855e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>3.265289549858608e-08</v>
+        <v>0.0001806957880035043</v>
       </c>
       <c r="EG5" t="n">
-        <v>3.009883453586326e-10</v>
+        <v>0.001841213554143906</v>
       </c>
       <c r="EH5" t="n">
-        <v>1.592310105991146e-08</v>
+        <v>0.001660183421336114</v>
       </c>
       <c r="EI5" t="n">
-        <v>2.08153476677353e-08</v>
+        <v>0.002011066069826484</v>
       </c>
       <c r="EJ5" t="n">
-        <v>4.357546767863596e-09</v>
+        <v>0.003919358365237713</v>
       </c>
       <c r="EK5" t="n">
-        <v>3.247184521271151e-09</v>
+        <v>5.291432898957282e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>7.263243340105419e-09</v>
+        <v>0.00205964082852006</v>
       </c>
       <c r="EM5" t="n">
-        <v>5.010008408135036e-09</v>
+        <v>0.0006027686758898199</v>
       </c>
       <c r="EN5" t="n">
-        <v>9.731413008751133e-09</v>
+        <v>0.0004984121187590063</v>
       </c>
       <c r="EO5" t="n">
-        <v>2.533624154921199e-08</v>
+        <v>0.001031357212923467</v>
       </c>
       <c r="EP5" t="n">
-        <v>4.139017306670212e-08</v>
+        <v>0.001726797549054027</v>
       </c>
       <c r="EQ5" t="n">
-        <v>1.080208456016862e-08</v>
+        <v>0.002200254006311297</v>
       </c>
       <c r="ER5" t="n">
-        <v>1.865159360292523e-09</v>
+        <v>0.000700834090821445</v>
       </c>
       <c r="ES5" t="n">
-        <v>1.012523753729511e-08</v>
+        <v>0.001655518310144544</v>
       </c>
       <c r="ET5" t="n">
-        <v>4.25647606050461e-09</v>
+        <v>0.003344691824167967</v>
       </c>
       <c r="EU5" t="n">
-        <v>2.99701907735539e-09</v>
+        <v>0.002573950216174126</v>
       </c>
       <c r="EV5" t="n">
-        <v>1.818846939727337e-08</v>
+        <v>0.001287249848246574</v>
       </c>
       <c r="EW5" t="n">
-        <v>5.403955949390138e-09</v>
+        <v>0.001510170521214604</v>
       </c>
       <c r="EX5" t="n">
-        <v>2.676577537386038e-08</v>
+        <v>0.0002783239469863474</v>
       </c>
       <c r="EY5" t="n">
-        <v>1.127035531567344e-08</v>
+        <v>0.002414316637441516</v>
       </c>
       <c r="EZ5" t="n">
-        <v>2.064416637637123e-09</v>
+        <v>0.001583598554134369</v>
       </c>
       <c r="FA5" t="n">
-        <v>1.622451861749141e-08</v>
+        <v>0.002689511282369494</v>
       </c>
       <c r="FB5" t="n">
-        <v>3.655667057955725e-08</v>
+        <v>0.002332476200535893</v>
       </c>
       <c r="FC5" t="n">
-        <v>4.284864907333485e-09</v>
+        <v>0.0003327534650452435</v>
       </c>
       <c r="FD5" t="n">
-        <v>3.162528239286644e-09</v>
+        <v>0.0007735403487458825</v>
       </c>
       <c r="FE5" t="n">
-        <v>7.484700637050423e-10</v>
+        <v>0.001714664627797902</v>
       </c>
       <c r="FF5" t="n">
-        <v>7.32605975883871e-09</v>
+        <v>0.0008420048980042338</v>
       </c>
       <c r="FG5" t="n">
-        <v>1.488369605340267e-08</v>
+        <v>0.0008426851709373295</v>
       </c>
       <c r="FH5" t="n">
-        <v>2.308694391217614e-08</v>
+        <v>0.002036634832620621</v>
       </c>
       <c r="FI5" t="n">
-        <v>2.137345056496542e-08</v>
+        <v>0.0005370122962631285</v>
       </c>
       <c r="FJ5" t="n">
-        <v>1.00215462595088e-08</v>
+        <v>0.001903116470202804</v>
       </c>
       <c r="FK5" t="n">
-        <v>3.106161727828294e-08</v>
+        <v>0.002086918335407972</v>
       </c>
       <c r="FL5" t="n">
-        <v>2.282500410899502e-08</v>
+        <v>0.000902318861335516</v>
       </c>
       <c r="FM5" t="n">
-        <v>3.981170504374631e-09</v>
+        <v>0.0003240532241761684</v>
       </c>
       <c r="FN5" t="n">
-        <v>3.380172941547244e-08</v>
+        <v>0.001745852408930659</v>
       </c>
       <c r="FO5" t="n">
-        <v>8.273568496974804e-10</v>
+        <v>0.001597653026692569</v>
       </c>
       <c r="FP5" t="n">
-        <v>2.565902690321309e-08</v>
+        <v>0.00306848855689168</v>
       </c>
       <c r="FQ5" t="n">
-        <v>3.482436383706045e-08</v>
+        <v>0.001060352427884936</v>
       </c>
       <c r="FR5" t="n">
-        <v>7.005882096677851e-09</v>
+        <v>0.001562780002132058</v>
       </c>
       <c r="FS5" t="n">
-        <v>2.957437317263611e-08</v>
+        <v>0.001200843718834221</v>
       </c>
       <c r="FT5" t="n">
-        <v>6.991096057618051e-08</v>
+        <v>0.007657501380890608</v>
       </c>
       <c r="FU5" t="n">
-        <v>5.184189966200847e-09</v>
+        <v>0.002615624340251088</v>
       </c>
       <c r="FV5" t="n">
-        <v>8.077972069031603e-09</v>
+        <v>0.0002371252048760653</v>
       </c>
       <c r="FW5" t="n">
-        <v>2.694957146331944e-08</v>
+        <v>0.0004619216779246926</v>
       </c>
       <c r="FX5" t="n">
-        <v>6.064934332528082e-09</v>
+        <v>0.002280463464558125</v>
       </c>
       <c r="FY5" t="n">
-        <v>1.136291061243355e-08</v>
+        <v>0.002524733077734709</v>
       </c>
       <c r="FZ5" t="n">
-        <v>1.349259726168839e-08</v>
+        <v>0.0002647777437232435</v>
       </c>
       <c r="GA5" t="n">
-        <v>2.422371281340929e-08</v>
+        <v>0.0007551744347438216</v>
       </c>
       <c r="GB5" t="n">
-        <v>1.059689047622214e-08</v>
+        <v>0.001512054586783051</v>
       </c>
       <c r="GC5" t="n">
-        <v>2.636959450796894e-08</v>
+        <v>0.002367714187130332</v>
       </c>
       <c r="GD5" t="n">
-        <v>2.471639959367167e-08</v>
+        <v>0.005552985705435276</v>
       </c>
       <c r="GE5" t="n">
-        <v>1.209308209126903e-08</v>
+        <v>0.005258283577859402</v>
       </c>
       <c r="GF5" t="n">
-        <v>5.764859700718716e-09</v>
+        <v>0.0003939290763810277</v>
       </c>
       <c r="GG5" t="n">
-        <v>7.662793066742779e-09</v>
+        <v>0.002618982689455152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.380330290680647e-15</v>
+        <v>0.000457492598798126</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0621868332743e-15</v>
+        <v>0.0004355424316599965</v>
       </c>
       <c r="C6" t="n">
-        <v>1.63664563689335e-15</v>
+        <v>0.0002151189837604761</v>
       </c>
       <c r="D6" t="n">
-        <v>1.132884755854235e-15</v>
+        <v>0.000335206714225933</v>
       </c>
       <c r="E6" t="n">
-        <v>6.836176759492541e-15</v>
+        <v>0.0006194452289491892</v>
       </c>
       <c r="F6" t="n">
-        <v>4.63107799433441e-16</v>
+        <v>0.0004834791179746389</v>
       </c>
       <c r="G6" t="n">
-        <v>4.478764212121787e-15</v>
+        <v>0.0002182298339903355</v>
       </c>
       <c r="H6" t="n">
-        <v>6.992972722424679e-16</v>
+        <v>0.0002221458271378651</v>
       </c>
       <c r="I6" t="n">
-        <v>2.666132127964187e-15</v>
+        <v>0.0006931590614840388</v>
       </c>
       <c r="J6" t="n">
-        <v>1.097997162822725e-15</v>
+        <v>0.0002315977762918919</v>
       </c>
       <c r="K6" t="n">
-        <v>2.378087351063811e-15</v>
+        <v>0.0004241572751197964</v>
       </c>
       <c r="L6" t="n">
-        <v>1.958032701092089e-15</v>
+        <v>0.0003903521865140647</v>
       </c>
       <c r="M6" t="n">
-        <v>1.163973406117309e-15</v>
+        <v>6.030604708939791e-07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.847391249445976e-15</v>
+        <v>0.0001517977216280997</v>
       </c>
       <c r="O6" t="n">
-        <v>2.017211081468484e-15</v>
+        <v>0.0001061453513102606</v>
       </c>
       <c r="P6" t="n">
-        <v>2.498127801557506e-15</v>
+        <v>0.0002007036237046123</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.497758078931017e-15</v>
+        <v>0.0006101515609771013</v>
       </c>
       <c r="R6" t="n">
-        <v>6.102015611141086e-15</v>
+        <v>2.238020533695817e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>6.514928502818033e-16</v>
+        <v>0.0001714971731416881</v>
       </c>
       <c r="T6" t="n">
-        <v>7.277713435556053e-16</v>
+        <v>0.0007140092202462256</v>
       </c>
       <c r="U6" t="n">
-        <v>2.180322945571824e-15</v>
+        <v>0.0001240184355992824</v>
       </c>
       <c r="V6" t="n">
-        <v>4.257378175313246e-17</v>
+        <v>0.0002970545901916921</v>
       </c>
       <c r="W6" t="n">
-        <v>4.069584618159863e-15</v>
+        <v>0.001528670080006123</v>
       </c>
       <c r="X6" t="n">
-        <v>2.699987664289027e-16</v>
+        <v>0.000267134775640443</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.68061279147221e-15</v>
+        <v>0.0001905178360175341</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.914972196659134e-15</v>
+        <v>0.0006537102744914591</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.897183040596605e-16</v>
+        <v>1.158917348220712e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.813990725004996e-15</v>
+        <v>1.51588610606268e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.249919256119284e-16</v>
+        <v>7.292436202988029e-05</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.943099951885938e-16</v>
+        <v>0.0003958843881264329</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.310761992414993e-15</v>
+        <v>4.861279739998281e-05</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.337021923231502e-15</v>
+        <v>0.0005609682411886752</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.939736021807788e-16</v>
+        <v>0.000163461416377686</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.692782960858359e-15</v>
+        <v>0.0008189745130948722</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.775985521331998e-15</v>
+        <v>0.0002876456128433347</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.355125395966996e-16</v>
+        <v>4.739534779218957e-05</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.543548033902393e-15</v>
+        <v>9.047881758306175e-05</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.258363595895751e-16</v>
+        <v>0.0002392160968156531</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.920942530152819e-16</v>
+        <v>0.0001093148966901936</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.767124501540028e-15</v>
+        <v>0.0006917444989085197</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.598346301029418e-15</v>
+        <v>0.0004162726108916104</v>
       </c>
       <c r="AP6" t="n">
-        <v>9.956784415306023e-16</v>
+        <v>4.577073195832781e-05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.597712307750879e-16</v>
+        <v>0.0001519857905805111</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.528998019571814e-15</v>
+        <v>0.0001430057018296793</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.748053244350229e-16</v>
+        <v>4.431148408912122e-05</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.293118087992943e-15</v>
+        <v>0.0008323481888510287</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.659678269929195e-15</v>
+        <v>0.0003575633454602212</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.347079906457061e-15</v>
+        <v>0.0001180691397166811</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.952060914310697e-15</v>
+        <v>0.001042040414176881</v>
       </c>
       <c r="AX6" t="n">
-        <v>6.916781261786208e-15</v>
+        <v>0.001635184395126998</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.87258105275776e-15</v>
+        <v>0.000674436567351222</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3.151244731636551e-16</v>
+        <v>0.001446529407985508</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.761476693978479e-15</v>
+        <v>0.001480686129070818</v>
       </c>
       <c r="BB6" t="n">
-        <v>3.118907660688342e-16</v>
+        <v>0.000696174509357661</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.400867451519774e-15</v>
+        <v>0.0007775240810588002</v>
       </c>
       <c r="BD6" t="n">
-        <v>8.131101776892721e-16</v>
+        <v>0.0002671282854862511</v>
       </c>
       <c r="BE6" t="n">
-        <v>8.473325322198323e-16</v>
+        <v>6.074380507925525e-05</v>
       </c>
       <c r="BF6" t="n">
-        <v>8.26008901289179e-16</v>
+        <v>6.224043318070471e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.546136566589202e-15</v>
+        <v>0.0004163476405665278</v>
       </c>
       <c r="BH6" t="n">
-        <v>2.934873447513111e-15</v>
+        <v>0.000314077886287123</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.360559059384074e-15</v>
+        <v>0.0008005250128917396</v>
       </c>
       <c r="BJ6" t="n">
-        <v>3.502100072070267e-15</v>
+        <v>0.0005131036159582436</v>
       </c>
       <c r="BK6" t="n">
-        <v>2.088747460787083e-15</v>
+        <v>0.0004710405482910573</v>
       </c>
       <c r="BL6" t="n">
-        <v>2.220905141107725e-15</v>
+        <v>0.0003220424405299127</v>
       </c>
       <c r="BM6" t="n">
-        <v>6.885880758716542e-16</v>
+        <v>0.0001622476120246574</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.738339247870399e-15</v>
+        <v>3.690774610731751e-05</v>
       </c>
       <c r="BO6" t="n">
-        <v>2.879654522648656e-15</v>
+        <v>0.001618735026568174</v>
       </c>
       <c r="BP6" t="n">
-        <v>5.056987336037554e-16</v>
+        <v>0.0003451187803875655</v>
       </c>
       <c r="BQ6" t="n">
-        <v>4.56272428837556e-17</v>
+        <v>0.0002327538095414639</v>
       </c>
       <c r="BR6" t="n">
-        <v>1.096151266272421e-15</v>
+        <v>0.0002572771045379341</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.525198123891313e-15</v>
+        <v>0.0008131685899570584</v>
       </c>
       <c r="BT6" t="n">
-        <v>6.151686893717499e-16</v>
+        <v>0.0006420453428290784</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.263536093957303e-15</v>
+        <v>0.0002955388627015054</v>
       </c>
       <c r="BV6" t="n">
-        <v>6.7071425131649e-16</v>
+        <v>9.625015809433535e-05</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.405857216732931e-15</v>
+        <v>0.0002212614199379459</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.039727123030635e-15</v>
+        <v>0.0003120955661870539</v>
       </c>
       <c r="BY6" t="n">
-        <v>3.63922665941774e-15</v>
+        <v>0.0005798318306915462</v>
       </c>
       <c r="BZ6" t="n">
-        <v>2.453768474351562e-15</v>
+        <v>0.0002013846242334694</v>
       </c>
       <c r="CA6" t="n">
-        <v>4.465051595738687e-16</v>
+        <v>0.0007806912763044238</v>
       </c>
       <c r="CB6" t="n">
-        <v>3.405677811821778e-16</v>
+        <v>0.0008010721649043262</v>
       </c>
       <c r="CC6" t="n">
-        <v>1.845189277792977e-16</v>
+        <v>1.878250986919738e-05</v>
       </c>
       <c r="CD6" t="n">
-        <v>3.879971793054456e-16</v>
+        <v>1.580421667313203e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>7.716858725851229e-16</v>
+        <v>2.325187051610555e-05</v>
       </c>
       <c r="CF6" t="n">
-        <v>2.963672461840639e-16</v>
+        <v>4.599978274200112e-05</v>
       </c>
       <c r="CG6" t="n">
-        <v>5.094654361806361e-17</v>
+        <v>0.000260324974078685</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.530951065789946e-15</v>
+        <v>6.465206388384104e-05</v>
       </c>
       <c r="CI6" t="n">
-        <v>3.649606889367664e-16</v>
+        <v>2.110217428707983e-05</v>
       </c>
       <c r="CJ6" t="n">
-        <v>8.175692238214147e-16</v>
+        <v>9.553368727210909e-05</v>
       </c>
       <c r="CK6" t="n">
-        <v>5.970821007281473e-16</v>
+        <v>0.0001069513236870989</v>
       </c>
       <c r="CL6" t="n">
-        <v>2.69922189356515e-16</v>
+        <v>7.563787221442908e-05</v>
       </c>
       <c r="CM6" t="n">
-        <v>2.572732981244007e-15</v>
+        <v>0.0002037046506302431</v>
       </c>
       <c r="CN6" t="n">
-        <v>3.869140623939237e-15</v>
+        <v>0.0004732106754090637</v>
       </c>
       <c r="CO6" t="n">
-        <v>2.737131488394226e-15</v>
+        <v>4.516758053796366e-06</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.171148092817909e-15</v>
+        <v>0.0003951807739213109</v>
       </c>
       <c r="CQ6" t="n">
-        <v>2.457299754708665e-15</v>
+        <v>0.0006455162074416876</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.200887737233362e-15</v>
+        <v>0.0003804976586252451</v>
       </c>
       <c r="CS6" t="n">
-        <v>2.533648339958852e-15</v>
+        <v>0.0007168682059273124</v>
       </c>
       <c r="CT6" t="n">
-        <v>6.253294848487757e-15</v>
+        <v>0.0004101857193745673</v>
       </c>
       <c r="CU6" t="n">
-        <v>8.91256960946921e-16</v>
+        <v>0.0008368171402253211</v>
       </c>
       <c r="CV6" t="n">
-        <v>2.368381147581665e-16</v>
+        <v>7.554150943178684e-05</v>
       </c>
       <c r="CW6" t="n">
-        <v>8.445821633005384e-16</v>
+        <v>4.093260577064939e-05</v>
       </c>
       <c r="CX6" t="n">
-        <v>7.839590094139233e-16</v>
+        <v>2.186709389206953e-05</v>
       </c>
       <c r="CY6" t="n">
-        <v>4.189982410678181e-16</v>
+        <v>0.0002953998045995831</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1.363662376344576e-15</v>
+        <v>6.179789124871604e-06</v>
       </c>
       <c r="DA6" t="n">
-        <v>6.275608210947497e-17</v>
+        <v>0.0001558840449433774</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.859699349226137e-16</v>
+        <v>2.779733040370047e-05</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.035428215437589e-15</v>
+        <v>9.797974780667573e-05</v>
       </c>
       <c r="DD6" t="n">
-        <v>2.601054480747521e-16</v>
+        <v>6.811581260990351e-05</v>
       </c>
       <c r="DE6" t="n">
-        <v>9.259342780492752e-16</v>
+        <v>0.0007830740651115775</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.482728633069811e-15</v>
+        <v>0.001180441351607442</v>
       </c>
       <c r="DG6" t="n">
-        <v>3.8561376094077e-16</v>
+        <v>1.019513365463354e-05</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.415865652158569e-15</v>
+        <v>2.645642962306738e-05</v>
       </c>
       <c r="DI6" t="n">
-        <v>2.91064819934252e-16</v>
+        <v>0.0007934045279398561</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.526730618251133e-15</v>
+        <v>0.001134891994297504</v>
       </c>
       <c r="DK6" t="n">
-        <v>2.126862037589395e-15</v>
+        <v>0.000179704831680283</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.521614539249717e-15</v>
+        <v>0.0004855737497564405</v>
       </c>
       <c r="DM6" t="n">
-        <v>1.524140815014903e-15</v>
+        <v>0.000977651565335691</v>
       </c>
       <c r="DN6" t="n">
-        <v>6.484264321940652e-16</v>
+        <v>0.0002103850129060447</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.68777783954554e-15</v>
+        <v>0.0002552149817347527</v>
       </c>
       <c r="DP6" t="n">
-        <v>9.598343365434052e-16</v>
+        <v>0.0002000596723519266</v>
       </c>
       <c r="DQ6" t="n">
-        <v>1.590323099073907e-15</v>
+        <v>0.0001033266162266955</v>
       </c>
       <c r="DR6" t="n">
-        <v>2.610763490026305e-15</v>
+        <v>0.0008562749717384577</v>
       </c>
       <c r="DS6" t="n">
-        <v>2.499861678000536e-15</v>
+        <v>0.0002177402639063075</v>
       </c>
       <c r="DT6" t="n">
-        <v>6.204251640841733e-18</v>
+        <v>0.0004779441806022078</v>
       </c>
       <c r="DU6" t="n">
-        <v>2.975930405015948e-15</v>
+        <v>0.0002996824914589524</v>
       </c>
       <c r="DV6" t="n">
-        <v>7.267258931404567e-16</v>
+        <v>0.0004651099734473974</v>
       </c>
       <c r="DW6" t="n">
-        <v>2.080777992484163e-16</v>
+        <v>4.389067180454731e-05</v>
       </c>
       <c r="DX6" t="n">
-        <v>7.596924683871532e-16</v>
+        <v>0.0001830788241932169</v>
       </c>
       <c r="DY6" t="n">
-        <v>2.628168534784723e-17</v>
+        <v>0.0002255832368973643</v>
       </c>
       <c r="DZ6" t="n">
-        <v>2.264903420519902e-15</v>
+        <v>0.000618250051047653</v>
       </c>
       <c r="EA6" t="n">
-        <v>6.232678595947179e-16</v>
+        <v>0.0006559378816746175</v>
       </c>
       <c r="EB6" t="n">
-        <v>1.177166023680134e-17</v>
+        <v>0.0004859266337007284</v>
       </c>
       <c r="EC6" t="n">
-        <v>5.447528287632502e-16</v>
+        <v>0.0001604160788701847</v>
       </c>
       <c r="ED6" t="n">
-        <v>1.397497848576478e-15</v>
+        <v>0.0004618771490640938</v>
       </c>
       <c r="EE6" t="n">
-        <v>6.915849843181583e-16</v>
+        <v>0.0003280425153207034</v>
       </c>
       <c r="EF6" t="n">
-        <v>8.614518302967327e-16</v>
+        <v>0.0003370853664819151</v>
       </c>
       <c r="EG6" t="n">
-        <v>1.348392807525305e-16</v>
+        <v>0.000539719476364553</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.777697163160162e-16</v>
+        <v>2.51892033702461e-05</v>
       </c>
       <c r="EI6" t="n">
-        <v>8.131165833759357e-16</v>
+        <v>0.001266757375560701</v>
       </c>
       <c r="EJ6" t="n">
-        <v>4.666087454231207e-16</v>
+        <v>2.344011227251031e-05</v>
       </c>
       <c r="EK6" t="n">
-        <v>3.616224526822984e-16</v>
+        <v>0.0005699970643036067</v>
       </c>
       <c r="EL6" t="n">
-        <v>1.129331240882266e-15</v>
+        <v>0.0001783152692951262</v>
       </c>
       <c r="EM6" t="n">
-        <v>1.101424893402026e-15</v>
+        <v>0.0003775461227633059</v>
       </c>
       <c r="EN6" t="n">
-        <v>1.123613556730063e-15</v>
+        <v>0.0002253862621728331</v>
       </c>
       <c r="EO6" t="n">
-        <v>1.471285747347997e-15</v>
+        <v>0.000101854486274533</v>
       </c>
       <c r="EP6" t="n">
-        <v>1.290971649937548e-16</v>
+        <v>0.0001411577395629138</v>
       </c>
       <c r="EQ6" t="n">
-        <v>4.954666285404826e-17</v>
+        <v>0.0001217457902384922</v>
       </c>
       <c r="ER6" t="n">
-        <v>1.498903044834987e-15</v>
+        <v>6.625382957281545e-05</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.473920760967787e-15</v>
+        <v>0.0002477543312124908</v>
       </c>
       <c r="ET6" t="n">
-        <v>3.236089904380646e-16</v>
+        <v>0.0005504541913978755</v>
       </c>
       <c r="EU6" t="n">
-        <v>1.75175868497463e-15</v>
+        <v>0.0005429849261417985</v>
       </c>
       <c r="EV6" t="n">
-        <v>1.251681020827532e-15</v>
+        <v>0.0005150189972482622</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.001935288623513e-16</v>
+        <v>3.856602415908128e-05</v>
       </c>
       <c r="EX6" t="n">
-        <v>3.983564187201452e-17</v>
+        <v>1.066990080289543e-06</v>
       </c>
       <c r="EY6" t="n">
-        <v>7.344475513667453e-16</v>
+        <v>2.748584665823728e-05</v>
       </c>
       <c r="EZ6" t="n">
-        <v>7.706674742847272e-16</v>
+        <v>7.214357174234465e-05</v>
       </c>
       <c r="FA6" t="n">
-        <v>5.203535153219981e-16</v>
+        <v>0.0003143431385979056</v>
       </c>
       <c r="FB6" t="n">
-        <v>1.425744703301515e-15</v>
+        <v>3.07464724755846e-05</v>
       </c>
       <c r="FC6" t="n">
-        <v>2.625410648448022e-16</v>
+        <v>7.77044115238823e-05</v>
       </c>
       <c r="FD6" t="n">
-        <v>1.648770013560789e-16</v>
+        <v>0.0001469948620069772</v>
       </c>
       <c r="FE6" t="n">
-        <v>9.071912388715505e-16</v>
+        <v>0.0002426058927085251</v>
       </c>
       <c r="FF6" t="n">
-        <v>5.931813022478044e-16</v>
+        <v>0.0001622175914235413</v>
       </c>
       <c r="FG6" t="n">
-        <v>9.213829582654411e-16</v>
+        <v>0.0004240804119035602</v>
       </c>
       <c r="FH6" t="n">
-        <v>1.065772535498264e-15</v>
+        <v>0.0001331077219219878</v>
       </c>
       <c r="FI6" t="n">
-        <v>4.775962450566666e-16</v>
+        <v>5.657269139192067e-05</v>
       </c>
       <c r="FJ6" t="n">
-        <v>6.468587330273751e-16</v>
+        <v>0.000903139531146735</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.38789016561401e-15</v>
+        <v>0.0002238741144537926</v>
       </c>
       <c r="FL6" t="n">
-        <v>2.188455520656649e-15</v>
+        <v>0.0008063296554610133</v>
       </c>
       <c r="FM6" t="n">
-        <v>4.166180520162539e-16</v>
+        <v>0.0003609771956689656</v>
       </c>
       <c r="FN6" t="n">
-        <v>4.017312520918906e-15</v>
+        <v>0.0001172717893496156</v>
       </c>
       <c r="FO6" t="n">
-        <v>4.485951074921003e-16</v>
+        <v>0.0002769660786725581</v>
       </c>
       <c r="FP6" t="n">
-        <v>4.801888011499752e-17</v>
+        <v>0.0002840209344867617</v>
       </c>
       <c r="FQ6" t="n">
-        <v>1.079286522655233e-15</v>
+        <v>0.0001856415619840845</v>
       </c>
       <c r="FR6" t="n">
-        <v>1.644670427035637e-15</v>
+        <v>0.0002943917061202228</v>
       </c>
       <c r="FS6" t="n">
-        <v>8.66539374875738e-16</v>
+        <v>0.0004792660183738917</v>
       </c>
       <c r="FT6" t="n">
-        <v>6.36994483785183e-15</v>
+        <v>0.002362665720283985</v>
       </c>
       <c r="FU6" t="n">
-        <v>1.921936392044847e-15</v>
+        <v>0.001068817917257547</v>
       </c>
       <c r="FV6" t="n">
-        <v>1.718901535796807e-15</v>
+        <v>0.0007176029030233622</v>
       </c>
       <c r="FW6" t="n">
-        <v>1.202978214547186e-15</v>
+        <v>0.0004737996205221862</v>
       </c>
       <c r="FX6" t="n">
-        <v>5.748977784439651e-16</v>
+        <v>0.0001391524565406144</v>
       </c>
       <c r="FY6" t="n">
-        <v>6.022640365412123e-16</v>
+        <v>0.0003004281024914235</v>
       </c>
       <c r="FZ6" t="n">
-        <v>2.970352904816515e-15</v>
+        <v>0.0005441035609692335</v>
       </c>
       <c r="GA6" t="n">
-        <v>8.880446414340183e-16</v>
+        <v>0.0002713579451665282</v>
       </c>
       <c r="GB6" t="n">
-        <v>2.231385691522339e-15</v>
+        <v>0.001035231398418546</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.030435379729998e-15</v>
+        <v>0.0004295601975172758</v>
       </c>
       <c r="GD6" t="n">
-        <v>3.690112798998752e-16</v>
+        <v>0.0006609845440834761</v>
       </c>
       <c r="GE6" t="n">
-        <v>1.490257803058836e-15</v>
+        <v>0.0005110930651426315</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.237237415010952e-15</v>
+        <v>0.001311778672970831</v>
       </c>
       <c r="GG6" t="n">
-        <v>4.362741397715596e-16</v>
+        <v>0.000865842099301517</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.32650221127551e-06</v>
+        <v>1.124781738326419e-05</v>
       </c>
       <c r="B7" t="n">
-        <v>3.997226485807914e-06</v>
+        <v>6.281507376115769e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>1.876919668575283e-05</v>
+        <v>9.292032700614072e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>8.274026913568377e-05</v>
+        <v>1.456132304156199e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>1.70585894920805e-06</v>
+        <v>5.354003587854095e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>3.044894401682541e-05</v>
+        <v>2.01443544938229e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>6.781216143281199e-06</v>
+        <v>3.264729821239598e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>1.280894366573193e-06</v>
+        <v>1.552728099341039e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>1.993658952414989e-05</v>
+        <v>4.700244244304486e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>2.240657340735197e-05</v>
+        <v>1.216173586726654e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.251263802259928e-05</v>
+        <v>3.041170202777721e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>1.719953070278279e-05</v>
+        <v>1.477768819313496e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>6.734706403221935e-05</v>
+        <v>4.028710827697068e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.307685983600095e-05</v>
+        <v>8.75599798746407e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>9.740711902850308e-06</v>
+        <v>6.133417173259659e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>6.580765329999849e-06</v>
+        <v>1.395631625200622e-05</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.586849925341085e-05</v>
+        <v>3.40283804689534e-07</v>
       </c>
       <c r="R7" t="n">
-        <v>2.005748319788836e-05</v>
+        <v>3.995164297521114e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>2.935187922048499e-06</v>
+        <v>6.084949291107478e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>1.300674284721026e-05</v>
+        <v>1.458392580389045e-05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.386942767567234e-05</v>
+        <v>1.163641718449071e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>3.413606464164332e-08</v>
+        <v>7.856078809709288e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>5.613124449155293e-05</v>
+        <v>2.710330227273516e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>2.561248948040884e-06</v>
+        <v>1.622697709535714e-08</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.36818253446836e-06</v>
+        <v>1.94875451597909e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.30987904817448e-06</v>
+        <v>1.705522481643129e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.880318905023159e-07</v>
+        <v>5.506771231011953e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.361019692732953e-06</v>
+        <v>5.174979378352873e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.331091789325001e-05</v>
+        <v>2.426118953735568e-05</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.159894943877589e-06</v>
+        <v>3.657004708657041e-05</v>
       </c>
       <c r="AE7" t="n">
-        <v>4.473179160413565e-06</v>
+        <v>2.757786205620505e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.525660294049885e-06</v>
+        <v>1.578284172865096e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.187875204777811e-05</v>
+        <v>3.297605508123524e-05</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.211181243997999e-06</v>
+        <v>3.77398896489467e-06</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.678086664469447e-05</v>
+        <v>1.446920578018762e-06</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5.853615220985375e-06</v>
+        <v>2.618241342133842e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.003015131573193e-05</v>
+        <v>8.70551957632415e-06</v>
       </c>
       <c r="AL7" t="n">
-        <v>3.299277977930615e-06</v>
+        <v>8.690243703313172e-06</v>
       </c>
       <c r="AM7" t="n">
-        <v>5.816991688334383e-08</v>
+        <v>4.117273874726379e-06</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.156646562274545e-05</v>
+        <v>2.499808488209965e-06</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.924084689468145e-06</v>
+        <v>1.130303280660883e-05</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.486234916432295e-05</v>
+        <v>3.011838089150842e-05</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.574391831127286e-06</v>
+        <v>9.817041245696601e-06</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.522663857642328e-06</v>
+        <v>2.047910857072566e-05</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.9395129129407e-06</v>
+        <v>9.436732398171443e-06</v>
       </c>
       <c r="AT7" t="n">
-        <v>5.19816512678517e-06</v>
+        <v>2.920747647294775e-06</v>
       </c>
       <c r="AU7" t="n">
-        <v>5.689253157470375e-07</v>
+        <v>5.697716551367193e-05</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.385173891321756e-05</v>
+        <v>3.391179689060664e-06</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.352807784220204e-05</v>
+        <v>2.484540891600773e-05</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.92769875866361e-05</v>
+        <v>3.177053440595046e-05</v>
       </c>
       <c r="AY7" t="n">
-        <v>9.335143658972811e-06</v>
+        <v>4.320262087276205e-05</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.016678536165273e-06</v>
+        <v>1.423818684997968e-05</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.35825957841007e-05</v>
+        <v>2.085370942950249e-05</v>
       </c>
       <c r="BB7" t="n">
-        <v>6.88691307004774e-06</v>
+        <v>1.281838922295719e-05</v>
       </c>
       <c r="BC7" t="n">
-        <v>9.590069566911552e-06</v>
+        <v>4.507759001626255e-07</v>
       </c>
       <c r="BD7" t="n">
-        <v>3.266286967118504e-06</v>
+        <v>1.51366966747446e-05</v>
       </c>
       <c r="BE7" t="n">
-        <v>8.93778087629471e-06</v>
+        <v>4.533277433438343e-07</v>
       </c>
       <c r="BF7" t="n">
-        <v>3.923349868273363e-05</v>
+        <v>4.198405804345384e-05</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.687085568846669e-05</v>
+        <v>3.892873064614832e-05</v>
       </c>
       <c r="BH7" t="n">
-        <v>6.680086244159611e-06</v>
+        <v>7.965738404891454e-06</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.28699457491166e-05</v>
+        <v>2.424619196972344e-06</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.745044073686586e-06</v>
+        <v>1.422938339601387e-06</v>
       </c>
       <c r="BK7" t="n">
-        <v>5.67365032111411e-06</v>
+        <v>5.853562470292673e-05</v>
       </c>
       <c r="BL7" t="n">
-        <v>1.75015811691992e-05</v>
+        <v>9.987398698285688e-06</v>
       </c>
       <c r="BM7" t="n">
-        <v>9.002375236377702e-07</v>
+        <v>4.723415258922614e-06</v>
       </c>
       <c r="BN7" t="n">
-        <v>3.583192210498964e-06</v>
+        <v>1.988910298678093e-05</v>
       </c>
       <c r="BO7" t="n">
-        <v>7.749794349365402e-06</v>
+        <v>6.526501238113269e-06</v>
       </c>
       <c r="BP7" t="n">
-        <v>2.22037542698672e-05</v>
+        <v>4.752250970341265e-05</v>
       </c>
       <c r="BQ7" t="n">
-        <v>5.772373697254807e-06</v>
+        <v>1.805768260965124e-05</v>
       </c>
       <c r="BR7" t="n">
-        <v>2.053953267022735e-06</v>
+        <v>1.024055563902948e-05</v>
       </c>
       <c r="BS7" t="n">
-        <v>1.492334831709741e-06</v>
+        <v>1.002187218546169e-06</v>
       </c>
       <c r="BT7" t="n">
-        <v>5.9003355090681e-06</v>
+        <v>5.276870069792494e-06</v>
       </c>
       <c r="BU7" t="n">
-        <v>7.677052053622901e-06</v>
+        <v>3.155183776470949e-06</v>
       </c>
       <c r="BV7" t="n">
-        <v>5.335078867574339e-08</v>
+        <v>3.71235073544085e-05</v>
       </c>
       <c r="BW7" t="n">
-        <v>9.484545444138348e-06</v>
+        <v>1.616190274944529e-05</v>
       </c>
       <c r="BX7" t="n">
-        <v>4.488585545914248e-05</v>
+        <v>2.655197704370948e-06</v>
       </c>
       <c r="BY7" t="n">
-        <v>1.371918278891826e-05</v>
+        <v>9.753728591022082e-06</v>
       </c>
       <c r="BZ7" t="n">
-        <v>3.014584581251256e-05</v>
+        <v>1.43365332405665e-05</v>
       </c>
       <c r="CA7" t="n">
-        <v>3.453763838479063e-06</v>
+        <v>2.463521013851278e-06</v>
       </c>
       <c r="CB7" t="n">
-        <v>7.625778835063102e-06</v>
+        <v>6.902695076860255e-06</v>
       </c>
       <c r="CC7" t="n">
-        <v>1.540071934869047e-06</v>
+        <v>1.28954925457947e-05</v>
       </c>
       <c r="CD7" t="n">
-        <v>1.207914465339854e-05</v>
+        <v>1.353398033643316e-06</v>
       </c>
       <c r="CE7" t="n">
-        <v>3.792860297835432e-06</v>
+        <v>1.342829636996612e-05</v>
       </c>
       <c r="CF7" t="n">
-        <v>3.7112846484888e-07</v>
+        <v>2.300579126313096e-06</v>
       </c>
       <c r="CG7" t="n">
-        <v>2.085835512843914e-05</v>
+        <v>2.311693378942437e-06</v>
       </c>
       <c r="CH7" t="n">
-        <v>8.940918405642151e-07</v>
+        <v>9.381278687214945e-06</v>
       </c>
       <c r="CI7" t="n">
-        <v>4.863356480200309e-06</v>
+        <v>4.1459093154117e-06</v>
       </c>
       <c r="CJ7" t="n">
-        <v>4.821536094823387e-06</v>
+        <v>1.928398205564008e-07</v>
       </c>
       <c r="CK7" t="n">
-        <v>1.482527750340523e-06</v>
+        <v>5.647674697684124e-06</v>
       </c>
       <c r="CL7" t="n">
-        <v>7.279677447513677e-06</v>
+        <v>9.192674951918889e-06</v>
       </c>
       <c r="CM7" t="n">
-        <v>1.786641064427386e-06</v>
+        <v>1.449471983505646e-05</v>
       </c>
       <c r="CN7" t="n">
-        <v>7.590998393425252e-06</v>
+        <v>6.656298864982091e-06</v>
       </c>
       <c r="CO7" t="n">
-        <v>4.294715381547576e-06</v>
+        <v>2.987996595038567e-06</v>
       </c>
       <c r="CP7" t="n">
-        <v>3.851407382171601e-05</v>
+        <v>9.413576663064305e-06</v>
       </c>
       <c r="CQ7" t="n">
-        <v>1.290229192818515e-06</v>
+        <v>3.969192039221525e-05</v>
       </c>
       <c r="CR7" t="n">
-        <v>3.567988096619956e-05</v>
+        <v>9.614552254788578e-06</v>
       </c>
       <c r="CS7" t="n">
-        <v>5.469723873829935e-07</v>
+        <v>3.36664124915842e-05</v>
       </c>
       <c r="CT7" t="n">
-        <v>8.452832844341174e-06</v>
+        <v>2.257550477224868e-05</v>
       </c>
       <c r="CU7" t="n">
-        <v>1.030927705869544e-06</v>
+        <v>3.013266223206301e-06</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.144020370702492e-05</v>
+        <v>2.325609358422298e-07</v>
       </c>
       <c r="CW7" t="n">
-        <v>7.49254922993714e-07</v>
+        <v>1.660258567426354e-05</v>
       </c>
       <c r="CX7" t="n">
-        <v>2.145064172509592e-06</v>
+        <v>9.714244697534014e-08</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.830920882639475e-05</v>
+        <v>3.67537950296537e-07</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.783284346856817e-06</v>
+        <v>8.259035894297995e-06</v>
       </c>
       <c r="DA7" t="n">
-        <v>5.315107955539133e-06</v>
+        <v>2.541079311413341e-06</v>
       </c>
       <c r="DB7" t="n">
-        <v>1.898695472846157e-06</v>
+        <v>2.871308197427425e-06</v>
       </c>
       <c r="DC7" t="n">
-        <v>2.105338808178203e-06</v>
+        <v>7.535021723015234e-06</v>
       </c>
       <c r="DD7" t="n">
-        <v>8.904666174203157e-06</v>
+        <v>8.137851637002314e-07</v>
       </c>
       <c r="DE7" t="n">
-        <v>1.357741712126881e-05</v>
+        <v>2.737266186159104e-06</v>
       </c>
       <c r="DF7" t="n">
-        <v>8.050199539866298e-06</v>
+        <v>4.927436384605244e-05</v>
       </c>
       <c r="DG7" t="n">
-        <v>5.235123353486415e-06</v>
+        <v>2.007262810366228e-05</v>
       </c>
       <c r="DH7" t="n">
-        <v>1.97561239474453e-05</v>
+        <v>2.41134603129467e-05</v>
       </c>
       <c r="DI7" t="n">
-        <v>2.565204704296775e-05</v>
+        <v>3.433859819779173e-05</v>
       </c>
       <c r="DJ7" t="n">
-        <v>8.762785000726581e-06</v>
+        <v>2.6960809918819e-05</v>
       </c>
       <c r="DK7" t="n">
-        <v>6.754049536539242e-06</v>
+        <v>1.584892197570298e-05</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.127482846641215e-05</v>
+        <v>3.73992879758589e-05</v>
       </c>
       <c r="DM7" t="n">
-        <v>5.332843102223706e-06</v>
+        <v>8.937521670304704e-06</v>
       </c>
       <c r="DN7" t="n">
-        <v>4.413529495650437e-06</v>
+        <v>5.765974037785782e-06</v>
       </c>
       <c r="DO7" t="n">
-        <v>4.171986802248284e-06</v>
+        <v>1.107744810724398e-05</v>
       </c>
       <c r="DP7" t="n">
-        <v>4.882832399744075e-06</v>
+        <v>4.616457772499416e-06</v>
       </c>
       <c r="DQ7" t="n">
-        <v>5.48013531442848e-06</v>
+        <v>4.960702426615171e-06</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.130318105424521e-05</v>
+        <v>2.862332166841952e-07</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.446247915737331e-05</v>
+        <v>3.707459200086305e-06</v>
       </c>
       <c r="DT7" t="n">
-        <v>7.248272595461458e-06</v>
+        <v>1.877961949503515e-05</v>
       </c>
       <c r="DU7" t="n">
-        <v>1.214704752783291e-05</v>
+        <v>4.180876203463413e-06</v>
       </c>
       <c r="DV7" t="n">
-        <v>1.197455458168406e-05</v>
+        <v>6.026260052749421e-06</v>
       </c>
       <c r="DW7" t="n">
-        <v>4.312813416618155e-06</v>
+        <v>5.439585493149934e-06</v>
       </c>
       <c r="DX7" t="n">
-        <v>1.077511660696473e-05</v>
+        <v>2.983105787279783e-06</v>
       </c>
       <c r="DY7" t="n">
-        <v>4.017614173790207e-06</v>
+        <v>6.464779289672151e-07</v>
       </c>
       <c r="DZ7" t="n">
-        <v>1.961408815986942e-05</v>
+        <v>7.559973255411023e-06</v>
       </c>
       <c r="EA7" t="n">
-        <v>5.840912308485713e-06</v>
+        <v>1.933276507770643e-05</v>
       </c>
       <c r="EB7" t="n">
-        <v>4.89762442157371e-06</v>
+        <v>1.287125996896066e-06</v>
       </c>
       <c r="EC7" t="n">
-        <v>7.34297941562545e-07</v>
+        <v>7.426625415973831e-06</v>
       </c>
       <c r="ED7" t="n">
-        <v>6.752080935257254e-06</v>
+        <v>1.680926652625203e-05</v>
       </c>
       <c r="EE7" t="n">
-        <v>9.820978448260576e-06</v>
+        <v>2.647491237439681e-05</v>
       </c>
       <c r="EF7" t="n">
-        <v>1.03910761026782e-05</v>
+        <v>1.147641341958661e-07</v>
       </c>
       <c r="EG7" t="n">
-        <v>3.399798970349366e-06</v>
+        <v>1.047583282343112e-07</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.006525963020977e-06</v>
+        <v>8.202796379919164e-06</v>
       </c>
       <c r="EI7" t="n">
-        <v>7.776432539685629e-06</v>
+        <v>2.008322098845383e-06</v>
       </c>
       <c r="EJ7" t="n">
-        <v>3.05827779811807e-06</v>
+        <v>1.417674775439082e-05</v>
       </c>
       <c r="EK7" t="n">
-        <v>1.177140711661195e-05</v>
+        <v>2.320281510037603e-06</v>
       </c>
       <c r="EL7" t="n">
-        <v>3.253322802265757e-07</v>
+        <v>1.904463260871125e-06</v>
       </c>
       <c r="EM7" t="n">
-        <v>4.158818001087639e-08</v>
+        <v>1.674170925980434e-05</v>
       </c>
       <c r="EN7" t="n">
-        <v>1.983813945116708e-06</v>
+        <v>9.116563887801021e-06</v>
       </c>
       <c r="EO7" t="n">
-        <v>2.794250031001866e-05</v>
+        <v>4.824208190257195e-06</v>
       </c>
       <c r="EP7" t="n">
-        <v>8.652682481624652e-07</v>
+        <v>2.595521800685674e-05</v>
       </c>
       <c r="EQ7" t="n">
-        <v>4.020091637357837e-06</v>
+        <v>3.314760306238895e-07</v>
       </c>
       <c r="ER7" t="n">
-        <v>8.230397725128569e-06</v>
+        <v>1.082351172954077e-05</v>
       </c>
       <c r="ES7" t="n">
-        <v>2.503800715203397e-06</v>
+        <v>1.468901700718561e-06</v>
       </c>
       <c r="ET7" t="n">
-        <v>1.378908564220183e-06</v>
+        <v>9.868294910120312e-06</v>
       </c>
       <c r="EU7" t="n">
-        <v>4.896733571513323e-06</v>
+        <v>7.399395144602749e-06</v>
       </c>
       <c r="EV7" t="n">
-        <v>2.113284836013918e-06</v>
+        <v>7.101156825228827e-06</v>
       </c>
       <c r="EW7" t="n">
-        <v>3.842797013930976e-06</v>
+        <v>1.864214169700062e-07</v>
       </c>
       <c r="EX7" t="n">
-        <v>9.344965292257257e-06</v>
+        <v>2.274253120049252e-06</v>
       </c>
       <c r="EY7" t="n">
-        <v>2.010623802561895e-06</v>
+        <v>1.635035732761025e-05</v>
       </c>
       <c r="EZ7" t="n">
-        <v>3.062700670852792e-08</v>
+        <v>5.472203611134319e-06</v>
       </c>
       <c r="FA7" t="n">
-        <v>1.50769319589017e-05</v>
+        <v>1.668655158937327e-06</v>
       </c>
       <c r="FB7" t="n">
-        <v>3.765492920138058e-06</v>
+        <v>3.646237473731162e-06</v>
       </c>
       <c r="FC7" t="n">
-        <v>8.338807674590498e-06</v>
+        <v>2.034447334153811e-06</v>
       </c>
       <c r="FD7" t="n">
-        <v>1.190529246741789e-06</v>
+        <v>1.753811829985352e-06</v>
       </c>
       <c r="FE7" t="n">
-        <v>1.062356545844523e-06</v>
+        <v>6.932644282642286e-06</v>
       </c>
       <c r="FF7" t="n">
-        <v>5.633924047288019e-06</v>
+        <v>4.68499251837784e-07</v>
       </c>
       <c r="FG7" t="n">
-        <v>1.770742642293044e-06</v>
+        <v>2.662923179741483e-06</v>
       </c>
       <c r="FH7" t="n">
-        <v>1.565123966429383e-05</v>
+        <v>6.020346518198494e-06</v>
       </c>
       <c r="FI7" t="n">
-        <v>1.091014746634755e-05</v>
+        <v>5.855963536305353e-07</v>
       </c>
       <c r="FJ7" t="n">
-        <v>1.266282561118715e-05</v>
+        <v>6.647651389357634e-06</v>
       </c>
       <c r="FK7" t="n">
-        <v>7.689639005548088e-07</v>
+        <v>1.888305814645719e-05</v>
       </c>
       <c r="FL7" t="n">
-        <v>1.398819108544558e-06</v>
+        <v>2.152576053049415e-05</v>
       </c>
       <c r="FM7" t="n">
-        <v>3.435687858655001e-06</v>
+        <v>6.539085916301701e-06</v>
       </c>
       <c r="FN7" t="n">
-        <v>2.944923835457303e-06</v>
+        <v>1.488589168729959e-05</v>
       </c>
       <c r="FO7" t="n">
-        <v>1.338532729278086e-05</v>
+        <v>3.629616549005732e-05</v>
       </c>
       <c r="FP7" t="n">
-        <v>7.281020316440845e-06</v>
+        <v>5.092551418783842e-06</v>
       </c>
       <c r="FQ7" t="n">
-        <v>2.150855834770482e-06</v>
+        <v>2.696477167773992e-05</v>
       </c>
       <c r="FR7" t="n">
-        <v>9.907939784170594e-07</v>
+        <v>1.195568984257989e-06</v>
       </c>
       <c r="FS7" t="n">
-        <v>7.257787729031406e-06</v>
+        <v>1.109576078306418e-05</v>
       </c>
       <c r="FT7" t="n">
-        <v>9.362298442283645e-06</v>
+        <v>2.957038668682799e-05</v>
       </c>
       <c r="FU7" t="n">
-        <v>1.443906967324438e-05</v>
+        <v>1.092001548386179e-05</v>
       </c>
       <c r="FV7" t="n">
-        <v>5.410560675045417e-07</v>
+        <v>2.210044840467162e-06</v>
       </c>
       <c r="FW7" t="n">
-        <v>6.916298389114672e-06</v>
+        <v>7.884979822847527e-06</v>
       </c>
       <c r="FX7" t="n">
-        <v>1.250975037692115e-05</v>
+        <v>1.313979464612203e-05</v>
       </c>
       <c r="FY7" t="n">
-        <v>9.777986633707769e-06</v>
+        <v>1.062155661202269e-05</v>
       </c>
       <c r="FZ7" t="n">
-        <v>2.006600880122278e-05</v>
+        <v>2.255229082948063e-05</v>
       </c>
       <c r="GA7" t="n">
-        <v>1.432372300769202e-07</v>
+        <v>6.412699349311879e-06</v>
       </c>
       <c r="GB7" t="n">
-        <v>2.386016421951354e-05</v>
+        <v>2.409351873211563e-05</v>
       </c>
       <c r="GC7" t="n">
-        <v>6.28885391051881e-06</v>
+        <v>2.626524474180769e-05</v>
       </c>
       <c r="GD7" t="n">
-        <v>1.201742998091504e-05</v>
+        <v>1.498328765592305e-05</v>
       </c>
       <c r="GE7" t="n">
-        <v>6.892422334203729e-06</v>
+        <v>1.56677970153396e-06</v>
       </c>
       <c r="GF7" t="n">
-        <v>3.037865326405154e-06</v>
+        <v>4.826398253499065e-06</v>
       </c>
       <c r="GG7" t="n">
-        <v>1.590115061844699e-05</v>
+        <v>4.017361334263114e-06</v>
       </c>
     </row>
     <row r="8">
@@ -4987,3985 +4987,3985 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.088588406782947e-07</v>
+        <v>0.001388030825182796</v>
       </c>
       <c r="B9" t="n">
-        <v>7.898920983961943e-08</v>
+        <v>0.07222412526607513</v>
       </c>
       <c r="C9" t="n">
-        <v>1.970457788047497e-07</v>
+        <v>0.005384511779993773</v>
       </c>
       <c r="D9" t="n">
-        <v>1.818402097342187e-06</v>
+        <v>0.05126983299851418</v>
       </c>
       <c r="E9" t="n">
-        <v>3.692798884458171e-07</v>
+        <v>0.02111444063484669</v>
       </c>
       <c r="F9" t="n">
-        <v>1.11591771201347e-06</v>
+        <v>0.01440095528960228</v>
       </c>
       <c r="G9" t="n">
-        <v>6.075767089441797e-08</v>
+        <v>0.006264252588152885</v>
       </c>
       <c r="H9" t="n">
-        <v>3.240825776629208e-07</v>
+        <v>0.01318130828440189</v>
       </c>
       <c r="I9" t="n">
-        <v>4.21664822169987e-07</v>
+        <v>0.01725742220878601</v>
       </c>
       <c r="J9" t="n">
-        <v>5.198122607907862e-07</v>
+        <v>0.008100705221295357</v>
       </c>
       <c r="K9" t="n">
-        <v>4.249674816492188e-07</v>
+        <v>0.05484284460544586</v>
       </c>
       <c r="L9" t="n">
-        <v>5.500561073290555e-08</v>
+        <v>0.002716048387810588</v>
       </c>
       <c r="M9" t="n">
-        <v>1.807932903830078e-06</v>
+        <v>0.04516667872667313</v>
       </c>
       <c r="N9" t="n">
-        <v>3.305963787170185e-07</v>
+        <v>0.02967613376677036</v>
       </c>
       <c r="O9" t="n">
-        <v>1.80648626724178e-07</v>
+        <v>0.02266972325742245</v>
       </c>
       <c r="P9" t="n">
-        <v>1.707972216991038e-07</v>
+        <v>0.002151068765670061</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.086451212970132e-07</v>
+        <v>0.001833979855291545</v>
       </c>
       <c r="R9" t="n">
-        <v>7.837678595024045e-07</v>
+        <v>0.01884905062615871</v>
       </c>
       <c r="S9" t="n">
-        <v>8.943590046328609e-08</v>
+        <v>0.003596615511924028</v>
       </c>
       <c r="T9" t="n">
-        <v>1.818612105353168e-07</v>
+        <v>0.007794694975018501</v>
       </c>
       <c r="U9" t="n">
-        <v>1.038929084984375e-07</v>
+        <v>0.002279275096952915</v>
       </c>
       <c r="V9" t="n">
-        <v>2.397597995695833e-07</v>
+        <v>0.01472442597150803</v>
       </c>
       <c r="W9" t="n">
-        <v>1.267910874958034e-06</v>
+        <v>0.01392319239675999</v>
       </c>
       <c r="X9" t="n">
-        <v>2.911093019974942e-07</v>
+        <v>0.001965084578841925</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.229785422969144e-08</v>
+        <v>0.005466834176331758</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.375412850279645e-08</v>
+        <v>0.007337163668125868</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.187305933101015e-07</v>
+        <v>0.01031944248825312</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.507021210045423e-07</v>
+        <v>0.0002253437414765358</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.288452094489912e-08</v>
+        <v>0.01422496046870947</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.64458231874687e-08</v>
+        <v>0.002021654276177287</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.207250761581236e-07</v>
+        <v>0.006825271993875504</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.689196112105947e-09</v>
+        <v>0.002776754088699818</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.740770347983926e-07</v>
+        <v>0.01544380839914083</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.317507039606426e-07</v>
+        <v>0.002686169929802418</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.513643148129631e-07</v>
+        <v>0.0003040750743821263</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.695106443046825e-07</v>
+        <v>0.003771473420783877</v>
       </c>
       <c r="AK9" t="n">
-        <v>9.677592061052565e-12</v>
+        <v>0.004834791645407677</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.301621921356855e-07</v>
+        <v>0.005897066555917263</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.877529929421144e-08</v>
+        <v>0.0008479479001834989</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.856712045395398e-07</v>
+        <v>0.002137589734047651</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.774969765084734e-08</v>
+        <v>0.01281793043017387</v>
       </c>
       <c r="AP9" t="n">
-        <v>7.911821739980951e-07</v>
+        <v>0.01298465579748154</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.187007825365072e-07</v>
+        <v>0.00214836373925209</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.639968445488194e-07</v>
+        <v>0.004759861156344414</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.528827789978095e-07</v>
+        <v>0.007547311950474977</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.372899186615541e-07</v>
+        <v>0.005398389883339405</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.695538512398343e-07</v>
+        <v>0.05192543938755989</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.54527015183703e-07</v>
+        <v>0.002131260232999921</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.890915523807053e-07</v>
+        <v>0.01165355648845434</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.055708366948238e-06</v>
+        <v>0.003877822309732437</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.161425075224543e-06</v>
+        <v>0.01135455537587404</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.645559990492984e-07</v>
+        <v>0.01197901554405689</v>
       </c>
       <c r="BA9" t="n">
-        <v>9.716784461488714e-07</v>
+        <v>0.01632342115044594</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.454542027408024e-07</v>
+        <v>0.006756075657904148</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.086839228672034e-07</v>
+        <v>0.003729577176272869</v>
       </c>
       <c r="BD9" t="n">
-        <v>5.666920799285435e-08</v>
+        <v>0.01120072789490223</v>
       </c>
       <c r="BE9" t="n">
-        <v>8.923841221530893e-08</v>
+        <v>0.01273740082979202</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.160962256108178e-06</v>
+        <v>0.01313216611742973</v>
       </c>
       <c r="BG9" t="n">
-        <v>3.560495542842546e-07</v>
+        <v>0.02023005299270153</v>
       </c>
       <c r="BH9" t="n">
-        <v>1.07669535509558e-07</v>
+        <v>0.01301634684205055</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.358470314016813e-07</v>
+        <v>0.008072863332927227</v>
       </c>
       <c r="BJ9" t="n">
-        <v>4.176760270979685e-09</v>
+        <v>0.0009059433359652758</v>
       </c>
       <c r="BK9" t="n">
-        <v>6.771280141038005e-07</v>
+        <v>0.01435607485473156</v>
       </c>
       <c r="BL9" t="n">
-        <v>3.203420533282042e-07</v>
+        <v>0.009242375381290913</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.328771048747512e-07</v>
+        <v>0.01850976049900055</v>
       </c>
       <c r="BN9" t="n">
-        <v>2.00342128664488e-07</v>
+        <v>0.006779011804610491</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.531823983214053e-07</v>
+        <v>0.00245585385710001</v>
       </c>
       <c r="BP9" t="n">
-        <v>3.561866606105468e-07</v>
+        <v>0.01873229630291462</v>
       </c>
       <c r="BQ9" t="n">
-        <v>2.251628501426239e-07</v>
+        <v>0.004300143104046583</v>
       </c>
       <c r="BR9" t="n">
-        <v>2.710293358632043e-07</v>
+        <v>0.004597045481204987</v>
       </c>
       <c r="BS9" t="n">
-        <v>7.069559870842568e-08</v>
+        <v>0.005544482730329037</v>
       </c>
       <c r="BT9" t="n">
-        <v>4.329444323047937e-07</v>
+        <v>0.00739467004314065</v>
       </c>
       <c r="BU9" t="n">
-        <v>3.389644120943558e-10</v>
+        <v>0.004260109271854162</v>
       </c>
       <c r="BV9" t="n">
-        <v>3.61262976866783e-07</v>
+        <v>0.02535497769713402</v>
       </c>
       <c r="BW9" t="n">
-        <v>2.747551075543697e-09</v>
+        <v>0.008970074355602264</v>
       </c>
       <c r="BX9" t="n">
-        <v>1.161743284683325e-06</v>
+        <v>0.01081035286188126</v>
       </c>
       <c r="BY9" t="n">
-        <v>2.504385747670312e-07</v>
+        <v>0.00199058884754777</v>
       </c>
       <c r="BZ9" t="n">
-        <v>5.741711106566072e-07</v>
+        <v>0.001931444043293595</v>
       </c>
       <c r="CA9" t="n">
-        <v>1.377331955154659e-07</v>
+        <v>0.004107999615371227</v>
       </c>
       <c r="CB9" t="n">
-        <v>5.219626331154359e-08</v>
+        <v>0.01166608463972807</v>
       </c>
       <c r="CC9" t="n">
-        <v>6.198507662702468e-07</v>
+        <v>0.01310958340764046</v>
       </c>
       <c r="CD9" t="n">
-        <v>2.149822933006362e-07</v>
+        <v>0.001926285680383444</v>
       </c>
       <c r="CE9" t="n">
-        <v>4.288569144250687e-08</v>
+        <v>0.01288500148802996</v>
       </c>
       <c r="CF9" t="n">
-        <v>9.435463965701274e-08</v>
+        <v>0.004940483719110489</v>
       </c>
       <c r="CG9" t="n">
-        <v>4.577690901896858e-07</v>
+        <v>0.005972390063107014</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.323899851968235e-07</v>
+        <v>0.001242783269844949</v>
       </c>
       <c r="CI9" t="n">
-        <v>1.392088506690925e-07</v>
+        <v>0.002723330399021506</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.498862545190605e-08</v>
+        <v>0.001721725682727993</v>
       </c>
       <c r="CK9" t="n">
-        <v>2.681331352505367e-07</v>
+        <v>0.003200195729732513</v>
       </c>
       <c r="CL9" t="n">
-        <v>2.904553753069194e-08</v>
+        <v>0.0006100772880017757</v>
       </c>
       <c r="CM9" t="n">
-        <v>3.670128876365197e-07</v>
+        <v>0.0138420881703496</v>
       </c>
       <c r="CN9" t="n">
-        <v>5.655466566167888e-07</v>
+        <v>0.005991667509078979</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.778711293809465e-07</v>
+        <v>0.002458881121128798</v>
       </c>
       <c r="CP9" t="n">
-        <v>1.219824298459571e-06</v>
+        <v>0.01554596982896328</v>
       </c>
       <c r="CQ9" t="n">
-        <v>4.273986178304767e-07</v>
+        <v>0.007251041475683451</v>
       </c>
       <c r="CR9" t="n">
-        <v>8.752029430070252e-07</v>
+        <v>0.007910802029073238</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.238281299720256e-08</v>
+        <v>0.01586773991584778</v>
       </c>
       <c r="CT9" t="n">
-        <v>3.32903141497809e-07</v>
+        <v>0.01709382794797421</v>
       </c>
       <c r="CU9" t="n">
-        <v>4.502541059991927e-07</v>
+        <v>0.002631379524245858</v>
       </c>
       <c r="CV9" t="n">
-        <v>2.627718345138419e-07</v>
+        <v>0.002914738841354847</v>
       </c>
       <c r="CW9" t="n">
-        <v>1.894227352750022e-08</v>
+        <v>0.01043492835015059</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.813271666151195e-07</v>
+        <v>0.006473959423601627</v>
       </c>
       <c r="CY9" t="n">
-        <v>3.741254204214783e-07</v>
+        <v>0.007475744932889938</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.560229350161535e-07</v>
+        <v>0.001915551838465035</v>
       </c>
       <c r="DA9" t="n">
-        <v>2.715012570320141e-08</v>
+        <v>0.001690038363449275</v>
       </c>
       <c r="DB9" t="n">
-        <v>7.51708455482003e-08</v>
+        <v>0.003287546569481492</v>
       </c>
       <c r="DC9" t="n">
-        <v>2.11602809940814e-07</v>
+        <v>0.00517432764172554</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.122429171829253e-08</v>
+        <v>0.0006775385700166225</v>
       </c>
       <c r="DE9" t="n">
-        <v>2.166056560781726e-07</v>
+        <v>0.006442049518227577</v>
       </c>
       <c r="DF9" t="n">
-        <v>1.973405971966713e-07</v>
+        <v>0.005308083258569241</v>
       </c>
       <c r="DG9" t="n">
-        <v>2.101232041695766e-07</v>
+        <v>0.0002319292980246246</v>
       </c>
       <c r="DH9" t="n">
-        <v>4.082698978891131e-07</v>
+        <v>0.02660442143678665</v>
       </c>
       <c r="DI9" t="n">
-        <v>5.01137094488513e-07</v>
+        <v>0.02042249031364918</v>
       </c>
       <c r="DJ9" t="n">
-        <v>1.525529143009408e-07</v>
+        <v>0.01025415025651455</v>
       </c>
       <c r="DK9" t="n">
-        <v>5.449408604363271e-07</v>
+        <v>0.004752566572278738</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.211376797982666e-06</v>
+        <v>0.01067000720649958</v>
       </c>
       <c r="DM9" t="n">
-        <v>1.336516959327128e-07</v>
+        <v>0.00684682372957468</v>
       </c>
       <c r="DN9" t="n">
-        <v>4.1635402681095e-08</v>
+        <v>0.001862129778601229</v>
       </c>
       <c r="DO9" t="n">
-        <v>3.610876149195974e-07</v>
+        <v>0.004976361989974976</v>
       </c>
       <c r="DP9" t="n">
-        <v>7.166448767748079e-08</v>
+        <v>0.007287402637302876</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.959593589617725e-07</v>
+        <v>0.001980185974389315</v>
       </c>
       <c r="DR9" t="n">
-        <v>6.433679686779215e-07</v>
+        <v>0.005924955941736698</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.764983039720391e-07</v>
+        <v>0.004618095234036446</v>
       </c>
       <c r="DT9" t="n">
-        <v>3.306217877252493e-07</v>
+        <v>0.007491558790206909</v>
       </c>
       <c r="DU9" t="n">
-        <v>5.674494900631544e-07</v>
+        <v>0.0001936207991093397</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.146575456800747e-07</v>
+        <v>0.00705672474578023</v>
       </c>
       <c r="DW9" t="n">
-        <v>1.186506821682087e-07</v>
+        <v>0.00112191669177264</v>
       </c>
       <c r="DX9" t="n">
-        <v>1.005309755441885e-07</v>
+        <v>0.001300028408877552</v>
       </c>
       <c r="DY9" t="n">
-        <v>7.630647047562888e-08</v>
+        <v>0.006999420467764139</v>
       </c>
       <c r="DZ9" t="n">
-        <v>2.88263976244707e-07</v>
+        <v>0.002971164882183075</v>
       </c>
       <c r="EA9" t="n">
-        <v>1.96234921645555e-08</v>
+        <v>0.001498915371485054</v>
       </c>
       <c r="EB9" t="n">
-        <v>7.547009772679303e-08</v>
+        <v>0.004018097650259733</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.110271341531188e-08</v>
+        <v>0.002547867363318801</v>
       </c>
       <c r="ED9" t="n">
-        <v>1.045293345214304e-07</v>
+        <v>0.005285682622343302</v>
       </c>
       <c r="EE9" t="n">
-        <v>4.316689228289761e-07</v>
+        <v>0.002376536140218377</v>
       </c>
       <c r="EF9" t="n">
-        <v>2.602480364544135e-08</v>
+        <v>0.002059947932139039</v>
       </c>
       <c r="EG9" t="n">
-        <v>1.850395747737821e-08</v>
+        <v>0.009036663919687271</v>
       </c>
       <c r="EH9" t="n">
-        <v>8.148695940235484e-09</v>
+        <v>0.003960156813263893</v>
       </c>
       <c r="EI9" t="n">
-        <v>7.280913223439711e-07</v>
+        <v>0.004657259676605463</v>
       </c>
       <c r="EJ9" t="n">
-        <v>2.052859287005049e-07</v>
+        <v>0.009243406355381012</v>
       </c>
       <c r="EK9" t="n">
-        <v>2.040359561306104e-07</v>
+        <v>0.0005059755058027804</v>
       </c>
       <c r="EL9" t="n">
-        <v>1.250460996971015e-07</v>
+        <v>0.002864050213247538</v>
       </c>
       <c r="EM9" t="n">
-        <v>2.26146838144814e-07</v>
+        <v>0.00188380409963429</v>
       </c>
       <c r="EN9" t="n">
-        <v>5.882443687710293e-08</v>
+        <v>0.001512638758867979</v>
       </c>
       <c r="EO9" t="n">
-        <v>4.672950524309272e-07</v>
+        <v>0.0026941136457026</v>
       </c>
       <c r="EP9" t="n">
-        <v>3.61837550144628e-07</v>
+        <v>0.01060123555362225</v>
       </c>
       <c r="EQ9" t="n">
-        <v>2.29397940643139e-08</v>
+        <v>0.005213665775954723</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.32107288663974e-07</v>
+        <v>0.002732703927904367</v>
       </c>
       <c r="ES9" t="n">
-        <v>2.321484657841211e-07</v>
+        <v>0.000247028743615374</v>
       </c>
       <c r="ET9" t="n">
-        <v>1.844423280772389e-08</v>
+        <v>0.006989222019910812</v>
       </c>
       <c r="EU9" t="n">
-        <v>8.920448379967638e-08</v>
+        <v>0.01204715482890606</v>
       </c>
       <c r="EV9" t="n">
-        <v>4.149939627495769e-07</v>
+        <v>0.01304518058896065</v>
       </c>
       <c r="EW9" t="n">
-        <v>8.439093335255166e-08</v>
+        <v>0.0006248960271477699</v>
       </c>
       <c r="EX9" t="n">
-        <v>1.928157047359491e-07</v>
+        <v>0.0003436742990743369</v>
       </c>
       <c r="EY9" t="n">
-        <v>6.822114073656849e-08</v>
+        <v>0.01007035188376904</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.475096382819174e-07</v>
+        <v>0.00362318754196167</v>
       </c>
       <c r="FA9" t="n">
-        <v>2.73100766889911e-07</v>
+        <v>0.00715695321559906</v>
       </c>
       <c r="FB9" t="n">
-        <v>2.297065577749891e-07</v>
+        <v>0.00402125297114253</v>
       </c>
       <c r="FC9" t="n">
-        <v>7.529958878649268e-08</v>
+        <v>0.0007031434215605259</v>
       </c>
       <c r="FD9" t="n">
-        <v>2.015418054668316e-08</v>
+        <v>0.00376830855384469</v>
       </c>
       <c r="FE9" t="n">
-        <v>1.011505261772072e-07</v>
+        <v>0.005291434470564127</v>
       </c>
       <c r="FF9" t="n">
-        <v>1.415088490830385e-07</v>
+        <v>0.003681384492665529</v>
       </c>
       <c r="FG9" t="n">
-        <v>1.105792719613419e-07</v>
+        <v>0.00143709871917963</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.045338819949393e-07</v>
+        <v>0.0007265193853527308</v>
       </c>
       <c r="FI9" t="n">
-        <v>2.946744359633158e-07</v>
+        <v>0.006009954027831554</v>
       </c>
       <c r="FJ9" t="n">
-        <v>1.422127269279372e-07</v>
+        <v>0.004641881678253412</v>
       </c>
       <c r="FK9" t="n">
-        <v>3.695436134876218e-08</v>
+        <v>0.007090796250849962</v>
       </c>
       <c r="FL9" t="n">
-        <v>2.490347696948447e-07</v>
+        <v>0.0001515849580755457</v>
       </c>
       <c r="FM9" t="n">
-        <v>2.979661530844169e-07</v>
+        <v>0.001379805384203792</v>
       </c>
       <c r="FN9" t="n">
-        <v>6.070706035643525e-07</v>
+        <v>0.0006114827701821923</v>
       </c>
       <c r="FO9" t="n">
-        <v>1.328721310756009e-07</v>
+        <v>0.00532367592677474</v>
       </c>
       <c r="FP9" t="n">
-        <v>1.221895189473798e-07</v>
+        <v>0.008673477917909622</v>
       </c>
       <c r="FQ9" t="n">
-        <v>9.459109406861899e-08</v>
+        <v>0.003672293620184064</v>
       </c>
       <c r="FR9" t="n">
-        <v>7.811199509433209e-08</v>
+        <v>0.009249378927052021</v>
       </c>
       <c r="FS9" t="n">
-        <v>7.96914662259951e-07</v>
+        <v>0.006999802775681019</v>
       </c>
       <c r="FT9" t="n">
-        <v>1.392889146245579e-07</v>
+        <v>0.01972070522606373</v>
       </c>
       <c r="FU9" t="n">
-        <v>5.486854774972016e-07</v>
+        <v>0.003896364476531744</v>
       </c>
       <c r="FV9" t="n">
-        <v>9.753139806889521e-08</v>
+        <v>0.009251036681234837</v>
       </c>
       <c r="FW9" t="n">
-        <v>5.363535251490248e-07</v>
+        <v>0.005011385306715965</v>
       </c>
       <c r="FX9" t="n">
-        <v>2.491148336503102e-07</v>
+        <v>0.005817837081849575</v>
       </c>
       <c r="FY9" t="n">
-        <v>2.154370122298133e-07</v>
+        <v>0.01374700572341681</v>
       </c>
       <c r="FZ9" t="n">
-        <v>4.905294872514787e-07</v>
+        <v>0.000782548391725868</v>
       </c>
       <c r="GA9" t="n">
-        <v>1.944491998528974e-07</v>
+        <v>0.006620829459279776</v>
       </c>
       <c r="GB9" t="n">
-        <v>9.60027080054715e-08</v>
+        <v>0.004237602464854717</v>
       </c>
       <c r="GC9" t="n">
-        <v>3.951887777020602e-07</v>
+        <v>0.001580902026034892</v>
       </c>
       <c r="GD9" t="n">
-        <v>1.18130657256188e-07</v>
+        <v>0.01424464583396912</v>
       </c>
       <c r="GE9" t="n">
-        <v>3.50579014707364e-08</v>
+        <v>0.02463102526962757</v>
       </c>
       <c r="GF9" t="n">
-        <v>3.773580203869642e-07</v>
+        <v>0.003267141524702311</v>
       </c>
       <c r="GG9" t="n">
-        <v>7.947332960611675e-07</v>
+        <v>0.0008420302765443921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.680429472296964e-06</v>
+        <v>0.2233625054359436</v>
       </c>
       <c r="B10" t="n">
-        <v>3.978264885518001e-06</v>
+        <v>1.608471870422363</v>
       </c>
       <c r="C10" t="n">
-        <v>3.208103862561984e-06</v>
+        <v>0.1916362345218658</v>
       </c>
       <c r="D10" t="n">
-        <v>1.103724935092032e-05</v>
+        <v>0.3821955919265747</v>
       </c>
       <c r="E10" t="n">
-        <v>1.272069766855566e-05</v>
+        <v>0.04735937714576721</v>
       </c>
       <c r="F10" t="n">
-        <v>2.776911514956737e-06</v>
+        <v>0.2457804977893829</v>
       </c>
       <c r="G10" t="n">
-        <v>2.314653329449357e-06</v>
+        <v>0.1552047878503799</v>
       </c>
       <c r="H10" t="n">
-        <v>4.212864496366819e-06</v>
+        <v>0.08166024088859558</v>
       </c>
       <c r="I10" t="n">
-        <v>3.363076075402205e-06</v>
+        <v>0.06349936127662659</v>
       </c>
       <c r="J10" t="n">
-        <v>1.171728740700928e-07</v>
+        <v>0.2793794870376587</v>
       </c>
       <c r="K10" t="n">
-        <v>1.217338649439625e-06</v>
+        <v>1.215038061141968</v>
       </c>
       <c r="L10" t="n">
-        <v>7.840157195460051e-06</v>
+        <v>0.0413997694849968</v>
       </c>
       <c r="M10" t="n">
-        <v>1.358557619823841e-05</v>
+        <v>0.3984889388084412</v>
       </c>
       <c r="N10" t="n">
-        <v>1.677530963206664e-05</v>
+        <v>0.1034842729568481</v>
       </c>
       <c r="O10" t="n">
-        <v>8.286527190648485e-06</v>
+        <v>0.2398803979158401</v>
       </c>
       <c r="P10" t="n">
-        <v>1.524421577414614e-06</v>
+        <v>0.105275571346283</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.073008843377465e-05</v>
+        <v>0.1128651350736618</v>
       </c>
       <c r="R10" t="n">
-        <v>5.424735718406737e-06</v>
+        <v>0.002079151570796967</v>
       </c>
       <c r="S10" t="n">
-        <v>6.342811502690893e-06</v>
+        <v>0.01887862756848335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.464016915837419e-06</v>
+        <v>0.1856917291879654</v>
       </c>
       <c r="U10" t="n">
-        <v>1.418984538759105e-06</v>
+        <v>0.04825019836425781</v>
       </c>
       <c r="V10" t="n">
-        <v>5.349383172870148e-06</v>
+        <v>0.145618811249733</v>
       </c>
       <c r="W10" t="n">
-        <v>9.257208148483187e-06</v>
+        <v>0.125423401594162</v>
       </c>
       <c r="X10" t="n">
-        <v>2.24883319788205e-06</v>
+        <v>0.1581019461154938</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.503071300452575e-06</v>
+        <v>0.07094833254814148</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.978263051380054e-07</v>
+        <v>0.1625893712043762</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.3646308616444e-06</v>
+        <v>0.1421013325452805</v>
       </c>
       <c r="AB10" t="n">
-        <v>3.472372100077337e-06</v>
+        <v>0.003172382712364197</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.308824550960708e-07</v>
+        <v>0.1515527218580246</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.041747959287022e-06</v>
+        <v>0.1627711206674576</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.067314537474886e-06</v>
+        <v>0.04054556414484978</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.449201929266565e-06</v>
+        <v>0.1628932654857635</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.174036454671295e-06</v>
+        <v>0.1010901555418968</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.035971985809738e-06</v>
+        <v>0.1204488575458527</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.223316866751702e-07</v>
+        <v>0.05846241116523743</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.510070319454826e-06</v>
+        <v>0.1013962030410767</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.190487293773913e-06</v>
+        <v>0.1534448266029358</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.238286469946615e-06</v>
+        <v>0.1327441036701202</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.277285375384963e-06</v>
+        <v>0.00184256536886096</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.097504294506507e-06</v>
+        <v>0.0923854261636734</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.233617007936118e-06</v>
+        <v>0.08784933388233185</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.145254140690668e-06</v>
+        <v>0.1688950508832932</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.385825498800841e-06</v>
+        <v>0.03698927164077759</v>
       </c>
       <c r="AR10" t="n">
-        <v>2.170278037283424e-07</v>
+        <v>0.08754171431064606</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.095015022656298e-06</v>
+        <v>0.07362419366836548</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.55669681589643e-07</v>
+        <v>0.02087578549981117</v>
       </c>
       <c r="AU10" t="n">
-        <v>3.629110324254725e-06</v>
+        <v>0.9302986264228821</v>
       </c>
       <c r="AV10" t="n">
-        <v>2.063991360046202e-07</v>
+        <v>0.08747054636478424</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.823786639462924e-06</v>
+        <v>0.04828928411006927</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.517605824119528e-06</v>
+        <v>0.07891088724136353</v>
       </c>
       <c r="AY10" t="n">
-        <v>2.168769469790277e-06</v>
+        <v>0.1149126216769218</v>
       </c>
       <c r="AZ10" t="n">
-        <v>4.925340363115538e-06</v>
+        <v>0.02543869987130165</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.90944399239379e-06</v>
+        <v>0.1412197053432465</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.571634697938862e-06</v>
+        <v>0.1120565235614777</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.512529820502095e-06</v>
+        <v>0.07413193583488464</v>
       </c>
       <c r="BD10" t="n">
-        <v>3.838093562080758e-06</v>
+        <v>0.3916251957416534</v>
       </c>
       <c r="BE10" t="n">
-        <v>3.929575086658588e-06</v>
+        <v>0.1621261090040207</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.129432348534465e-05</v>
+        <v>0.05961291491985321</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.620605144125875e-05</v>
+        <v>0.3038046956062317</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.125514245359227e-06</v>
+        <v>0.02837271615862846</v>
       </c>
       <c r="BI10" t="n">
-        <v>6.883352398290299e-06</v>
+        <v>0.110341876745224</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.927935724983399e-07</v>
+        <v>0.1950941532850266</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.163281351386104e-06</v>
+        <v>0.04378002509474754</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.553276203798305e-07</v>
+        <v>0.1787276566028595</v>
       </c>
       <c r="BM10" t="n">
-        <v>1.112521431423374e-06</v>
+        <v>0.2327460497617722</v>
       </c>
       <c r="BN10" t="n">
-        <v>4.891722710453905e-06</v>
+        <v>0.1140723377466202</v>
       </c>
       <c r="BO10" t="n">
-        <v>5.03643968841061e-06</v>
+        <v>0.09183854609727859</v>
       </c>
       <c r="BP10" t="n">
-        <v>4.250216989021283e-06</v>
+        <v>0.09068095684051514</v>
       </c>
       <c r="BQ10" t="n">
-        <v>3.394623263375252e-06</v>
+        <v>0.01330671738833189</v>
       </c>
       <c r="BR10" t="n">
-        <v>4.949039293933311e-07</v>
+        <v>0.02150797471404076</v>
       </c>
       <c r="BS10" t="n">
-        <v>1.227769530487421e-08</v>
+        <v>0.1080965846776962</v>
       </c>
       <c r="BT10" t="n">
-        <v>6.207354203979776e-07</v>
+        <v>0.05826115608215332</v>
       </c>
       <c r="BU10" t="n">
-        <v>2.209790181950666e-06</v>
+        <v>0.07643125206232071</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.49227150814113e-06</v>
+        <v>0.5110538005828857</v>
       </c>
       <c r="BW10" t="n">
-        <v>2.008359388128156e-06</v>
+        <v>0.08427345007658005</v>
       </c>
       <c r="BX10" t="n">
-        <v>8.8971983132069e-06</v>
+        <v>0.01350155100226402</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.699220203794539e-06</v>
+        <v>0.04611208289861679</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.746122279655538e-06</v>
+        <v>0.1653588712215424</v>
       </c>
       <c r="CA10" t="n">
-        <v>9.962254807760473e-07</v>
+        <v>0.09439253062009811</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.265368155145552e-06</v>
+        <v>0.005655620247125626</v>
       </c>
       <c r="CC10" t="n">
-        <v>3.472644948487869e-06</v>
+        <v>0.1685236394405365</v>
       </c>
       <c r="CD10" t="n">
-        <v>9.777703553481842e-07</v>
+        <v>0.07918134331703186</v>
       </c>
       <c r="CE10" t="n">
-        <v>5.926189601268561e-07</v>
+        <v>0.2675209641456604</v>
       </c>
       <c r="CF10" t="n">
-        <v>8.409709835177637e-07</v>
+        <v>0.04046197235584259</v>
       </c>
       <c r="CG10" t="n">
-        <v>9.745456281962106e-07</v>
+        <v>0.02437657862901688</v>
       </c>
       <c r="CH10" t="n">
-        <v>4.086670287506422e-06</v>
+        <v>0.1103634536266327</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.358424924546853e-06</v>
+        <v>0.01294903829693794</v>
       </c>
       <c r="CJ10" t="n">
-        <v>9.356628538625955e-07</v>
+        <v>0.0415879413485527</v>
       </c>
       <c r="CK10" t="n">
-        <v>2.688923359528417e-07</v>
+        <v>0.003939906135201454</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.731236125124269e-06</v>
+        <v>0.0539083369076252</v>
       </c>
       <c r="CM10" t="n">
-        <v>1.242758798980503e-06</v>
+        <v>0.1664513945579529</v>
       </c>
       <c r="CN10" t="n">
-        <v>2.513175786589272e-06</v>
+        <v>0.112221896648407</v>
       </c>
       <c r="CO10" t="n">
-        <v>5.36287700469984e-07</v>
+        <v>0.04653208702802658</v>
       </c>
       <c r="CP10" t="n">
-        <v>1.046232682710979e-05</v>
+        <v>0.2547058761119843</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.201567374664592e-05</v>
+        <v>0.2078319787979126</v>
       </c>
       <c r="CR10" t="n">
-        <v>3.498807473079069e-06</v>
+        <v>0.2431214153766632</v>
       </c>
       <c r="CS10" t="n">
-        <v>3.20739502512879e-07</v>
+        <v>0.1361177265644073</v>
       </c>
       <c r="CT10" t="n">
-        <v>7.185043955360015e-07</v>
+        <v>0.1086809709668159</v>
       </c>
       <c r="CU10" t="n">
-        <v>2.023230990744196e-06</v>
+        <v>0.02163647674024105</v>
       </c>
       <c r="CV10" t="n">
-        <v>8.024508133530617e-07</v>
+        <v>0.07524199783802032</v>
       </c>
       <c r="CW10" t="n">
-        <v>2.316058953510947e-06</v>
+        <v>0.2451775670051575</v>
       </c>
       <c r="CX10" t="n">
-        <v>7.605471523675078e-07</v>
+        <v>0.05745023861527443</v>
       </c>
       <c r="CY10" t="n">
-        <v>2.434846919641132e-07</v>
+        <v>0.0790950283408165</v>
       </c>
       <c r="CZ10" t="n">
-        <v>3.089713345616474e-06</v>
+        <v>0.1328696310520172</v>
       </c>
       <c r="DA10" t="n">
-        <v>3.094923499702418e-07</v>
+        <v>0.05153369531035423</v>
       </c>
       <c r="DB10" t="n">
-        <v>4.060493097313156e-07</v>
+        <v>0.04905080050230026</v>
       </c>
       <c r="DC10" t="n">
-        <v>5.458102805278031e-07</v>
+        <v>0.01378617808222771</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.790069063645205e-06</v>
+        <v>0.01887235976755619</v>
       </c>
       <c r="DE10" t="n">
-        <v>4.285876912035746e-06</v>
+        <v>0.03162387013435364</v>
       </c>
       <c r="DF10" t="n">
-        <v>6.557954293384682e-06</v>
+        <v>0.3605613708496094</v>
       </c>
       <c r="DG10" t="n">
-        <v>2.265193870698567e-06</v>
+        <v>0.07049767673015594</v>
       </c>
       <c r="DH10" t="n">
-        <v>4.166609414824052e-06</v>
+        <v>0.2381770312786102</v>
       </c>
       <c r="DI10" t="n">
-        <v>3.468768170478143e-07</v>
+        <v>0.002546886913478374</v>
       </c>
       <c r="DJ10" t="n">
-        <v>6.017359737597872e-06</v>
+        <v>0.09556308388710022</v>
       </c>
       <c r="DK10" t="n">
-        <v>4.254788109392393e-06</v>
+        <v>0.1355932056903839</v>
       </c>
       <c r="DL10" t="n">
-        <v>7.670819286431652e-06</v>
+        <v>0.04753979295492172</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.011429958452936e-06</v>
+        <v>0.03940964862704277</v>
       </c>
       <c r="DN10" t="n">
-        <v>2.022788748945459e-06</v>
+        <v>0.116410069167614</v>
       </c>
       <c r="DO10" t="n">
-        <v>6.013050096953521e-06</v>
+        <v>0.1535128355026245</v>
       </c>
       <c r="DP10" t="n">
-        <v>2.707615294639254e-06</v>
+        <v>0.05806272849440575</v>
       </c>
       <c r="DQ10" t="n">
-        <v>3.262518475821707e-06</v>
+        <v>0.04693510755896568</v>
       </c>
       <c r="DR10" t="n">
-        <v>2.372037783970882e-07</v>
+        <v>0.1308248341083527</v>
       </c>
       <c r="DS10" t="n">
-        <v>3.24242841998057e-06</v>
+        <v>0.1463225185871124</v>
       </c>
       <c r="DT10" t="n">
-        <v>2.182955086027505e-06</v>
+        <v>0.01026292610913515</v>
       </c>
       <c r="DU10" t="n">
-        <v>1.333149043603044e-06</v>
+        <v>0.1175606772303581</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.515405188001751e-06</v>
+        <v>0.01324767898768187</v>
       </c>
       <c r="DW10" t="n">
-        <v>2.353904619667446e-06</v>
+        <v>0.04082127287983894</v>
       </c>
       <c r="DX10" t="n">
-        <v>3.891235792252701e-06</v>
+        <v>0.02094811014831066</v>
       </c>
       <c r="DY10" t="n">
-        <v>7.679332156840246e-07</v>
+        <v>0.1402338445186615</v>
       </c>
       <c r="DZ10" t="n">
-        <v>2.126666913682129e-06</v>
+        <v>0.004431562963873148</v>
       </c>
       <c r="EA10" t="n">
-        <v>4.475451532925945e-06</v>
+        <v>0.2019893974065781</v>
       </c>
       <c r="EB10" t="n">
-        <v>4.19815205532359e-06</v>
+        <v>0.01216772757470608</v>
       </c>
       <c r="EC10" t="n">
-        <v>1.348510068055475e-06</v>
+        <v>0.00368160055950284</v>
       </c>
       <c r="ED10" t="n">
-        <v>3.315070671305875e-06</v>
+        <v>0.01889888010919094</v>
       </c>
       <c r="EE10" t="n">
-        <v>7.431841027027986e-07</v>
+        <v>0.05479365959763527</v>
       </c>
       <c r="EF10" t="n">
-        <v>1.559356178404414e-06</v>
+        <v>0.04272947087883949</v>
       </c>
       <c r="EG10" t="n">
-        <v>1.13386352040834e-06</v>
+        <v>0.2152293920516968</v>
       </c>
       <c r="EH10" t="n">
-        <v>7.454648880411696e-07</v>
+        <v>0.01652428694069386</v>
       </c>
       <c r="EI10" t="n">
-        <v>2.505041265976615e-06</v>
+        <v>0.0138050178065896</v>
       </c>
       <c r="EJ10" t="n">
-        <v>3.489436721793027e-06</v>
+        <v>0.01810695603489876</v>
       </c>
       <c r="EK10" t="n">
-        <v>5.190753427086747e-07</v>
+        <v>0.01087374426424503</v>
       </c>
       <c r="EL10" t="n">
-        <v>1.640679101910791e-06</v>
+        <v>0.05528437718749046</v>
       </c>
       <c r="EM10" t="n">
-        <v>3.56271726786872e-07</v>
+        <v>0.03604356944561005</v>
       </c>
       <c r="EN10" t="n">
-        <v>5.660990609612782e-07</v>
+        <v>0.07246138155460358</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.34926131067914e-06</v>
+        <v>0.03936076536774635</v>
       </c>
       <c r="EP10" t="n">
-        <v>4.528269528236706e-06</v>
+        <v>0.1382226347923279</v>
       </c>
       <c r="EQ10" t="n">
-        <v>5.413054623204516e-06</v>
+        <v>0.02206674218177795</v>
       </c>
       <c r="ER10" t="n">
-        <v>2.944213520095218e-06</v>
+        <v>0.04725569859147072</v>
       </c>
       <c r="ES10" t="n">
-        <v>4.747034836327657e-06</v>
+        <v>0.15639728307724</v>
       </c>
       <c r="ET10" t="n">
-        <v>1.767899789228977e-06</v>
+        <v>0.2485509216785431</v>
       </c>
       <c r="EU10" t="n">
-        <v>1.808024535421282e-06</v>
+        <v>0.1227478682994843</v>
       </c>
       <c r="EV10" t="n">
-        <v>2.153385139536113e-06</v>
+        <v>0.09999896585941315</v>
       </c>
       <c r="EW10" t="n">
-        <v>5.239717779659259e-07</v>
+        <v>0.03207907825708389</v>
       </c>
       <c r="EX10" t="n">
-        <v>1.066315348907665e-06</v>
+        <v>0.05530006438493729</v>
       </c>
       <c r="EY10" t="n">
-        <v>6.82244831295975e-07</v>
+        <v>0.2615103125572205</v>
       </c>
       <c r="EZ10" t="n">
-        <v>2.748988379153161e-07</v>
+        <v>0.01970895938575268</v>
       </c>
       <c r="FA10" t="n">
-        <v>6.123705134086777e-07</v>
+        <v>0.04889020696282387</v>
       </c>
       <c r="FB10" t="n">
-        <v>3.699474518725765e-06</v>
+        <v>0.09128886461257935</v>
       </c>
       <c r="FC10" t="n">
-        <v>1.189871952078647e-07</v>
+        <v>0.04620701819658279</v>
       </c>
       <c r="FD10" t="n">
-        <v>4.018265542526933e-07</v>
+        <v>0.06723719090223312</v>
       </c>
       <c r="FE10" t="n">
-        <v>5.733730858992203e-07</v>
+        <v>0.005013780668377876</v>
       </c>
       <c r="FF10" t="n">
-        <v>8.694487405591644e-07</v>
+        <v>0.05543257296085358</v>
       </c>
       <c r="FG10" t="n">
-        <v>2.645335371198598e-06</v>
+        <v>0.04552160203456879</v>
       </c>
       <c r="FH10" t="n">
-        <v>2.286006974827615e-06</v>
+        <v>0.07817556709051132</v>
       </c>
       <c r="FI10" t="n">
-        <v>3.034082283193129e-06</v>
+        <v>0.01120554096996784</v>
       </c>
       <c r="FJ10" t="n">
-        <v>3.8061108398324e-07</v>
+        <v>0.1200622692704201</v>
       </c>
       <c r="FK10" t="n">
-        <v>3.370117269696493e-07</v>
+        <v>0.1307873278856277</v>
       </c>
       <c r="FL10" t="n">
-        <v>2.89529839392344e-06</v>
+        <v>0.03579414635896683</v>
       </c>
       <c r="FM10" t="n">
-        <v>1.045764406626404e-06</v>
+        <v>0.01489011477679014</v>
       </c>
       <c r="FN10" t="n">
-        <v>3.373675781404017e-06</v>
+        <v>0.001489525660872459</v>
       </c>
       <c r="FO10" t="n">
-        <v>3.109085128016886e-06</v>
+        <v>0.1183484718203545</v>
       </c>
       <c r="FP10" t="n">
-        <v>2.805177018672111e-06</v>
+        <v>0.04971495270729065</v>
       </c>
       <c r="FQ10" t="n">
-        <v>1.420358330506133e-06</v>
+        <v>0.01659679040312767</v>
       </c>
       <c r="FR10" t="n">
-        <v>1.355338213215873e-06</v>
+        <v>0.09412901848554611</v>
       </c>
       <c r="FS10" t="n">
-        <v>3.711212684720522e-06</v>
+        <v>0.1579976677894592</v>
       </c>
       <c r="FT10" t="n">
-        <v>8.427503416896798e-06</v>
+        <v>0.07792634516954422</v>
       </c>
       <c r="FU10" t="n">
-        <v>6.370515620801598e-06</v>
+        <v>0.1083278208971024</v>
       </c>
       <c r="FV10" t="n">
-        <v>1.532763462819275e-06</v>
+        <v>0.08166053146123886</v>
       </c>
       <c r="FW10" t="n">
-        <v>2.303670044057071e-06</v>
+        <v>0.1166855543851852</v>
       </c>
       <c r="FX10" t="n">
-        <v>3.847714651783463e-06</v>
+        <v>0.02450686134397984</v>
       </c>
       <c r="FY10" t="n">
-        <v>3.675152413507021e-07</v>
+        <v>0.1413055956363678</v>
       </c>
       <c r="FZ10" t="n">
-        <v>6.272394443840312e-07</v>
+        <v>0.04205072671175003</v>
       </c>
       <c r="GA10" t="n">
-        <v>1.660469479247695e-06</v>
+        <v>0.02043166570365429</v>
       </c>
       <c r="GB10" t="n">
-        <v>5.823178071295843e-06</v>
+        <v>0.02139310538768768</v>
       </c>
       <c r="GC10" t="n">
-        <v>1.124855589296203e-05</v>
+        <v>0.2849186360836029</v>
       </c>
       <c r="GD10" t="n">
-        <v>2.845169319698471e-06</v>
+        <v>0.2133898437023163</v>
       </c>
       <c r="GE10" t="n">
-        <v>7.789100777699787e-07</v>
+        <v>0.3507100045681</v>
       </c>
       <c r="GF10" t="n">
-        <v>1.017724230223394e-06</v>
+        <v>0.1002355888485909</v>
       </c>
       <c r="GG10" t="n">
-        <v>1.735802925395546e-06</v>
+        <v>0.01294368226081133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.404153593398405e-08</v>
+        <v>0.003612309694290161</v>
       </c>
       <c r="B11" t="n">
-        <v>6.188344059410156e-08</v>
+        <v>0.03215642645955086</v>
       </c>
       <c r="C11" t="n">
-        <v>5.748363562929626e-09</v>
+        <v>0.001000768737867475</v>
       </c>
       <c r="D11" t="n">
-        <v>3.850145446904207e-08</v>
+        <v>0.01115056313574314</v>
       </c>
       <c r="E11" t="n">
-        <v>1.640177416106781e-08</v>
+        <v>0.005994324572384357</v>
       </c>
       <c r="F11" t="n">
-        <v>5.210777231923203e-08</v>
+        <v>0.01928339339792728</v>
       </c>
       <c r="G11" t="n">
-        <v>8.170735199541923e-09</v>
+        <v>0.002596558071672916</v>
       </c>
       <c r="H11" t="n">
-        <v>3.970230366689975e-08</v>
+        <v>0.01754504814743996</v>
       </c>
       <c r="I11" t="n">
-        <v>6.773385408109789e-09</v>
+        <v>0.003226690227165818</v>
       </c>
       <c r="J11" t="n">
-        <v>4.702430000946833e-09</v>
+        <v>0.002462648088112473</v>
       </c>
       <c r="K11" t="n">
-        <v>9.693746960692806e-08</v>
+        <v>0.03373114764690399</v>
       </c>
       <c r="L11" t="n">
-        <v>1.308975416947078e-08</v>
+        <v>0.001886029960587621</v>
       </c>
       <c r="M11" t="n">
-        <v>3.906835388534091e-08</v>
+        <v>0.002249879762530327</v>
       </c>
       <c r="N11" t="n">
-        <v>4.848956081104916e-08</v>
+        <v>0.003850746201351285</v>
       </c>
       <c r="O11" t="n">
-        <v>2.605798909982582e-09</v>
+        <v>0.01408699527382851</v>
       </c>
       <c r="P11" t="n">
-        <v>8.295665310242839e-08</v>
+        <v>0.0007421276532113552</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.67571119600052e-08</v>
+        <v>0.01529556233435869</v>
       </c>
       <c r="R11" t="n">
-        <v>8.748149760151591e-09</v>
+        <v>0.0109275821596384</v>
       </c>
       <c r="S11" t="n">
-        <v>2.070868454495667e-08</v>
+        <v>7.597566582262516e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>3.580776342104741e-09</v>
+        <v>0.003469044808298349</v>
       </c>
       <c r="U11" t="n">
-        <v>2.078343896982915e-08</v>
+        <v>0.001638606307096779</v>
       </c>
       <c r="V11" t="n">
-        <v>2.151942801731366e-08</v>
+        <v>0.005428227595984936</v>
       </c>
       <c r="W11" t="n">
-        <v>2.443658431161566e-08</v>
+        <v>0.02304547466337681</v>
       </c>
       <c r="X11" t="n">
-        <v>1.251910042299187e-08</v>
+        <v>0.008436418138444424</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.116493812489352e-08</v>
+        <v>0.00162814452778548</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.35856215166541e-10</v>
+        <v>0.0109576191753149</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.307454280043203e-09</v>
+        <v>0.005423240829259157</v>
       </c>
       <c r="AB11" t="n">
-        <v>3.367053480474169e-08</v>
+        <v>0.0001618142705410719</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.039856201145994e-08</v>
+        <v>0.001850485103204846</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.524699891485852e-09</v>
+        <v>0.003856166498735547</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.45772075813511e-08</v>
+        <v>0.001815415802411735</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.132181009528722e-08</v>
+        <v>0.002534373430535197</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.067077709000387e-08</v>
+        <v>0.005840914789587259</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.828410725745471e-09</v>
+        <v>0.002190015744417906</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.123649250369454e-08</v>
+        <v>0.0001042378135025501</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.682116224088759e-09</v>
+        <v>0.00196999660693109</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.945054511371836e-08</v>
+        <v>0.001750662224367261</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.198667914399266e-08</v>
+        <v>0.002954668132588267</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.009891104075678e-08</v>
+        <v>0.001408456126227975</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.570322679839592e-08</v>
+        <v>0.005149911157786846</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.064876962279641e-09</v>
+        <v>0.006191323045641184</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.938334470708014e-08</v>
+        <v>0.005456538870930672</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.282042110834936e-08</v>
+        <v>0.0009241667576134205</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.070801891600581e-09</v>
+        <v>0.000626235269010067</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.545118921697508e-09</v>
+        <v>0.002323266584426165</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.718427000696465e-08</v>
+        <v>0.003325474914163351</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.549768182319895e-08</v>
+        <v>0.01194607373327017</v>
       </c>
       <c r="AV11" t="n">
-        <v>1.111060909941841e-09</v>
+        <v>0.002677640179172158</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.095533760548278e-08</v>
+        <v>0.01019448693841696</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.380287231877446e-08</v>
+        <v>0.01017841417342424</v>
       </c>
       <c r="AY11" t="n">
-        <v>2.797706777357689e-08</v>
+        <v>0.01883669570088387</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1.126441873111617e-08</v>
+        <v>0.0118706738576293</v>
       </c>
       <c r="BA11" t="n">
-        <v>2.669355225748404e-08</v>
+        <v>0.005442416295409203</v>
       </c>
       <c r="BB11" t="n">
-        <v>3.366475809229996e-08</v>
+        <v>0.003712966106832027</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.324906229172029e-08</v>
+        <v>0.003784481436014175</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.081622347243183e-08</v>
+        <v>0.01545028202235699</v>
       </c>
       <c r="BE11" t="n">
-        <v>9.942765721859814e-09</v>
+        <v>0.005925743840634823</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.76978165455921e-08</v>
+        <v>0.00208181468769908</v>
       </c>
       <c r="BG11" t="n">
-        <v>4.27113810985702e-08</v>
+        <v>0.002086641732603312</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.158212104002132e-08</v>
+        <v>0.004153074230998755</v>
       </c>
       <c r="BI11" t="n">
-        <v>6.952139752769426e-09</v>
+        <v>0.008842229843139648</v>
       </c>
       <c r="BJ11" t="n">
-        <v>3.550707106114714e-08</v>
+        <v>0.007005203049629927</v>
       </c>
       <c r="BK11" t="n">
-        <v>7.324473916270335e-09</v>
+        <v>0.008377964608371258</v>
       </c>
       <c r="BL11" t="n">
-        <v>4.83789150962366e-08</v>
+        <v>0.004563343711197376</v>
       </c>
       <c r="BM11" t="n">
-        <v>9.387614241518349e-09</v>
+        <v>0.005033494904637337</v>
       </c>
       <c r="BN11" t="n">
-        <v>2.646928187743924e-08</v>
+        <v>0.0004698566044680774</v>
       </c>
       <c r="BO11" t="n">
-        <v>2.600130244445609e-08</v>
+        <v>0.01066391728818417</v>
       </c>
       <c r="BP11" t="n">
-        <v>2.147850430844755e-08</v>
+        <v>0.0039213583804667</v>
       </c>
       <c r="BQ11" t="n">
-        <v>5.428386629091619e-10</v>
+        <v>0.001053671236149967</v>
       </c>
       <c r="BR11" t="n">
-        <v>5.395668267738074e-08</v>
+        <v>8.144578896462917e-05</v>
       </c>
       <c r="BS11" t="n">
-        <v>6.570849819809155e-08</v>
+        <v>0.007209776435047388</v>
       </c>
       <c r="BT11" t="n">
-        <v>2.519876751705397e-09</v>
+        <v>0.002162886317819357</v>
       </c>
       <c r="BU11" t="n">
-        <v>8.429809739141092e-09</v>
+        <v>0.001117916312068701</v>
       </c>
       <c r="BV11" t="n">
-        <v>9.502500120106561e-09</v>
+        <v>0.008959745988249779</v>
       </c>
       <c r="BW11" t="n">
-        <v>2.682873478931924e-08</v>
+        <v>0.0005795119795948267</v>
       </c>
       <c r="BX11" t="n">
-        <v>6.318258272131061e-08</v>
+        <v>0.004020345397293568</v>
       </c>
       <c r="BY11" t="n">
-        <v>3.106803703190053e-08</v>
+        <v>0.000291756761725992</v>
       </c>
       <c r="BZ11" t="n">
-        <v>3.521016012086875e-08</v>
+        <v>0.006893620826303959</v>
       </c>
       <c r="CA11" t="n">
-        <v>2.068197169080577e-08</v>
+        <v>0.005991595331579447</v>
       </c>
       <c r="CB11" t="n">
-        <v>1.318200304467609e-08</v>
+        <v>0.005353639367967844</v>
       </c>
       <c r="CC11" t="n">
-        <v>2.556814848730937e-08</v>
+        <v>0.001957465661689639</v>
       </c>
       <c r="CD11" t="n">
-        <v>3.569680329107427e-09</v>
+        <v>4.412095586303622e-05</v>
       </c>
       <c r="CE11" t="n">
-        <v>2.195209347632954e-08</v>
+        <v>0.003375827334821224</v>
       </c>
       <c r="CF11" t="n">
-        <v>8.673389118030173e-09</v>
+        <v>0.001974539365619421</v>
       </c>
       <c r="CG11" t="n">
-        <v>1.082943335006803e-08</v>
+        <v>0.000895505421794951</v>
       </c>
       <c r="CH11" t="n">
-        <v>2.237953378170232e-09</v>
+        <v>0.001607937505468726</v>
       </c>
       <c r="CI11" t="n">
-        <v>1.125613713348628e-09</v>
+        <v>0.002727025654166937</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1.249663839075765e-08</v>
+        <v>0.002654412295669317</v>
       </c>
       <c r="CK11" t="n">
-        <v>1.065315302639647e-08</v>
+        <v>0.004750774241983891</v>
       </c>
       <c r="CL11" t="n">
-        <v>5.371772804352304e-09</v>
+        <v>0.00239961058832705</v>
       </c>
       <c r="CM11" t="n">
-        <v>2.739070659174558e-08</v>
+        <v>0.001125923707149923</v>
       </c>
       <c r="CN11" t="n">
-        <v>1.376095326577342e-08</v>
+        <v>0.0005301045021042228</v>
       </c>
       <c r="CO11" t="n">
-        <v>5.11434317118642e-09</v>
+        <v>0.0002450190950185061</v>
       </c>
       <c r="CP11" t="n">
-        <v>3.658073666201744e-08</v>
+        <v>0.008196072652935982</v>
       </c>
       <c r="CQ11" t="n">
-        <v>4.582872747960209e-08</v>
+        <v>0.0006224026437848806</v>
       </c>
       <c r="CR11" t="n">
-        <v>4.157966060347462e-08</v>
+        <v>0.001363616436719894</v>
       </c>
       <c r="CS11" t="n">
-        <v>4.116321505875931e-08</v>
+        <v>0.009520268999040127</v>
       </c>
       <c r="CT11" t="n">
-        <v>5.582183604246893e-08</v>
+        <v>0.002428460167720914</v>
       </c>
       <c r="CU11" t="n">
-        <v>3.818007598965778e-08</v>
+        <v>0.006878321059048176</v>
       </c>
       <c r="CV11" t="n">
-        <v>1.49830192697209e-09</v>
+        <v>0.0004871436394751072</v>
       </c>
       <c r="CW11" t="n">
-        <v>1.033963314966968e-08</v>
+        <v>0.003313706489279866</v>
       </c>
       <c r="CX11" t="n">
-        <v>3.609433196771761e-09</v>
+        <v>0.001300782896578312</v>
       </c>
       <c r="CY11" t="n">
-        <v>1.414875772098867e-09</v>
+        <v>0.0001462994841858745</v>
       </c>
       <c r="CZ11" t="n">
-        <v>4.434458578117528e-09</v>
+        <v>0.0006148382090032101</v>
       </c>
       <c r="DA11" t="n">
-        <v>5.011464132564925e-09</v>
+        <v>0.000307023903587833</v>
       </c>
       <c r="DB11" t="n">
-        <v>1.467609322958197e-08</v>
+        <v>0.001843409263528883</v>
       </c>
       <c r="DC11" t="n">
-        <v>9.443161808064815e-09</v>
+        <v>0.004606011789292097</v>
       </c>
       <c r="DD11" t="n">
-        <v>2.775160101720076e-09</v>
+        <v>0.001970495795831084</v>
       </c>
       <c r="DE11" t="n">
-        <v>4.024494515419974e-08</v>
+        <v>0.01072893384844065</v>
       </c>
       <c r="DF11" t="n">
-        <v>2.621615813325207e-08</v>
+        <v>0.01110876724123955</v>
       </c>
       <c r="DG11" t="n">
-        <v>2.304656376850289e-08</v>
+        <v>0.0001996285282075405</v>
       </c>
       <c r="DH11" t="n">
-        <v>2.540765109415588e-08</v>
+        <v>0.0201503150165081</v>
       </c>
       <c r="DI11" t="n">
-        <v>2.950378963362255e-08</v>
+        <v>0.007071170024573803</v>
       </c>
       <c r="DJ11" t="n">
-        <v>3.472643328450431e-08</v>
+        <v>0.01628063805401325</v>
       </c>
       <c r="DK11" t="n">
-        <v>2.942690713325646e-08</v>
+        <v>0.0007018130272626877</v>
       </c>
       <c r="DL11" t="n">
-        <v>5.881726750089911e-08</v>
+        <v>0.004656302742660046</v>
       </c>
       <c r="DM11" t="n">
-        <v>1.830256657342488e-08</v>
+        <v>0.007017859257757664</v>
       </c>
       <c r="DN11" t="n">
-        <v>2.428725842662516e-08</v>
+        <v>0.002274686703458428</v>
       </c>
       <c r="DO11" t="n">
-        <v>1.61007598364904e-08</v>
+        <v>0.001902920892462134</v>
       </c>
       <c r="DP11" t="n">
-        <v>2.344755500871543e-10</v>
+        <v>0.004698950797319412</v>
       </c>
       <c r="DQ11" t="n">
-        <v>4.01280786377356e-10</v>
+        <v>0.004243539180606604</v>
       </c>
       <c r="DR11" t="n">
-        <v>5.340838882261778e-08</v>
+        <v>0.007891814224421978</v>
       </c>
       <c r="DS11" t="n">
-        <v>6.643324468313949e-08</v>
+        <v>0.001333722379058599</v>
       </c>
       <c r="DT11" t="n">
-        <v>1.720810516303573e-08</v>
+        <v>0.004298956133425236</v>
       </c>
       <c r="DU11" t="n">
-        <v>3.065912679289795e-08</v>
+        <v>0.000174160348251462</v>
       </c>
       <c r="DV11" t="n">
-        <v>1.905967650372986e-08</v>
+        <v>0.003762611420825124</v>
       </c>
       <c r="DW11" t="n">
-        <v>2.330303594533234e-08</v>
+        <v>0.0001671599457040429</v>
       </c>
       <c r="DX11" t="n">
-        <v>1.504145252795297e-08</v>
+        <v>0.0004119708610232919</v>
       </c>
       <c r="DY11" t="n">
-        <v>2.308241064952199e-08</v>
+        <v>0.003608294297009706</v>
       </c>
       <c r="DZ11" t="n">
-        <v>6.34000629773368e-10</v>
+        <v>0.005731252022087574</v>
       </c>
       <c r="EA11" t="n">
-        <v>6.797820084614159e-09</v>
+        <v>0.00746849225834012</v>
       </c>
       <c r="EB11" t="n">
-        <v>1.233179602877499e-08</v>
+        <v>0.004860176704823971</v>
       </c>
       <c r="EC11" t="n">
-        <v>1.160798923649509e-08</v>
+        <v>0.002681996207684278</v>
       </c>
       <c r="ED11" t="n">
-        <v>1.110864999986916e-08</v>
+        <v>0.003104406874626875</v>
       </c>
       <c r="EE11" t="n">
-        <v>7.830579740186749e-09</v>
+        <v>0.006417224649339914</v>
       </c>
       <c r="EF11" t="n">
-        <v>1.226286805433574e-08</v>
+        <v>0.002186978003010154</v>
       </c>
       <c r="EG11" t="n">
-        <v>5.879761566518482e-09</v>
+        <v>0.007772130891680717</v>
       </c>
       <c r="EH11" t="n">
-        <v>1.01531716367731e-08</v>
+        <v>0.0009179529151879251</v>
       </c>
       <c r="EI11" t="n">
-        <v>3.374202961481387e-08</v>
+        <v>0.006279219873249531</v>
       </c>
       <c r="EJ11" t="n">
-        <v>7.029387738555215e-09</v>
+        <v>0.001604735385626554</v>
       </c>
       <c r="EK11" t="n">
-        <v>8.280190755272088e-09</v>
+        <v>0.003888355568051338</v>
       </c>
       <c r="EL11" t="n">
-        <v>3.32362546373588e-08</v>
+        <v>0.0009061651071533561</v>
       </c>
       <c r="EM11" t="n">
-        <v>1.090995915831172e-08</v>
+        <v>0.003229091409593821</v>
       </c>
       <c r="EN11" t="n">
-        <v>9.890000818302269e-09</v>
+        <v>0.003620501607656479</v>
       </c>
       <c r="EO11" t="n">
-        <v>4.092028049740293e-08</v>
+        <v>0.0008426273125223815</v>
       </c>
       <c r="EP11" t="n">
-        <v>1.99786889254483e-08</v>
+        <v>0.002706787781789899</v>
       </c>
       <c r="EQ11" t="n">
-        <v>2.417548605748721e-09</v>
+        <v>0.0003866222687065601</v>
       </c>
       <c r="ER11" t="n">
-        <v>3.130946168994342e-08</v>
+        <v>0.003030731342732906</v>
       </c>
       <c r="ES11" t="n">
-        <v>9.469045103571716e-09</v>
+        <v>0.002137607662007213</v>
       </c>
       <c r="ET11" t="n">
-        <v>2.919235342346838e-08</v>
+        <v>0.003828433807939291</v>
       </c>
       <c r="EU11" t="n">
-        <v>2.620436667655213e-08</v>
+        <v>0.00670969020575285</v>
       </c>
       <c r="EV11" t="n">
-        <v>1.160007467859714e-08</v>
+        <v>0.01384283602237701</v>
       </c>
       <c r="EW11" t="n">
-        <v>1.664352744512598e-08</v>
+        <v>0.0003883135505020618</v>
       </c>
       <c r="EX11" t="n">
-        <v>3.003465476325573e-09</v>
+        <v>0.000233922153711319</v>
       </c>
       <c r="EY11" t="n">
-        <v>1.777958757998022e-08</v>
+        <v>0.003462275257334113</v>
       </c>
       <c r="EZ11" t="n">
-        <v>2.351439043479786e-09</v>
+        <v>0.001092244172468781</v>
       </c>
       <c r="FA11" t="n">
-        <v>3.659703207148368e-09</v>
+        <v>0.001615732442587614</v>
       </c>
       <c r="FB11" t="n">
-        <v>5.116526757831252e-09</v>
+        <v>0.001560353208333254</v>
       </c>
       <c r="FC11" t="n">
-        <v>5.614646525486933e-09</v>
+        <v>0.001915118657052517</v>
       </c>
       <c r="FD11" t="n">
-        <v>1.758584033950683e-08</v>
+        <v>0.004317504819482565</v>
       </c>
       <c r="FE11" t="n">
-        <v>1.49664369786251e-08</v>
+        <v>0.006089545786380768</v>
       </c>
       <c r="FF11" t="n">
-        <v>7.704862525770295e-09</v>
+        <v>0.003545294981449842</v>
       </c>
       <c r="FG11" t="n">
-        <v>1.867973153935054e-08</v>
+        <v>0.005058979149907827</v>
       </c>
       <c r="FH11" t="n">
-        <v>3.590758623772672e-08</v>
+        <v>0.0002328733098693192</v>
       </c>
       <c r="FI11" t="n">
-        <v>2.657116837667672e-08</v>
+        <v>0.001691887155175209</v>
       </c>
       <c r="FJ11" t="n">
-        <v>7.117166855863388e-09</v>
+        <v>0.008696614764630795</v>
       </c>
       <c r="FK11" t="n">
-        <v>3.113759916573144e-08</v>
+        <v>0.0005187491187825799</v>
       </c>
       <c r="FL11" t="n">
-        <v>2.363117879156107e-08</v>
+        <v>0.00154957571066916</v>
       </c>
       <c r="FM11" t="n">
-        <v>1.511062919234973e-08</v>
+        <v>0.005453571677207947</v>
       </c>
       <c r="FN11" t="n">
-        <v>3.752631982933963e-08</v>
+        <v>0.001667248550802469</v>
       </c>
       <c r="FO11" t="n">
-        <v>1.285701412001572e-08</v>
+        <v>0.00204631919041276</v>
       </c>
       <c r="FP11" t="n">
-        <v>1.83723454227902e-08</v>
+        <v>0.003810003399848938</v>
       </c>
       <c r="FQ11" t="n">
-        <v>1.617708988987943e-08</v>
+        <v>0.001002522767521441</v>
       </c>
       <c r="FR11" t="n">
-        <v>2.913547270111394e-08</v>
+        <v>0.006286278367042542</v>
       </c>
       <c r="FS11" t="n">
-        <v>4.612503801126877e-08</v>
+        <v>0.0110482145100832</v>
       </c>
       <c r="FT11" t="n">
-        <v>5.993662455239246e-08</v>
+        <v>0.02401169203221798</v>
       </c>
       <c r="FU11" t="n">
-        <v>1.201058985600412e-08</v>
+        <v>0.007962442003190517</v>
       </c>
       <c r="FV11" t="n">
-        <v>2.947662558483444e-09</v>
+        <v>0.008523828350007534</v>
       </c>
       <c r="FW11" t="n">
-        <v>5.153491500209384e-08</v>
+        <v>0.003804652485996485</v>
       </c>
       <c r="FX11" t="n">
-        <v>2.089104000901898e-09</v>
+        <v>0.0001013199798762798</v>
       </c>
       <c r="FY11" t="n">
-        <v>2.055335990291951e-08</v>
+        <v>0.006026638671755791</v>
       </c>
       <c r="FZ11" t="n">
-        <v>3.136982584805992e-08</v>
+        <v>0.004507407080382109</v>
       </c>
       <c r="GA11" t="n">
-        <v>4.891304250520534e-09</v>
+        <v>0.0005885421996936202</v>
       </c>
       <c r="GB11" t="n">
-        <v>5.797115321115598e-08</v>
+        <v>0.008129718713462353</v>
       </c>
       <c r="GC11" t="n">
-        <v>1.72751679627936e-08</v>
+        <v>0.002303181448951364</v>
       </c>
       <c r="GD11" t="n">
-        <v>3.49935835863846e-09</v>
+        <v>0.006327674724161625</v>
       </c>
       <c r="GE11" t="n">
-        <v>1.521139836313523e-08</v>
+        <v>0.006131755188107491</v>
       </c>
       <c r="GF11" t="n">
-        <v>2.248533625959226e-08</v>
+        <v>0.009684404358267784</v>
       </c>
       <c r="GG11" t="n">
-        <v>4.774893369585698e-09</v>
+        <v>0.004790833219885826</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.357244183708417e-08</v>
+        <v>0.005162819288671017</v>
       </c>
       <c r="B12" t="n">
-        <v>3.365986600556425e-08</v>
+        <v>0.07774706184864044</v>
       </c>
       <c r="C12" t="n">
-        <v>5.885627540891392e-10</v>
+        <v>0.001086618285626173</v>
       </c>
       <c r="D12" t="n">
-        <v>8.323139155663739e-08</v>
+        <v>0.05441339686512947</v>
       </c>
       <c r="E12" t="n">
-        <v>2.912385532738426e-08</v>
+        <v>0.00358432624489069</v>
       </c>
       <c r="F12" t="n">
-        <v>2.027891810030269e-08</v>
+        <v>0.01164890266954899</v>
       </c>
       <c r="G12" t="n">
-        <v>2.142763300128081e-09</v>
+        <v>0.009829085320234299</v>
       </c>
       <c r="H12" t="n">
-        <v>5.675043013297909e-08</v>
+        <v>0.02063377387821674</v>
       </c>
       <c r="I12" t="n">
-        <v>1.865341303641799e-08</v>
+        <v>0.001874582725577056</v>
       </c>
       <c r="J12" t="n">
-        <v>6.668911201046512e-09</v>
+        <v>0.001681547611951828</v>
       </c>
       <c r="K12" t="n">
-        <v>2.611965754795165e-08</v>
+        <v>0.06279429048299789</v>
       </c>
       <c r="L12" t="n">
-        <v>2.102098406453479e-08</v>
+        <v>0.008888130076229572</v>
       </c>
       <c r="M12" t="n">
-        <v>8.895091241356567e-08</v>
+        <v>0.04370496422052383</v>
       </c>
       <c r="N12" t="n">
-        <v>4.65371243763002e-08</v>
+        <v>0.01279903762042522</v>
       </c>
       <c r="O12" t="n">
-        <v>1.068052490893479e-08</v>
+        <v>0.006564459763467312</v>
       </c>
       <c r="P12" t="n">
-        <v>4.686857568714231e-09</v>
+        <v>0.0009109348757192492</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.653403434280335e-08</v>
+        <v>0.004775661509484053</v>
       </c>
       <c r="R12" t="n">
-        <v>9.323516181325431e-09</v>
+        <v>0.005932248197495937</v>
       </c>
       <c r="S12" t="n">
-        <v>4.448280410684902e-09</v>
+        <v>0.003722798777744174</v>
       </c>
       <c r="T12" t="n">
-        <v>8.403025830716615e-09</v>
+        <v>0.01078091189265251</v>
       </c>
       <c r="U12" t="n">
-        <v>1.668337357152438e-09</v>
+        <v>0.003186217276379466</v>
       </c>
       <c r="V12" t="n">
-        <v>1.358379808635846e-08</v>
+        <v>0.006812337785959244</v>
       </c>
       <c r="W12" t="n">
-        <v>3.29411875554797e-08</v>
+        <v>0.009755060076713562</v>
       </c>
       <c r="X12" t="n">
-        <v>1.750022682323049e-09</v>
+        <v>0.0005390716250985861</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.138935055271077e-09</v>
+        <v>0.006136905867606401</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.623031095249644e-09</v>
+        <v>0.01040563359856606</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.751775056239694e-09</v>
+        <v>0.01189470384269953</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.808077243481421e-08</v>
+        <v>0.003321452066302299</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.13090936194294e-10</v>
+        <v>0.01583853922784328</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.278939507746827e-09</v>
+        <v>0.003198884194716811</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.952360939583286e-08</v>
+        <v>0.0075719328597188</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.577298984287381e-09</v>
+        <v>0.008099552243947983</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.718115954536415e-09</v>
+        <v>0.006170153617858887</v>
       </c>
       <c r="AH12" t="n">
-        <v>4.798431429975381e-09</v>
+        <v>0.006703694351017475</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.080889155957721e-08</v>
+        <v>0.003128308802843094</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.213074085626431e-08</v>
+        <v>0.00505468063056469</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.565780476970758e-08</v>
+        <v>0.005936024710536003</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.040986573665805e-09</v>
+        <v>0.007840879261493683</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.137304359692507e-09</v>
+        <v>0.002443694276735187</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.256201056155987e-09</v>
+        <v>0.004912788048386574</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.696971452247453e-08</v>
+        <v>0.009838789701461792</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.388201281178226e-08</v>
+        <v>0.01007937733083963</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.627909166998734e-09</v>
+        <v>0.005879313684999943</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.140451288961231e-09</v>
+        <v>0.004842146765440702</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.439339257838014e-09</v>
+        <v>0.0006920717423781753</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.024140937668562e-08</v>
+        <v>0.004855172242969275</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.553181571191999e-08</v>
+        <v>0.0563230849802494</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.777166680483333e-08</v>
+        <v>0.004433922469615936</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.871975463529907e-08</v>
+        <v>0.009941339492797852</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.173155344564748e-08</v>
+        <v>0.01050978899002075</v>
       </c>
       <c r="AY12" t="n">
-        <v>2.539452204075587e-09</v>
+        <v>0.002260185545310378</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4.818004217810312e-09</v>
+        <v>0.001340650720521808</v>
       </c>
       <c r="BA12" t="n">
-        <v>2.109501906488731e-08</v>
+        <v>0.001896116300486028</v>
       </c>
       <c r="BB12" t="n">
-        <v>6.245984174313435e-09</v>
+        <v>0.0002041421248577535</v>
       </c>
       <c r="BC12" t="n">
-        <v>3.419312388786011e-09</v>
+        <v>0.01683665066957474</v>
       </c>
       <c r="BD12" t="n">
-        <v>9.998814221034991e-09</v>
+        <v>0.01311837509274483</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.1258514120982e-08</v>
+        <v>0.01386342756450176</v>
       </c>
       <c r="BF12" t="n">
-        <v>3.239156143308719e-08</v>
+        <v>0.006163192912936211</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.359261947442292e-08</v>
+        <v>0.01704689301550388</v>
       </c>
       <c r="BH12" t="n">
-        <v>2.106132512835757e-08</v>
+        <v>0.008795308880507946</v>
       </c>
       <c r="BI12" t="n">
-        <v>8.70141558806381e-09</v>
+        <v>0.008226598612964153</v>
       </c>
       <c r="BJ12" t="n">
-        <v>9.507296283572941e-09</v>
+        <v>0.008076619356870651</v>
       </c>
       <c r="BK12" t="n">
-        <v>8.725002054177367e-09</v>
+        <v>0.0009626965038478374</v>
       </c>
       <c r="BL12" t="n">
-        <v>7.836760129720233e-10</v>
+        <v>0.01094417832791805</v>
       </c>
       <c r="BM12" t="n">
-        <v>2.372420127016994e-08</v>
+        <v>0.01128753274679184</v>
       </c>
       <c r="BN12" t="n">
-        <v>2.573697699403965e-09</v>
+        <v>0.00682999799028039</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.699785912023799e-08</v>
+        <v>0.003769969567656517</v>
       </c>
       <c r="BP12" t="n">
-        <v>8.39901215243799e-09</v>
+        <v>0.01391876768320799</v>
       </c>
       <c r="BQ12" t="n">
-        <v>9.408143597511298e-09</v>
+        <v>0.007228078320622444</v>
       </c>
       <c r="BR12" t="n">
-        <v>7.374349131339386e-09</v>
+        <v>0.00249431561678648</v>
       </c>
       <c r="BS12" t="n">
-        <v>6.023939569388403e-09</v>
+        <v>0.006548880599439144</v>
       </c>
       <c r="BT12" t="n">
-        <v>3.849057517157917e-09</v>
+        <v>0.00581548735499382</v>
       </c>
       <c r="BU12" t="n">
-        <v>2.917723840312192e-08</v>
+        <v>0.005898383446037769</v>
       </c>
       <c r="BV12" t="n">
-        <v>9.791177646434335e-09</v>
+        <v>0.03094033896923065</v>
       </c>
       <c r="BW12" t="n">
-        <v>5.114956014296013e-09</v>
+        <v>0.000853453588206321</v>
       </c>
       <c r="BX12" t="n">
-        <v>4.95619119078583e-08</v>
+        <v>0.006518667098134756</v>
       </c>
       <c r="BY12" t="n">
-        <v>9.706789150243367e-09</v>
+        <v>0.007663335651159286</v>
       </c>
       <c r="BZ12" t="n">
-        <v>7.011767610975994e-09</v>
+        <v>0.006676372140645981</v>
       </c>
       <c r="CA12" t="n">
-        <v>4.055944913261555e-09</v>
+        <v>0.002017079154029489</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.553737938309041e-08</v>
+        <v>0.005615847185254097</v>
       </c>
       <c r="CC12" t="n">
-        <v>1.394680726463093e-08</v>
+        <v>0.01166645251214504</v>
       </c>
       <c r="CD12" t="n">
-        <v>1.332583821067601e-08</v>
+        <v>0.003253459930419922</v>
       </c>
       <c r="CE12" t="n">
-        <v>7.023299275488171e-09</v>
+        <v>0.01416050083935261</v>
       </c>
       <c r="CF12" t="n">
-        <v>3.830435968410484e-09</v>
+        <v>0.003411876270547509</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.69871068322891e-08</v>
+        <v>0.005278118420392275</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.023247708786812e-08</v>
+        <v>0.004368361551314592</v>
       </c>
       <c r="CI12" t="n">
-        <v>6.491967408095434e-09</v>
+        <v>0.002863259520381689</v>
       </c>
       <c r="CJ12" t="n">
-        <v>5.555189641626157e-10</v>
+        <v>0.005325521808117628</v>
       </c>
       <c r="CK12" t="n">
-        <v>1.399922222589112e-08</v>
+        <v>0.003267012070864439</v>
       </c>
       <c r="CL12" t="n">
-        <v>4.632358496792222e-09</v>
+        <v>0.002840069122612476</v>
       </c>
       <c r="CM12" t="n">
-        <v>7.952360547847093e-09</v>
+        <v>0.02007104083895683</v>
       </c>
       <c r="CN12" t="n">
-        <v>2.704172175072017e-08</v>
+        <v>0.009973281063139439</v>
       </c>
       <c r="CO12" t="n">
-        <v>2.238282448274731e-08</v>
+        <v>0.004732572473585606</v>
       </c>
       <c r="CP12" t="n">
-        <v>2.756746475540695e-08</v>
+        <v>0.02007674239575863</v>
       </c>
       <c r="CQ12" t="n">
-        <v>1.751702782826214e-08</v>
+        <v>0.01562962122261524</v>
       </c>
       <c r="CR12" t="n">
-        <v>2.535290200000873e-08</v>
+        <v>0.01665357127785683</v>
       </c>
       <c r="CS12" t="n">
-        <v>8.599554401911291e-10</v>
+        <v>0.01646506413817406</v>
       </c>
       <c r="CT12" t="n">
-        <v>1.83149655441639e-08</v>
+        <v>0.02013462223112583</v>
       </c>
       <c r="CU12" t="n">
-        <v>1.954195560927019e-08</v>
+        <v>0.0004147113359067589</v>
       </c>
       <c r="CV12" t="n">
-        <v>1.465502741382352e-08</v>
+        <v>0.004215463995933533</v>
       </c>
       <c r="CW12" t="n">
-        <v>1.354641376849486e-08</v>
+        <v>0.0108760166913271</v>
       </c>
       <c r="CX12" t="n">
-        <v>5.272906555831014e-10</v>
+        <v>0.006304340902715921</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.564291984834654e-08</v>
+        <v>0.008975399658083916</v>
       </c>
       <c r="CZ12" t="n">
-        <v>1.007441330358461e-08</v>
+        <v>0.004812882281839848</v>
       </c>
       <c r="DA12" t="n">
-        <v>5.488920429286281e-09</v>
+        <v>0.002363878767937422</v>
       </c>
       <c r="DB12" t="n">
-        <v>3.507502732702505e-09</v>
+        <v>0.005915314424782991</v>
       </c>
       <c r="DC12" t="n">
-        <v>1.323368081784793e-08</v>
+        <v>0.005387183744460344</v>
       </c>
       <c r="DD12" t="n">
-        <v>7.605734708704404e-09</v>
+        <v>0.001115404535084963</v>
       </c>
       <c r="DE12" t="n">
-        <v>3.917570268185955e-08</v>
+        <v>0.004741198848932981</v>
       </c>
       <c r="DF12" t="n">
-        <v>2.479465699423145e-08</v>
+        <v>0.01138511206954718</v>
       </c>
       <c r="DG12" t="n">
-        <v>3.246384494559607e-08</v>
+        <v>0.0009543765336275101</v>
       </c>
       <c r="DH12" t="n">
-        <v>6.676534880512008e-09</v>
+        <v>0.0267860684543848</v>
       </c>
       <c r="DI12" t="n">
-        <v>1.203795374493666e-08</v>
+        <v>0.0002481780829839408</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1.432730112327363e-08</v>
+        <v>0.006985010113567114</v>
       </c>
       <c r="DK12" t="n">
-        <v>1.58305706321471e-08</v>
+        <v>0.01106463745236397</v>
       </c>
       <c r="DL12" t="n">
-        <v>2.425395884131376e-08</v>
+        <v>0.005221820436418056</v>
       </c>
       <c r="DM12" t="n">
-        <v>8.483297619932273e-09</v>
+        <v>0.001029689097777009</v>
       </c>
       <c r="DN12" t="n">
-        <v>4.069137915507781e-09</v>
+        <v>0.002752978820353746</v>
       </c>
       <c r="DO12" t="n">
-        <v>2.916754837656299e-09</v>
+        <v>0.003071294166147709</v>
       </c>
       <c r="DP12" t="n">
-        <v>6.909127936438608e-09</v>
+        <v>0.006539714056998491</v>
       </c>
       <c r="DQ12" t="n">
-        <v>1.462323240275509e-08</v>
+        <v>0.0002345937537029386</v>
       </c>
       <c r="DR12" t="n">
-        <v>2.053095027321206e-09</v>
+        <v>0.01023128721863031</v>
       </c>
       <c r="DS12" t="n">
-        <v>1.338965827102356e-08</v>
+        <v>0.009709790349006653</v>
       </c>
       <c r="DT12" t="n">
-        <v>1.000075844359571e-08</v>
+        <v>0.0009020162979140878</v>
       </c>
       <c r="DU12" t="n">
-        <v>4.22285895140817e-09</v>
+        <v>0.004451264161616564</v>
       </c>
       <c r="DV12" t="n">
-        <v>2.409295163374736e-08</v>
+        <v>0.00540497899055481</v>
       </c>
       <c r="DW12" t="n">
-        <v>1.058354959226904e-09</v>
+        <v>0.004529659170657396</v>
       </c>
       <c r="DX12" t="n">
-        <v>1.256421455764212e-08</v>
+        <v>0.002175256377086043</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.187587184148242e-08</v>
+        <v>0.007098990492522717</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1.492381684897737e-08</v>
+        <v>0.001066537108272314</v>
       </c>
       <c r="EA12" t="n">
-        <v>8.293090658639812e-09</v>
+        <v>0.001944878371432424</v>
       </c>
       <c r="EB12" t="n">
-        <v>4.402848752249611e-09</v>
+        <v>0.001226095715537667</v>
       </c>
       <c r="EC12" t="n">
-        <v>1.175200381453578e-08</v>
+        <v>0.002980661578476429</v>
       </c>
       <c r="ED12" t="n">
-        <v>2.105382979067372e-09</v>
+        <v>0.002384447026997805</v>
       </c>
       <c r="EE12" t="n">
-        <v>1.499299173701729e-08</v>
+        <v>0.001100036199204624</v>
       </c>
       <c r="EF12" t="n">
-        <v>1.869944910026788e-08</v>
+        <v>0.0002201646566390991</v>
       </c>
       <c r="EG12" t="n">
-        <v>1.064459986821475e-08</v>
+        <v>0.008278915658593178</v>
       </c>
       <c r="EH12" t="n">
-        <v>3.678419790986709e-09</v>
+        <v>0.005381624214351177</v>
       </c>
       <c r="EI12" t="n">
-        <v>2.05155963328707e-08</v>
+        <v>0.005919369868934155</v>
       </c>
       <c r="EJ12" t="n">
-        <v>7.277923597115432e-09</v>
+        <v>0.007982298731803894</v>
       </c>
       <c r="EK12" t="n">
-        <v>1.199327037681996e-08</v>
+        <v>8.204288315027952e-05</v>
       </c>
       <c r="EL12" t="n">
-        <v>2.038224033995562e-09</v>
+        <v>0.004630856215953827</v>
       </c>
       <c r="EM12" t="n">
-        <v>9.274276457915676e-09</v>
+        <v>0.0008888444863259792</v>
       </c>
       <c r="EN12" t="n">
-        <v>1.689355766387735e-09</v>
+        <v>0.003955799620598555</v>
       </c>
       <c r="EO12" t="n">
-        <v>5.469799280177767e-09</v>
+        <v>0.0006084069609642029</v>
       </c>
       <c r="EP12" t="n">
-        <v>8.002059459499833e-09</v>
+        <v>0.01078957878053188</v>
       </c>
       <c r="EQ12" t="n">
-        <v>4.927966923418126e-09</v>
+        <v>0.004311901982873678</v>
       </c>
       <c r="ER12" t="n">
-        <v>1.083044764982333e-09</v>
+        <v>0.009080653078854084</v>
       </c>
       <c r="ES12" t="n">
-        <v>6.249793571555529e-09</v>
+        <v>0.0003792662173509598</v>
       </c>
       <c r="ET12" t="n">
-        <v>1.291764561983655e-08</v>
+        <v>0.01208813302218914</v>
       </c>
       <c r="EU12" t="n">
-        <v>1.228437129796589e-09</v>
+        <v>0.01181371696293354</v>
       </c>
       <c r="EV12" t="n">
-        <v>9.843180492907777e-09</v>
+        <v>0.009547595866024494</v>
       </c>
       <c r="EW12" t="n">
-        <v>1.288353601580638e-08</v>
+        <v>0.002250329591333866</v>
       </c>
       <c r="EX12" t="n">
-        <v>1.210400579765292e-08</v>
+        <v>0.002155648777261376</v>
       </c>
       <c r="EY12" t="n">
-        <v>9.51212708599769e-09</v>
+        <v>0.01157635357230902</v>
       </c>
       <c r="EZ12" t="n">
-        <v>3.919921609529808e-10</v>
+        <v>0.003832676680758595</v>
       </c>
       <c r="FA12" t="n">
-        <v>1.17882077432796e-08</v>
+        <v>0.008753322064876556</v>
       </c>
       <c r="FB12" t="n">
-        <v>9.31273813620237e-09</v>
+        <v>0.002594696125015616</v>
       </c>
       <c r="FC12" t="n">
-        <v>5.981325656989611e-09</v>
+        <v>0.001211509690620005</v>
       </c>
       <c r="FD12" t="n">
-        <v>1.01734598523251e-09</v>
+        <v>0.006529228296130896</v>
       </c>
       <c r="FE12" t="n">
-        <v>8.596095391055769e-09</v>
+        <v>0.003979197237640619</v>
       </c>
       <c r="FF12" t="n">
-        <v>4.281551113649584e-09</v>
+        <v>0.00260121189057827</v>
       </c>
       <c r="FG12" t="n">
-        <v>1.807115346252886e-08</v>
+        <v>0.00235511502251029</v>
       </c>
       <c r="FH12" t="n">
-        <v>1.308292496560171e-08</v>
+        <v>0.005913644097745419</v>
       </c>
       <c r="FI12" t="n">
-        <v>1.204414079580829e-08</v>
+        <v>0.006865194067358971</v>
       </c>
       <c r="FJ12" t="n">
-        <v>5.863039831410788e-09</v>
+        <v>0.009098945185542107</v>
       </c>
       <c r="FK12" t="n">
-        <v>2.442096835864049e-08</v>
+        <v>0.002416023518890142</v>
       </c>
       <c r="FL12" t="n">
-        <v>1.624761836183097e-08</v>
+        <v>0.008706581778824329</v>
       </c>
       <c r="FM12" t="n">
-        <v>1.052964604397744e-09</v>
+        <v>0.002205409109592438</v>
       </c>
       <c r="FN12" t="n">
-        <v>1.927083559394305e-08</v>
+        <v>0.004087039735168219</v>
       </c>
       <c r="FO12" t="n">
-        <v>9.469757422664316e-09</v>
+        <v>0.002963775070384145</v>
       </c>
       <c r="FP12" t="n">
-        <v>1.454166675962654e-09</v>
+        <v>0.006181529257446527</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.404665894710888e-08</v>
+        <v>0.002166518941521645</v>
       </c>
       <c r="FR12" t="n">
-        <v>1.782853331633305e-08</v>
+        <v>0.02274350821971893</v>
       </c>
       <c r="FS12" t="n">
-        <v>2.440241786416664e-09</v>
+        <v>0.01098714116960764</v>
       </c>
       <c r="FT12" t="n">
-        <v>2.601786164291298e-08</v>
+        <v>0.0117512010037899</v>
       </c>
       <c r="FU12" t="n">
-        <v>2.031693391302269e-08</v>
+        <v>0.004406608641147614</v>
       </c>
       <c r="FV12" t="n">
-        <v>1.027787632779109e-08</v>
+        <v>0.009499370120465755</v>
       </c>
       <c r="FW12" t="n">
-        <v>2.013035427239629e-08</v>
+        <v>0.001436852384358644</v>
       </c>
       <c r="FX12" t="n">
-        <v>7.687523506660909e-09</v>
+        <v>0.001823825179599226</v>
       </c>
       <c r="FY12" t="n">
-        <v>1.335385046985493e-08</v>
+        <v>0.005898008123040199</v>
       </c>
       <c r="FZ12" t="n">
-        <v>2.818486599664993e-08</v>
+        <v>0.001638937974348664</v>
       </c>
       <c r="GA12" t="n">
-        <v>6.560628929008772e-09</v>
+        <v>0.002572251483798027</v>
       </c>
       <c r="GB12" t="n">
-        <v>4.837478861929867e-09</v>
+        <v>0.0002250677353003994</v>
       </c>
       <c r="GC12" t="n">
-        <v>2.505490215298778e-08</v>
+        <v>0.002935422118753195</v>
       </c>
       <c r="GD12" t="n">
-        <v>7.777484434257076e-09</v>
+        <v>0.0136149674654007</v>
       </c>
       <c r="GE12" t="n">
-        <v>4.584759238923652e-09</v>
+        <v>0.03602393716573715</v>
       </c>
       <c r="GF12" t="n">
-        <v>1.724947118475484e-08</v>
+        <v>0.004150158725678921</v>
       </c>
       <c r="GG12" t="n">
-        <v>1.033472529776702e-09</v>
+        <v>0.004616071470081806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.02084945328533649</v>
+        <v>0.07984907180070877</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6441519260406494</v>
+        <v>0.1313178837299347</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05868387222290039</v>
+        <v>0.01280645187944174</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6069474220275879</v>
+        <v>0.1059830263257027</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2450541257858276</v>
+        <v>0.1893638223409653</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06689035892486572</v>
+        <v>0.4287547767162323</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09047432988882065</v>
+        <v>0.01905406638979912</v>
       </c>
       <c r="H13" t="n">
-        <v>0.005996795371174812</v>
+        <v>0.2626330256462097</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01258922275155783</v>
+        <v>0.02335195429623127</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03761070594191551</v>
+        <v>0.01697497814893723</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7248719334602356</v>
+        <v>0.1822905242443085</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04009776562452316</v>
+        <v>0.04317759722471237</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4205583930015564</v>
+        <v>0.01753582060337067</v>
       </c>
       <c r="N13" t="n">
-        <v>0.003449545707553625</v>
+        <v>0.05838420242071152</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01265372429043055</v>
+        <v>0.3256110548973083</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0129392072558403</v>
+        <v>0.0406917929649353</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.03811974078416824</v>
+        <v>0.2317993193864822</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05853353068232536</v>
+        <v>0.01060920301824808</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01205284148454666</v>
+        <v>0.02610969357192516</v>
       </c>
       <c r="T13" t="n">
-        <v>0.07395036518573761</v>
+        <v>0.02934281155467033</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02146881818771362</v>
+        <v>0.004352718591690063</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1205228716135025</v>
+        <v>0.01563965156674385</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3033721148967743</v>
+        <v>0.176562562584877</v>
       </c>
       <c r="X13" t="n">
-        <v>0.04239430651068687</v>
+        <v>0.05387311056256294</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1166588962078094</v>
+        <v>0.03218524158000946</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02184344828128815</v>
+        <v>0.03135230764746666</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.06241361424326897</v>
+        <v>0.01233166269958019</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.003125928342342377</v>
+        <v>0.001238568685948849</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0500636100769043</v>
+        <v>0.03832683339715004</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01857836171984673</v>
+        <v>0.01935972273349762</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.2547551095485687</v>
+        <v>0.002316227182745934</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.08925992995500565</v>
+        <v>0.01202598959207535</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.08593340963125229</v>
+        <v>0.03141993656754494</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.04086458683013916</v>
+        <v>0.03488952293992043</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.06540079414844513</v>
+        <v>0.06941112130880356</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.08562231063842773</v>
+        <v>0.01682641357183456</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.1275332868099213</v>
+        <v>0.004436028189957142</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.08654718101024628</v>
+        <v>0.008799322880804539</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.05769567564129829</v>
+        <v>0.01755320839583874</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.005511507391929626</v>
+        <v>0.01783983409404755</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.06929238140583038</v>
+        <v>0.01307032629847527</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.02247544378042221</v>
+        <v>0.01002466678619385</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.01114366482943296</v>
+        <v>0.01110009755939245</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.001642263378016651</v>
+        <v>0.05577702075242996</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.01386129204183817</v>
+        <v>0.003252721391618252</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1308156549930573</v>
+        <v>0.0391525998711586</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.4406582713127136</v>
+        <v>0.03680342435836792</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.03117622993886471</v>
+        <v>0.005380358546972275</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.06216537207365036</v>
+        <v>0.1489124596118927</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.04206901416182518</v>
+        <v>0.2063462138175964</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.01083714514970779</v>
+        <v>0.2685928344726562</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.1235025823116302</v>
+        <v>0.05534648150205612</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.08414394408464432</v>
+        <v>0.02568520978093147</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.002236107364296913</v>
+        <v>0.02207320742309093</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.04312313348054886</v>
+        <v>0.06069327890872955</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.1244813799858093</v>
+        <v>0.07410114258527756</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.01163973845541477</v>
+        <v>0.02185932733118534</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.2579437494277954</v>
+        <v>0.05744060873985291</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.05655257031321526</v>
+        <v>0.008257737383246422</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.09335889667272568</v>
+        <v>0.04786355420947075</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.04867104440927505</v>
+        <v>0.03277724236249924</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0110255591571331</v>
+        <v>0.111870214343071</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.08264406770467758</v>
+        <v>0.0201856829226017</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.003913894295692444</v>
+        <v>0.01742635481059551</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0953923836350441</v>
+        <v>0.0125146321952343</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.03424182906746864</v>
+        <v>0.006494540721178055</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.08437339961528778</v>
+        <v>0.1459596455097198</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0302977729588747</v>
+        <v>0.05954015254974365</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.115608848631382</v>
+        <v>0.01850247941911221</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.08510266989469528</v>
+        <v>0.01704724133014679</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.07495205104351044</v>
+        <v>0.09097295999526978</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.007850466296076775</v>
+        <v>0.009711407124996185</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.1378242820501328</v>
+        <v>0.001695211743935943</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.102362722158432</v>
+        <v>0.03386001661419868</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0999627485871315</v>
+        <v>0.01469942182302475</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.1471257507801056</v>
+        <v>0.09721613675355911</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.02074216306209564</v>
+        <v>0.1016914397478104</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.09334975481033325</v>
+        <v>0.2124709486961365</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.07632309198379517</v>
+        <v>0.05133181810379028</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.02103987522423267</v>
+        <v>0.009814415127038956</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.05931124091148376</v>
+        <v>0.01804773509502411</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.09202656894922256</v>
+        <v>0.009551852010190487</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.14704529941082</v>
+        <v>0.005809896625578403</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.03516148030757904</v>
+        <v>0.01359759178012609</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.09677703678607941</v>
+        <v>0.00265734875574708</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.02631018683314323</v>
+        <v>0.05491247773170471</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.05073447525501251</v>
+        <v>0.08032988011837006</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.01653001457452774</v>
+        <v>0.02717622742056847</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.008226433768868446</v>
+        <v>0.04739788919687271</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.01298034191131592</v>
+        <v>0.001656370237469673</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.08970983326435089</v>
+        <v>0.0005665298085659742</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.07254648208618164</v>
+        <v>0.07689189910888672</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.05908124148845673</v>
+        <v>0.03656475245952606</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.007836688309907913</v>
+        <v>0.07758799195289612</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1498239934444427</v>
+        <v>0.1110090091824532</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.1741386651992798</v>
+        <v>0.06455405056476593</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.07954853028059006</v>
+        <v>0.07948438078165054</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.038578812032938</v>
+        <v>0.0927603542804718</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.02237695455551147</v>
+        <v>0.01365331374108791</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.08130064606666565</v>
+        <v>0.01141815353184938</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.1327182352542877</v>
+        <v>0.01353009417653084</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.03301222249865532</v>
+        <v>0.01263293903321028</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.1143103688955307</v>
+        <v>0.004024934489279985</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.02298027463257313</v>
+        <v>0.04548400267958641</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.03806449845433235</v>
+        <v>0.08634717017412186</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.01299658603966236</v>
+        <v>0.009873004630208015</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.02219288796186447</v>
+        <v>0.03821878880262375</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.00929628498852253</v>
+        <v>0.01912901178002357</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.08427306264638901</v>
+        <v>0.09478403627872467</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.2002250850200653</v>
+        <v>0.03971359133720398</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.04105475917458534</v>
+        <v>0.01626895368099213</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.003880909644067287</v>
+        <v>0.1705837845802307</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.1690244674682617</v>
+        <v>0.004438461735844612</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.06594701111316681</v>
+        <v>0.0670275092124939</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.111210897564888</v>
+        <v>0.07188808917999268</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.2028142958879471</v>
+        <v>0.03448888659477234</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.01823059841990471</v>
+        <v>0.05945127829909325</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.09889696538448334</v>
+        <v>0.07453681528568268</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.06043154746294022</v>
+        <v>0.04992692917585373</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.006397556513547897</v>
+        <v>0.02094865590333939</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.00193825364112854</v>
+        <v>0.003817204385995865</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.1557666212320328</v>
+        <v>0.1049003973603249</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.03085397370159626</v>
+        <v>0.1148869916796684</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.02274302765727043</v>
+        <v>0.08216360211372375</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.04079313948750496</v>
+        <v>0.02263748459517956</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.02588354609906673</v>
+        <v>0.02100412733852863</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.07128874212503433</v>
+        <v>0.002497170818969607</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.01135626621544361</v>
+        <v>0.04324372857809067</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.039139524102211</v>
+        <v>0.02807883732020855</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.07425680011510849</v>
+        <v>0.04907479137182236</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0004095472395420074</v>
+        <v>0.07633250206708908</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.05332324281334877</v>
+        <v>0.05605126172304153</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.01168006472289562</v>
+        <v>0.0339653342962265</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.06189608201384544</v>
+        <v>0.02647986635565758</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0244550034403801</v>
+        <v>0.04426342621445656</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.09560168534517288</v>
+        <v>0.004130061715841293</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.1528875529766083</v>
+        <v>0.05077999830245972</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.097201868891716</v>
+        <v>0.03934148699045181</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.2343347519636154</v>
+        <v>0.06889879703521729</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.1667606383562088</v>
+        <v>0.03561136871576309</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.06113984808325768</v>
+        <v>0.05237539112567902</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.05962760746479034</v>
+        <v>2.900324761867523e-05</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.02827444858849049</v>
+        <v>0.03211187943816185</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.04744047299027443</v>
+        <v>0.01258417218923569</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.06972317397594452</v>
+        <v>0.04651117324829102</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.06142635643482208</v>
+        <v>0.004381501115858555</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.04733932763338089</v>
+        <v>0.006607882678508759</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.05942534655332565</v>
+        <v>0.05667536333203316</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.0623149573802948</v>
+        <v>0.05169834196567535</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.04628564417362213</v>
+        <v>0.00487663596868515</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.007068179547786713</v>
+        <v>0.01087648421525955</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.002348153386265039</v>
+        <v>0.1771194338798523</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.06276672333478928</v>
+        <v>0.05108082666993141</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.07691496610641479</v>
+        <v>0.02157711423933506</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.1404496133327484</v>
+        <v>0.009530059993267059</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0212103184312582</v>
+        <v>0.004751275293529034</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.1176625490188599</v>
+        <v>0.001818065764382482</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.005591504275798798</v>
+        <v>0.06244246661663055</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.04699008539319038</v>
+        <v>0.07159742712974548</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.02560342475771904</v>
+        <v>0.02629301324486732</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.02602875232696533</v>
+        <v>0.05112831294536591</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.006964307278394699</v>
+        <v>0.01307496055960655</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.01880050078034401</v>
+        <v>0.04252658039331436</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.113904096186161</v>
+        <v>0.01115363463759422</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.05492335930466652</v>
+        <v>0.000405140221118927</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.1288605332374573</v>
+        <v>0.1313239634037018</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.03691795095801353</v>
+        <v>0.03843730315566063</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.09642369300127029</v>
+        <v>0.005143330432474613</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0225075725466013</v>
+        <v>0.01301715895533562</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.02725870534777641</v>
+        <v>0.0253559835255146</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.1148905828595161</v>
+        <v>0.0229883436113596</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.09338855743408203</v>
+        <v>0.02002113871276379</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.04678649082779884</v>
+        <v>0.1780639737844467</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.07761479914188385</v>
+        <v>0.02878568693995476</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0516788437962532</v>
+        <v>0.01605141721665859</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.00965074822306633</v>
+        <v>0.2540574967861176</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.07922881096601486</v>
+        <v>0.05167762935161591</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.05016389116644859</v>
+        <v>0.04705264046788216</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.06515295803546906</v>
+        <v>0.1542165726423264</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.01162056811153889</v>
+        <v>0.06768960505723953</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.09274749457836151</v>
+        <v>0.03723413869738579</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.02854283899068832</v>
+        <v>0.1005433574318886</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0342010073363781</v>
+        <v>0.00622502388432622</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.06377501785755157</v>
+        <v>0.04713339731097221</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.05187549442052841</v>
+        <v>0.1191584467887878</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.002689719898626208</v>
+        <v>0.01896688528358936</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.1032815277576447</v>
+        <v>0.08027587831020355</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.1184041649103165</v>
+        <v>0.05921689420938492</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.06148634478449821</v>
+        <v>0.008724368177354336</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.001592204323969781</v>
+        <v>0.002049851231276989</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00100043136626482</v>
+        <v>0.001804561004973948</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001241483842022717</v>
+        <v>0.001227384665980935</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003930320963263512</v>
+        <v>0.00995166040956974</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0003842339210677892</v>
+        <v>0.001813392038457096</v>
       </c>
       <c r="F14" t="n">
-        <v>2.746686368482187e-05</v>
+        <v>0.004038434941321611</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0004299964348319918</v>
+        <v>0.001355163985863328</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001305977231822908</v>
+        <v>0.006221694406121969</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001884023891761899</v>
+        <v>9.410228813067079e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001143768546171486</v>
+        <v>0.004632493015378714</v>
       </c>
       <c r="K14" t="n">
-        <v>0.000704768521245569</v>
+        <v>0.002159595489501953</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001719853957183659</v>
+        <v>0.001885853824205697</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00432898523285985</v>
+        <v>0.006316752173006535</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001351585029624403</v>
+        <v>0.001749851973727345</v>
       </c>
       <c r="O14" t="n">
-        <v>0.000696316477842629</v>
+        <v>0.0002608024224173278</v>
       </c>
       <c r="P14" t="n">
-        <v>1.037346373777837e-05</v>
+        <v>0.002767553087323904</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.002066775690764189</v>
+        <v>0.0008389904396608472</v>
       </c>
       <c r="R14" t="n">
-        <v>0.001076819607988</v>
+        <v>0.004966915119439363</v>
       </c>
       <c r="S14" t="n">
-        <v>3.778637255891226e-05</v>
+        <v>0.0001450438285246491</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0001135238562710583</v>
+        <v>0.0002581378212198615</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0001482997904531658</v>
+        <v>0.001901428448036313</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0009601563797332346</v>
+        <v>0.0007059037452563643</v>
       </c>
       <c r="W14" t="n">
-        <v>0.00111610721796751</v>
+        <v>0.0008604481117799878</v>
       </c>
       <c r="X14" t="n">
-        <v>6.375910015776753e-05</v>
+        <v>0.00111133698374033</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0002865492133423686</v>
+        <v>0.001472016330808401</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0001287777995457873</v>
+        <v>0.0005138835404068232</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0001808149390853941</v>
+        <v>0.001719102961942554</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0003499657323118299</v>
+        <v>0.003808527253568172</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0001541552919661626</v>
+        <v>0.006058420985937119</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0003206796245649457</v>
+        <v>0.0001666978059802204</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0005895433714613318</v>
+        <v>0.001901664538308978</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.000112399342469871</v>
+        <v>0.0005380657385103405</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0001093788596335799</v>
+        <v>0.003064497373998165</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.0003836200921796262</v>
+        <v>0.001455782330594957</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.0005167381023056805</v>
+        <v>0.001487283734604716</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4.317334969528019e-06</v>
+        <v>0.0008862551185302436</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.0003631301806308329</v>
+        <v>0.0007733392994850874</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.304486982524395e-05</v>
+        <v>0.0001435635203961283</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0002628474612720311</v>
+        <v>0.0001057950867107138</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.001110963057726622</v>
+        <v>0.0002278174797538668</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0005586850456893444</v>
+        <v>0.002120885299518704</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.001415712176822126</v>
+        <v>0.001966724870726466</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0004105192783754319</v>
+        <v>0.002232299419119954</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.0008937204838730395</v>
+        <v>0.0003359437978360802</v>
       </c>
       <c r="AS14" t="n">
-        <v>6.871797086205333e-05</v>
+        <v>0.001325168297626078</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.0008608124917373061</v>
+        <v>0.001419164822436869</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.000621768762357533</v>
+        <v>0.004922333639115095</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0003129970864392817</v>
+        <v>0.004170607775449753</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.001578404800966382</v>
+        <v>0.004594468511641026</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0002629647788126022</v>
+        <v>0.004756365902721882</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.0007299312273971736</v>
+        <v>0.001345184398815036</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.001620969967916608</v>
+        <v>0.001673536491580307</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.001280265278182924</v>
+        <v>0.002622790168970823</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.001439719810150564</v>
+        <v>0.001269537024199963</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.000229166354984045</v>
+        <v>0.004980246536433697</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.097859058063477e-05</v>
+        <v>0.004340349696576595</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.00127351051196456</v>
+        <v>0.001597003079950809</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.001356228953227401</v>
+        <v>0.00157927384134382</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.001246713334694505</v>
+        <v>0.002953311195597053</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.0005788406124338508</v>
+        <v>0.001537294359877706</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.0005056944210082293</v>
+        <v>0.003609573468565941</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.0009805995505303144</v>
+        <v>0.004239074420183897</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0006158775649964809</v>
+        <v>0.0003962230985052884</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.0001698150590527803</v>
+        <v>0.001152057200670242</v>
       </c>
       <c r="BM14" t="n">
-        <v>3.832778020296246e-05</v>
+        <v>0.0004175739013589919</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.0002011648612096906</v>
+        <v>0.002784265903756022</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.0007692858926020563</v>
+        <v>0.002272145822644234</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.0005149533972144127</v>
+        <v>0.003299937816336751</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.000776514585595578</v>
+        <v>0.002581986365839839</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.0005475908983498812</v>
+        <v>0.0003950212267227471</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0007391725666821003</v>
+        <v>0.001548242755234241</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.0002928140747826546</v>
+        <v>0.003363867057487369</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.0006840159185230732</v>
+        <v>0.0009440346038900316</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.0001943946263054386</v>
+        <v>0.002788817277178168</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.0006152657442726195</v>
+        <v>0.001687205396592617</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.001183954416774213</v>
+        <v>0.0007751989178359509</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.00143265922088176</v>
+        <v>0.002827589400112629</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.0001402059569954872</v>
+        <v>0.001190963666886091</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.0005310599226504564</v>
+        <v>0.001896882313303649</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.0009596562013030052</v>
+        <v>0.0007279038545675576</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.001332903862930834</v>
+        <v>0.00107725802809</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.0002804168325383216</v>
+        <v>0.0001844237849581987</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.0006163361249491572</v>
+        <v>0.0005007701693102717</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.0004384935018606484</v>
+        <v>0.00051791564328596</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.000864403962623328</v>
+        <v>0.001345818862318993</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0002379071520408615</v>
+        <v>0.0009989391546696424</v>
       </c>
       <c r="CI14" t="n">
-        <v>4.334631012170576e-05</v>
+        <v>0.001528344349935651</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.0004812692059203982</v>
+        <v>0.0006550823454745114</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.0002442029654048383</v>
+        <v>0.0009393451036885381</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.0001541926176287234</v>
+        <v>0.0007637334638275206</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.0002757019829005003</v>
+        <v>0.002703857142478228</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.001063979463651776</v>
+        <v>0.000283269357169047</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.0004001740599051118</v>
+        <v>0.0006861401489004493</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.0002332776202820241</v>
+        <v>0.001056535867974162</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.002840645844116807</v>
+        <v>0.00411664554849267</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.001966922543942928</v>
+        <v>0.002222927985712886</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.001338016940280795</v>
+        <v>0.00260787270963192</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.0003197240584995598</v>
+        <v>0.005021821707487106</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.0002016982471104711</v>
+        <v>0.0005267651868052781</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.0002095735108014196</v>
+        <v>0.0005815901677124202</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.0006169511470943689</v>
+        <v>2.648442750796676e-05</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.000422538083512336</v>
+        <v>0.0002925735607277602</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.0006243165698833764</v>
+        <v>0.00166201707907021</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.0003311405889689922</v>
+        <v>0.0007725700852461159</v>
       </c>
       <c r="DA14" t="n">
-        <v>8.033002086449414e-05</v>
+        <v>0.0009654133464209735</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.0004106014966964722</v>
+        <v>0.00114625773858279</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.0001516556221758947</v>
+        <v>0.0009345153230242431</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.000132551635033451</v>
+        <v>0.001215543947182596</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.0001663091825321317</v>
+        <v>0.001398872118443251</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.0005907585145905614</v>
+        <v>0.0008179516298696399</v>
       </c>
       <c r="DG14" t="n">
-        <v>1.498029450885952e-05</v>
+        <v>0.002867405535653234</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.0007974399486556649</v>
+        <v>0.00405835872516036</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.00327351875603199</v>
+        <v>0.001428682473488152</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.0007493563462048769</v>
+        <v>0.00135060481261462</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.0004869611002504826</v>
+        <v>0.001708849333226681</v>
       </c>
       <c r="DL14" t="n">
-        <v>6.796501111239195e-06</v>
+        <v>0.006194713991135359</v>
       </c>
       <c r="DM14" t="n">
-        <v>2.898217644542456e-06</v>
+        <v>0.0002073708164971322</v>
       </c>
       <c r="DN14" t="n">
-        <v>8.986295142676681e-05</v>
+        <v>0.0005080843111500144</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.0007381141185760498</v>
+        <v>0.001202599843963981</v>
       </c>
       <c r="DP14" t="n">
-        <v>7.226542220450938e-05</v>
+        <v>0.0009799007093533874</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0002368003042647615</v>
+        <v>0.001439489889889956</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.0002344544627703726</v>
+        <v>0.000534077116753906</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.0009710960439406335</v>
+        <v>0.001808377215638757</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.0003192413714714348</v>
+        <v>0.0006355124060064554</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.0005598243442364037</v>
+        <v>0.002467719838023186</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.0003188436385244131</v>
+        <v>0.001402626396156847</v>
       </c>
       <c r="DW14" t="n">
-        <v>9.488932118983939e-05</v>
+        <v>0.002305875066667795</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.0001354732958134264</v>
+        <v>0.001708001946099102</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.0002118588599842042</v>
+        <v>0.002359414706006646</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.0004698363482020795</v>
+        <v>0.001235769828781486</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.0006863392191007733</v>
+        <v>0.002162105171009898</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.001437366823665798</v>
+        <v>0.001347304903902113</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.0002324491942999884</v>
+        <v>0.0002001321408897638</v>
       </c>
       <c r="ED14" t="n">
-        <v>2.756688991212286e-05</v>
+        <v>0.001137744053266943</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.0004999322118237615</v>
+        <v>0.0003113941638730466</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.0002929680922534317</v>
+        <v>0.000544019800145179</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.0004604309215210378</v>
+        <v>0.0002244333154521883</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.0002551165234763175</v>
+        <v>6.664422107860446e-05</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.001902903662994504</v>
+        <v>0.001544723054394126</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.0004521312948781997</v>
+        <v>0.00302239041775465</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.000581278873141855</v>
+        <v>3.579791882657446e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>3.611329520936124e-05</v>
+        <v>5.629539373330772e-05</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.0002083022845908999</v>
+        <v>0.0003541074693202972</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.0001514691102784127</v>
+        <v>8.951705967774615e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.0003527017834130675</v>
+        <v>0.001283269608393312</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.0002358162309974432</v>
+        <v>0.002725515747442842</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.00134942214936018</v>
+        <v>0.0001426782109774649</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.0001552908797748387</v>
+        <v>0.0002039654063992202</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.0004281790752429515</v>
+        <v>0.002112613525241613</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.0008935665246099234</v>
+        <v>0.0016956168692559</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.0006026697810739279</v>
+        <v>0.0005798067431896925</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.0004466617829166353</v>
+        <v>0.002422013320028782</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.0002018012601183727</v>
+        <v>0.004216479137539864</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.0001845592050813138</v>
+        <v>0.0004849493852816522</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.0006886965129524469</v>
+        <v>0.0003726706490851939</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.0004346372443251312</v>
+        <v>0.000909829861484468</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.0007101148366928101</v>
+        <v>0.001511769252829254</v>
       </c>
       <c r="FB14" t="n">
-        <v>8.652526594232768e-05</v>
+        <v>0.0003891079104505479</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.0002473662898410112</v>
+        <v>0.0007103260140866041</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.0004865040828008205</v>
+        <v>0.0002810264122672379</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.0003178184560965747</v>
+        <v>0.001193438656628132</v>
       </c>
       <c r="FF14" t="n">
-        <v>2.077058888971806e-05</v>
+        <v>0.001083198701962829</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.0001328637008555233</v>
+        <v>0.00122732063755393</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.0004521736118476838</v>
+        <v>0.000590842217206955</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.0001334747212240472</v>
+        <v>0.00395026383921504</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.0002441461547277868</v>
+        <v>0.001894753659144044</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.000745385535992682</v>
+        <v>0.00187098584137857</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.0005037273513153195</v>
+        <v>0.004892983473837376</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.000427449238486588</v>
+        <v>0.002496953587979078</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.0004878343315795064</v>
+        <v>0.001129340613260865</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.0005805336404591799</v>
+        <v>0.001255280920304358</v>
       </c>
       <c r="FP14" t="n">
-        <v>4.902401997242123e-05</v>
+        <v>0.0001975542982108891</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.0004477844340726733</v>
+        <v>0.003317428752779961</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.0007339048315770924</v>
+        <v>0.005185297224670649</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.0002982471196446568</v>
+        <v>0.002817282918840647</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.001761591294780374</v>
+        <v>0.008066987618803978</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.001567576196976006</v>
+        <v>0.0009705931879580021</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.0003844271996058524</v>
+        <v>0.00402755755931139</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.0006771152839064598</v>
+        <v>0.002276567276567221</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.0002944565785583109</v>
+        <v>0.0006480022566393018</v>
       </c>
       <c r="FY14" t="n">
-        <v>4.693997834692709e-05</v>
+        <v>0.001135426573455334</v>
       </c>
       <c r="FZ14" t="n">
-        <v>7.318282587220892e-05</v>
+        <v>0.001308147562667727</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.0002137563715223223</v>
+        <v>0.002409767359495163</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.0006170409615151584</v>
+        <v>0.004008106421679258</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.001746451947838068</v>
+        <v>0.004129801411181688</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.000822817615699023</v>
+        <v>0.002561149187386036</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.0001946778211276978</v>
+        <v>0.005365269724279642</v>
       </c>
       <c r="GF14" t="n">
-        <v>6.0955950175412e-05</v>
+        <v>0.0004657344543375075</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.0001091889644158073</v>
+        <v>0.002914994023740292</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.318983767210739e-06</v>
+        <v>3.377409185656433e-10</v>
       </c>
       <c r="B15" t="n">
-        <v>2.277700332342647e-06</v>
+        <v>4.658351482333956e-11</v>
       </c>
       <c r="C15" t="n">
-        <v>6.087278165978205e-07</v>
+        <v>1.552476723565288e-11</v>
       </c>
       <c r="D15" t="n">
-        <v>4.260037940184702e-07</v>
+        <v>5.513442827287385e-11</v>
       </c>
       <c r="E15" t="n">
-        <v>5.427235009847209e-06</v>
+        <v>1.572964675178312e-10</v>
       </c>
       <c r="F15" t="n">
-        <v>2.695478997338796e-06</v>
+        <v>1.817552774951992e-10</v>
       </c>
       <c r="G15" t="n">
-        <v>1.050936361934873e-06</v>
+        <v>1.038173713663326e-11</v>
       </c>
       <c r="H15" t="n">
-        <v>8.367816917598248e-06</v>
+        <v>7.010725333600476e-11</v>
       </c>
       <c r="I15" t="n">
-        <v>9.673639169704984e-07</v>
+        <v>9.741753237424433e-11</v>
       </c>
       <c r="J15" t="n">
-        <v>3.91293497159495e-06</v>
+        <v>3.532888981361282e-10</v>
       </c>
       <c r="K15" t="n">
-        <v>1.921981493069325e-06</v>
+        <v>5.173787440138078e-11</v>
       </c>
       <c r="L15" t="n">
-        <v>3.328119078105374e-07</v>
+        <v>7.199063567497888e-11</v>
       </c>
       <c r="M15" t="n">
-        <v>6.6707508494801e-07</v>
+        <v>1.599747001534979e-10</v>
       </c>
       <c r="N15" t="n">
-        <v>2.758977643679827e-06</v>
+        <v>4.394614533387298e-11</v>
       </c>
       <c r="O15" t="n">
-        <v>5.881127549400844e-07</v>
+        <v>1.954612582899529e-10</v>
       </c>
       <c r="P15" t="n">
-        <v>7.932234780128056e-07</v>
+        <v>3.943101400949445e-11</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.717041055206209e-06</v>
+        <v>8.166026882472366e-12</v>
       </c>
       <c r="R15" t="n">
-        <v>2.540861032684916e-06</v>
+        <v>9.189260463671189e-11</v>
       </c>
       <c r="S15" t="n">
-        <v>1.018935677166155e-06</v>
+        <v>4.687289792415505e-11</v>
       </c>
       <c r="T15" t="n">
-        <v>1.599785719008651e-06</v>
+        <v>9.037663672994967e-11</v>
       </c>
       <c r="U15" t="n">
-        <v>4.791192509401299e-07</v>
+        <v>2.974660448518129e-13</v>
       </c>
       <c r="V15" t="n">
-        <v>6.278604303133761e-08</v>
+        <v>1.525364279331143e-10</v>
       </c>
       <c r="W15" t="n">
-        <v>5.294904212860274e-07</v>
+        <v>4.131332775880736e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>3.163739847877878e-08</v>
+        <v>3.236655388150211e-11</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.035206878441386e-06</v>
+        <v>2.922830033558199e-11</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.471799234626815e-06</v>
+        <v>9.02439841604652e-12</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.736705144139705e-06</v>
+        <v>3.694062070125348e-11</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.952242645435035e-07</v>
+        <v>2.225470155381437e-11</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.340848936910334e-07</v>
+        <v>4.526218289058193e-11</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.32148306875024e-06</v>
+        <v>5.499797839370046e-11</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.989967697430984e-06</v>
+        <v>2.909470060707964e-11</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.572535893501481e-06</v>
+        <v>1.54600290902529e-12</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.071079615641793e-07</v>
+        <v>3.59943672090246e-11</v>
       </c>
       <c r="AH15" t="n">
-        <v>3.417987954890123e-07</v>
+        <v>4.287138699599069e-11</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.38761168450219e-07</v>
+        <v>1.321793507980118e-10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.120622187045228e-06</v>
+        <v>4.101854619853462e-11</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.582094000696088e-06</v>
+        <v>2.729422070302245e-11</v>
       </c>
       <c r="AL15" t="n">
-        <v>5.209210485190852e-08</v>
+        <v>1.187114295753133e-11</v>
       </c>
       <c r="AM15" t="n">
-        <v>3.839221847101726e-07</v>
+        <v>7.379376623650735e-12</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.948887852966436e-07</v>
+        <v>1.790727635619938e-11</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.924429958919063e-06</v>
+        <v>1.768697133197605e-10</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.370024506286427e-06</v>
+        <v>2.783127374395011e-11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.675406562957505e-07</v>
+        <v>1.049070552650022e-12</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.403670921718003e-06</v>
+        <v>4.65947835870395e-11</v>
       </c>
       <c r="AS15" t="n">
-        <v>6.749249337190122e-07</v>
+        <v>3.105567452504898e-12</v>
       </c>
       <c r="AT15" t="n">
-        <v>4.292771336622536e-06</v>
+        <v>1.079989292440686e-10</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.305834525235696e-06</v>
+        <v>8.849648791553477e-11</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.412397404645162e-07</v>
+        <v>6.912948685711129e-11</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.592777607584139e-07</v>
+        <v>1.185449655105586e-10</v>
       </c>
       <c r="AX15" t="n">
-        <v>4.774125955009367e-06</v>
+        <v>1.718964415253765e-10</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.565343361828127e-08</v>
+        <v>1.712125441422074e-10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2.519021791158593e-06</v>
+        <v>2.639610752197541e-11</v>
       </c>
       <c r="BA15" t="n">
-        <v>3.021796146640554e-06</v>
+        <v>8.695608122444298e-11</v>
       </c>
       <c r="BB15" t="n">
-        <v>5.998912229188136e-07</v>
+        <v>1.225299167684213e-10</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.191483306683949e-06</v>
+        <v>9.787252258641743e-11</v>
       </c>
       <c r="BD15" t="n">
-        <v>1.109047389036277e-06</v>
+        <v>1.996623873179448e-11</v>
       </c>
       <c r="BE15" t="n">
-        <v>4.612664668002253e-07</v>
+        <v>3.65969268778521e-11</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.046018383021874e-06</v>
+        <v>6.180050915460811e-11</v>
       </c>
       <c r="BG15" t="n">
-        <v>6.04023853156832e-07</v>
+        <v>1.021609186135919e-10</v>
       </c>
       <c r="BH15" t="n">
-        <v>9.282649102715368e-07</v>
+        <v>2.237159762996654e-10</v>
       </c>
       <c r="BI15" t="n">
-        <v>1.938667992362753e-06</v>
+        <v>1.396424989530409e-11</v>
       </c>
       <c r="BJ15" t="n">
-        <v>2.567359388194745e-06</v>
+        <v>4.363795783057789e-11</v>
       </c>
       <c r="BK15" t="n">
-        <v>4.279868903722672e-07</v>
+        <v>5.995871854569401e-11</v>
       </c>
       <c r="BL15" t="n">
-        <v>6.220566888259782e-07</v>
+        <v>5.569876504463167e-11</v>
       </c>
       <c r="BM15" t="n">
-        <v>5.654069923366478e-07</v>
+        <v>1.029222124193652e-10</v>
       </c>
       <c r="BN15" t="n">
-        <v>1.960043078952367e-07</v>
+        <v>5.138132627702241e-11</v>
       </c>
       <c r="BO15" t="n">
-        <v>1.143598410635605e-06</v>
+        <v>1.153147195787074e-11</v>
       </c>
       <c r="BP15" t="n">
-        <v>9.319629725723644e-07</v>
+        <v>6.492927029366768e-11</v>
       </c>
       <c r="BQ15" t="n">
-        <v>1.820224269977189e-06</v>
+        <v>9.623286889581806e-11</v>
       </c>
       <c r="BR15" t="n">
-        <v>1.479521642977488e-06</v>
+        <v>4.610819538675148e-12</v>
       </c>
       <c r="BS15" t="n">
-        <v>2.396862441855774e-07</v>
+        <v>2.187255931929144e-11</v>
       </c>
       <c r="BT15" t="n">
-        <v>6.649252100032754e-07</v>
+        <v>1.022066199035665e-11</v>
       </c>
       <c r="BU15" t="n">
-        <v>1.556224447085697e-06</v>
+        <v>5.672743524920421e-11</v>
       </c>
       <c r="BV15" t="n">
-        <v>2.165686964872293e-06</v>
+        <v>1.235468671811901e-11</v>
       </c>
       <c r="BW15" t="n">
-        <v>8.491099947605107e-07</v>
+        <v>4.622192906200695e-11</v>
       </c>
       <c r="BX15" t="n">
-        <v>1.771781057868793e-06</v>
+        <v>8.739896306675377e-11</v>
       </c>
       <c r="BY15" t="n">
-        <v>3.415041874177405e-06</v>
+        <v>6.271083478892603e-12</v>
       </c>
       <c r="BZ15" t="n">
-        <v>3.579125973374175e-07</v>
+        <v>1.253167430936841e-10</v>
       </c>
       <c r="CA15" t="n">
-        <v>5.4199074384087e-07</v>
+        <v>4.098477460190431e-11</v>
       </c>
       <c r="CB15" t="n">
-        <v>4.184189492661972e-06</v>
+        <v>6.177008904373338e-11</v>
       </c>
       <c r="CC15" t="n">
-        <v>1.362732064080774e-06</v>
+        <v>5.477114595198174e-11</v>
       </c>
       <c r="CD15" t="n">
-        <v>5.573885459853045e-07</v>
+        <v>6.974531369108306e-11</v>
       </c>
       <c r="CE15" t="n">
-        <v>7.43854059237492e-07</v>
+        <v>5.348509135583157e-11</v>
       </c>
       <c r="CF15" t="n">
-        <v>1.864635521542368e-07</v>
+        <v>8.680511170977567e-12</v>
       </c>
       <c r="CG15" t="n">
-        <v>1.193218110984162e-07</v>
+        <v>2.250123698477324e-12</v>
       </c>
       <c r="CH15" t="n">
-        <v>5.933061402174644e-07</v>
+        <v>1.907418450616816e-12</v>
       </c>
       <c r="CI15" t="n">
-        <v>1.472179746997426e-06</v>
+        <v>4.902707059772915e-11</v>
       </c>
       <c r="CJ15" t="n">
-        <v>1.75915602085297e-07</v>
+        <v>1.520216244554895e-13</v>
       </c>
       <c r="CK15" t="n">
-        <v>1.346188241768687e-06</v>
+        <v>4.923221552655122e-12</v>
       </c>
       <c r="CL15" t="n">
-        <v>9.869469863588165e-08</v>
+        <v>2.84938479061525e-11</v>
       </c>
       <c r="CM15" t="n">
-        <v>5.100245630274003e-07</v>
+        <v>4.099337189145125e-11</v>
       </c>
       <c r="CN15" t="n">
-        <v>1.868175871777566e-07</v>
+        <v>1.028109541945099e-11</v>
       </c>
       <c r="CO15" t="n">
-        <v>5.645624412409234e-09</v>
+        <v>7.424595660499023e-12</v>
       </c>
       <c r="CP15" t="n">
-        <v>9.593562708687386e-07</v>
+        <v>2.185238621998931e-11</v>
       </c>
       <c r="CQ15" t="n">
-        <v>1.910412947836448e-07</v>
+        <v>1.938175869797831e-10</v>
       </c>
       <c r="CR15" t="n">
-        <v>1.166260631180194e-06</v>
+        <v>6.701490057325898e-11</v>
       </c>
       <c r="CS15" t="n">
-        <v>1.700290567896445e-06</v>
+        <v>2.113843475259891e-11</v>
       </c>
       <c r="CT15" t="n">
-        <v>5.405537422120688e-07</v>
+        <v>2.062293565086026e-11</v>
       </c>
       <c r="CU15" t="n">
-        <v>7.034209374978673e-07</v>
+        <v>3.590229502581366e-11</v>
       </c>
       <c r="CV15" t="n">
-        <v>5.50483036931837e-07</v>
+        <v>6.289629234101923e-11</v>
       </c>
       <c r="CW15" t="n">
-        <v>1.002099452307448e-06</v>
+        <v>4.351369958799367e-11</v>
       </c>
       <c r="CX15" t="n">
-        <v>8.187110722701618e-08</v>
+        <v>5.173024335280996e-12</v>
       </c>
       <c r="CY15" t="n">
-        <v>5.894279411222669e-07</v>
+        <v>1.244779106179816e-11</v>
       </c>
       <c r="CZ15" t="n">
-        <v>6.239952767828072e-07</v>
+        <v>1.151026236129171e-11</v>
       </c>
       <c r="DA15" t="n">
-        <v>1.246614033334481e-06</v>
+        <v>2.348166799892581e-11</v>
       </c>
       <c r="DB15" t="n">
-        <v>2.871212814170576e-07</v>
+        <v>6.152703346806732e-12</v>
       </c>
       <c r="DC15" t="n">
-        <v>1.767714138622978e-06</v>
+        <v>2.222080158764683e-11</v>
       </c>
       <c r="DD15" t="n">
-        <v>5.41200506631867e-07</v>
+        <v>2.37356835575131e-11</v>
       </c>
       <c r="DE15" t="n">
-        <v>3.577247753128177e-06</v>
+        <v>2.140578131415438e-10</v>
       </c>
       <c r="DF15" t="n">
-        <v>2.146644419553922e-06</v>
+        <v>1.517702907793961e-10</v>
       </c>
       <c r="DG15" t="n">
-        <v>4.201400258807553e-07</v>
+        <v>6.123195700480366e-11</v>
       </c>
       <c r="DH15" t="n">
-        <v>7.539597390859853e-07</v>
+        <v>2.436635893054984e-10</v>
       </c>
       <c r="DI15" t="n">
-        <v>1.902355393212929e-06</v>
+        <v>1.832265311696446e-10</v>
       </c>
       <c r="DJ15" t="n">
-        <v>2.871693368433625e-06</v>
+        <v>1.580430057657178e-11</v>
       </c>
       <c r="DK15" t="n">
-        <v>9.710053063827218e-07</v>
+        <v>1.411080974289547e-10</v>
       </c>
       <c r="DL15" t="n">
-        <v>3.566707391655655e-07</v>
+        <v>1.401624372121546e-10</v>
       </c>
       <c r="DM15" t="n">
-        <v>2.088905148411868e-06</v>
+        <v>2.164590728881421e-10</v>
       </c>
       <c r="DN15" t="n">
-        <v>1.418430542798887e-06</v>
+        <v>8.239300908208236e-11</v>
       </c>
       <c r="DO15" t="n">
-        <v>1.142971882472921e-06</v>
+        <v>1.388628101395284e-11</v>
       </c>
       <c r="DP15" t="n">
-        <v>9.856282758846646e-07</v>
+        <v>2.394854106690936e-11</v>
       </c>
       <c r="DQ15" t="n">
-        <v>2.631819597809226e-07</v>
+        <v>5.248611614772081e-11</v>
       </c>
       <c r="DR15" t="n">
-        <v>4.797312840310042e-07</v>
+        <v>5.715495438041174e-11</v>
       </c>
       <c r="DS15" t="n">
-        <v>1.423546109435847e-06</v>
+        <v>8.556920449986904e-11</v>
       </c>
       <c r="DT15" t="n">
-        <v>8.953338124229049e-07</v>
+        <v>5.201831673740109e-11</v>
       </c>
       <c r="DU15" t="n">
-        <v>1.27336738842132e-06</v>
+        <v>1.159148332874338e-10</v>
       </c>
       <c r="DV15" t="n">
-        <v>2.858637344616e-07</v>
+        <v>5.165593300326954e-11</v>
       </c>
       <c r="DW15" t="n">
-        <v>2.79088681054418e-08</v>
+        <v>5.833258875931335e-11</v>
       </c>
       <c r="DX15" t="n">
-        <v>1.061945113178808e-06</v>
+        <v>1.038774552486466e-10</v>
       </c>
       <c r="DY15" t="n">
-        <v>6.321852765722724e-07</v>
+        <v>5.844781603148164e-11</v>
       </c>
       <c r="DZ15" t="n">
-        <v>1.245357907464495e-06</v>
+        <v>3.099923789884329e-11</v>
       </c>
       <c r="EA15" t="n">
-        <v>1.130746795752202e-06</v>
+        <v>3.205939680395176e-11</v>
       </c>
       <c r="EB15" t="n">
-        <v>7.328742412937572e-08</v>
+        <v>4.268017189668072e-11</v>
       </c>
       <c r="EC15" t="n">
-        <v>1.377691489778954e-07</v>
+        <v>3.019746779020505e-12</v>
       </c>
       <c r="ED15" t="n">
-        <v>2.017116429442467e-07</v>
+        <v>1.784935046988956e-11</v>
       </c>
       <c r="EE15" t="n">
-        <v>3.10062574726544e-07</v>
+        <v>8.968068648806948e-11</v>
       </c>
       <c r="EF15" t="n">
-        <v>1.614802499716461e-06</v>
+        <v>7.462720719164651e-11</v>
       </c>
       <c r="EG15" t="n">
-        <v>4.945266596223519e-07</v>
+        <v>2.66049907798882e-11</v>
       </c>
       <c r="EH15" t="n">
-        <v>1.932068727228398e-07</v>
+        <v>1.217367873174169e-11</v>
       </c>
       <c r="EI15" t="n">
-        <v>2.701666289794957e-06</v>
+        <v>3.674448939561259e-11</v>
       </c>
       <c r="EJ15" t="n">
-        <v>8.374785807063745e-07</v>
+        <v>2.969295642696324e-11</v>
       </c>
       <c r="EK15" t="n">
-        <v>8.818398100629565e-08</v>
+        <v>5.041975517650066e-11</v>
       </c>
       <c r="EL15" t="n">
-        <v>5.532812110686791e-07</v>
+        <v>2.601212474584447e-11</v>
       </c>
       <c r="EM15" t="n">
-        <v>1.40637405365851e-06</v>
+        <v>2.70720728820506e-12</v>
       </c>
       <c r="EN15" t="n">
-        <v>1.903509172507256e-07</v>
+        <v>3.260767003632203e-11</v>
       </c>
       <c r="EO15" t="n">
-        <v>5.361684998206329e-07</v>
+        <v>3.272946150212341e-11</v>
       </c>
       <c r="EP15" t="n">
-        <v>1.665559352659329e-07</v>
+        <v>5.24537011048487e-11</v>
       </c>
       <c r="EQ15" t="n">
-        <v>1.572240080349729e-07</v>
+        <v>8.208517199292942e-11</v>
       </c>
       <c r="ER15" t="n">
-        <v>2.404994177140907e-07</v>
+        <v>1.373709479501883e-11</v>
       </c>
       <c r="ES15" t="n">
-        <v>1.280995093111414e-06</v>
+        <v>7.656607292627626e-11</v>
       </c>
       <c r="ET15" t="n">
-        <v>1.315892632192117e-06</v>
+        <v>6.996575541151628e-11</v>
       </c>
       <c r="EU15" t="n">
-        <v>6.230679900909308e-07</v>
+        <v>1.030813628899452e-11</v>
       </c>
       <c r="EV15" t="n">
-        <v>1.138599941441498e-06</v>
+        <v>3.376525795073526e-11</v>
       </c>
       <c r="EW15" t="n">
-        <v>1.124597361013002e-06</v>
+        <v>6.657097789686262e-11</v>
       </c>
       <c r="EX15" t="n">
-        <v>5.220214234213927e-07</v>
+        <v>5.88009779756149e-11</v>
       </c>
       <c r="EY15" t="n">
-        <v>1.125520498135302e-06</v>
+        <v>2.518643626991945e-11</v>
       </c>
       <c r="EZ15" t="n">
-        <v>3.606946563650126e-08</v>
+        <v>1.219051595779952e-11</v>
       </c>
       <c r="FA15" t="n">
-        <v>7.619087796228996e-07</v>
+        <v>1.36046417187341e-11</v>
       </c>
       <c r="FB15" t="n">
-        <v>1.361100885333144e-07</v>
+        <v>3.867065955648341e-12</v>
       </c>
       <c r="FC15" t="n">
-        <v>1.161566046903317e-06</v>
+        <v>4.693865782168238e-11</v>
       </c>
       <c r="FD15" t="n">
-        <v>2.33261943094476e-07</v>
+        <v>1.331391767667167e-11</v>
       </c>
       <c r="FE15" t="n">
-        <v>2.051517412837711e-06</v>
+        <v>4.808723731708486e-12</v>
       </c>
       <c r="FF15" t="n">
-        <v>5.091668526802096e-07</v>
+        <v>1.914809977243692e-11</v>
       </c>
       <c r="FG15" t="n">
-        <v>8.049747748373193e-07</v>
+        <v>6.350024672752141e-11</v>
       </c>
       <c r="FH15" t="n">
-        <v>1.711184836494795e-06</v>
+        <v>4.534465858352377e-11</v>
       </c>
       <c r="FI15" t="n">
-        <v>1.651105208111403e-08</v>
+        <v>2.514599639624748e-12</v>
       </c>
       <c r="FJ15" t="n">
-        <v>5.374045031203423e-07</v>
+        <v>4.826283123149366e-11</v>
       </c>
       <c r="FK15" t="n">
-        <v>1.123196284424921e-06</v>
+        <v>3.946717258562771e-11</v>
       </c>
       <c r="FL15" t="n">
-        <v>7.172297955548856e-07</v>
+        <v>8.795606604161677e-11</v>
       </c>
       <c r="FM15" t="n">
-        <v>7.626583737874171e-07</v>
+        <v>4.471328689248377e-12</v>
       </c>
       <c r="FN15" t="n">
-        <v>2.592046485005994e-06</v>
+        <v>2.354932221448891e-11</v>
       </c>
       <c r="FO15" t="n">
-        <v>6.196926705115402e-08</v>
+        <v>5.319472293208172e-11</v>
       </c>
       <c r="FP15" t="n">
-        <v>2.606309863040224e-06</v>
+        <v>1.050166203997449e-10</v>
       </c>
       <c r="FQ15" t="n">
-        <v>6.894964030834672e-07</v>
+        <v>6.900861132530522e-11</v>
       </c>
       <c r="FR15" t="n">
-        <v>3.260779521951918e-07</v>
+        <v>1.402171712072686e-10</v>
       </c>
       <c r="FS15" t="n">
-        <v>3.562926622180385e-06</v>
+        <v>1.772695462642915e-10</v>
       </c>
       <c r="FT15" t="n">
-        <v>3.090432528551901e-06</v>
+        <v>1.568440377575087e-10</v>
       </c>
       <c r="FU15" t="n">
-        <v>3.124187287539826e-06</v>
+        <v>9.885911533835667e-12</v>
       </c>
       <c r="FV15" t="n">
-        <v>7.114959998943959e-07</v>
+        <v>7.873142415792955e-11</v>
       </c>
       <c r="FW15" t="n">
-        <v>3.356286924827145e-06</v>
+        <v>9.743580248189332e-11</v>
       </c>
       <c r="FX15" t="n">
-        <v>1.203526380777475e-06</v>
+        <v>2.046250668907845e-11</v>
       </c>
       <c r="FY15" t="n">
-        <v>2.181445324822562e-06</v>
+        <v>1.547047732974871e-11</v>
       </c>
       <c r="FZ15" t="n">
-        <v>1.780428647180088e-06</v>
+        <v>3.461364528334343e-11</v>
       </c>
       <c r="GA15" t="n">
-        <v>2.295456624779035e-08</v>
+        <v>8.496468806296065e-11</v>
       </c>
       <c r="GB15" t="n">
-        <v>3.981529062002664e-08</v>
+        <v>1.004934850612482e-11</v>
       </c>
       <c r="GC15" t="n">
-        <v>3.04417062579887e-06</v>
+        <v>1.335416777159537e-10</v>
       </c>
       <c r="GD15" t="n">
-        <v>6.260980853767251e-07</v>
+        <v>2.178082540715831e-11</v>
       </c>
       <c r="GE15" t="n">
-        <v>1.409274887009815e-06</v>
+        <v>3.757399946735518e-11</v>
       </c>
       <c r="GF15" t="n">
-        <v>2.96627433726826e-07</v>
+        <v>2.38960552734202e-11</v>
       </c>
       <c r="GG15" t="n">
-        <v>1.012345364870271e-06</v>
+        <v>1.608637181793604e-11</v>
       </c>
     </row>
   </sheetData>
